--- a/GPS2Address/locations_test.xlsx
+++ b/GPS2Address/locations_test.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="390">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -197,7 +197,10 @@
     <t xml:space="preserve">Index</t>
   </si>
   <si>
-    <t xml:space="preserve">1927-02-15 08:08:00</t>
+    <t xml:space="preserve">Al Copone born</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locations</t>
   </si>
   <si>
     <t xml:space="preserve">41.9692095</t>
@@ -215,9 +218,6 @@
     <t xml:space="preserve">Intel</t>
   </si>
   <si>
-    <t xml:space="preserve">Locations</t>
-  </si>
-  <si>
     <t xml:space="preserve">Important</t>
   </si>
   <si>
@@ -266,9 +266,6 @@
     <t xml:space="preserve">1927-03-333</t>
   </si>
   <si>
-    <t xml:space="preserve">1927-03-16 23:28:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">41.8787485</t>
   </si>
   <si>
@@ -302,9 +299,6 @@
     <t xml:space="preserve">1927-03-16 22:18:00</t>
   </si>
   <si>
-    <t xml:space="preserve">1927-04-13 13:22:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">41.873364</t>
   </si>
   <si>
@@ -332,9 +326,6 @@
     <t xml:space="preserve">41.873364,-87.6270749</t>
   </si>
   <si>
-    <t xml:space="preserve">1927-05-13 15:22:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">41.8529443</t>
   </si>
   <si>
@@ -368,9 +359,6 @@
     <t xml:space="preserve">1927-05-13 14:22:00</t>
   </si>
   <si>
-    <t xml:space="preserve">1927-05-14 15:22:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">41.7625038</t>
   </si>
   <si>
@@ -401,9 +389,6 @@
     <t xml:space="preserve">Home</t>
   </si>
   <si>
-    <t xml:space="preserve">1927-06-15 15:22:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">-87.6262266</t>
   </si>
   <si>
@@ -425,9 +410,6 @@
     <t xml:space="preserve">41.8911897,-87.6262266</t>
   </si>
   <si>
-    <t xml:space="preserve">1927-08-21 11:06:47</t>
-  </si>
-  <si>
     <t xml:space="preserve">Radius / Altitude test</t>
   </si>
   <si>
@@ -455,9 +437,6 @@
     <t xml:space="preserve">Table: ZRTLEARNEDLOCATIONOFINTERESTVISITMO(Z_PK: 50653)</t>
   </si>
   <si>
-    <t xml:space="preserve">1929-02-14 10:30:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">41.9208803</t>
   </si>
   <si>
@@ -494,7 +473,13 @@
     <t xml:space="preserve">1929-02-142</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-07-15 17:21:51</t>
+    <t xml:space="preserve">Charged with Income Tax Evasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicted – 22 counts of tax evasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al Capone died</t>
   </si>
   <si>
     <t xml:space="preserve">41.8637888888889</t>
@@ -524,9 +509,6 @@
     <t xml:space="preserve">7/15/2021 5:21:51 PM</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-09-22 13:02:45</t>
-  </si>
-  <si>
     <t xml:space="preserve">41.8832069138184</t>
   </si>
   <si>
@@ -566,9 +548,6 @@
     <t xml:space="preserve">Truck</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-06-13 21:41:33</t>
-  </si>
-  <si>
     <t xml:space="preserve">41.821174151816635</t>
   </si>
   <si>
@@ -617,9 +596,6 @@
     <t xml:space="preserve">06/13/2022 09:41:33 PM</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-07-26 14:33:12</t>
-  </si>
-  <si>
     <t xml:space="preserve">41.7431510003286</t>
   </si>
   <si>
@@ -656,75 +632,72 @@
     <t xml:space="preserve">41.7431510003286,-87.8369635429077</t>
   </si>
   <si>
+    <t xml:space="preserve">41.9836875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-87.9707624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documents Responsive to Subpoena #2024-212.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test – Eastbound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illinois Tollway Plaza 320 - Westbound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL 390</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL 60191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illinois Tollway Plaza 320 - Westbound, IL 390, Wood Dale, IL 60191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I-390 &amp; Lively Blvd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9836875,-87.9707624</t>
+  </si>
+  <si>
     <t xml:space="preserve">2023-01-02 17:42:00</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9836875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-87.9707624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documents Responsive to Subpoena #2024-212.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test – Eastbound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illinois Tollway Plaza 320 - Westbound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL 390</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL 60191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illinois Tollway Plaza 320 - Westbound, IL 390, Wood Dale, IL 60191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I-390 &amp; Lively Blvd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9836875,-87.9707624</t>
+    <t xml:space="preserve">41.9843125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-88.0100124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test – Toll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itasca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illinois Tollway Plaza 324 - Westbound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL 60143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illinois Tollway Plaza 324 - Westbound, IL 390, Itasca, IL 60143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I-390 &amp; Hamilton Lakes Blvd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9843125,-88.0100124</t>
   </si>
   <si>
     <t xml:space="preserve">2023-01-20 19:17:00</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9843125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-88.0100124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test – Toll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Itasca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illinois Tollway Plaza 324 - Westbound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL 60143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illinois Tollway Plaza 324 - Westbound, IL 390, Itasca, IL 60143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I-390 &amp; Hamilton Lakes Blvd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9843125,-88.0100124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-09-20 15:26:38</t>
-  </si>
-  <si>
     <t xml:space="preserve">41.8637869888889</t>
   </si>
   <si>
@@ -743,9 +716,6 @@
     <t xml:space="preserve">9/20/2023 3:26:38 PM(UTC-5)</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-12-24 10:24:20</t>
-  </si>
-  <si>
     <t xml:space="preserve">Roosevelt Road, Forest Park, Proviso Township, Cook County, Illinois, 60154, United States</t>
   </si>
   <si>
@@ -770,9 +740,6 @@
     <t xml:space="preserve">12/24/2023 10:24:20 AM(UTC-6)</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-12-26 11:01:31</t>
-  </si>
-  <si>
     <t xml:space="preserve">41.8832054138184</t>
   </si>
   <si>
@@ -785,75 +752,72 @@
     <t xml:space="preserve">12/26/2023 11:01:31 AM(UTC-6)</t>
   </si>
   <si>
+    <t xml:space="preserve">41.8485625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-87.9437624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test – Westbound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illinois Tollway Plaza 51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illinois 110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago - Kansas City Expressway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W 22nd St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL 60523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illinois Tollway Plaza 51, Chicago - Kansas City Expressway, Illinois 110, W 22nd St, Oak Brook, IL 60523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I-88 &amp; York Rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8485625,-87.9437624</t>
+  </si>
+  <si>
     <t xml:space="preserve">2023-12-27 16:59:00</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8485625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-87.9437624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test – Westbound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illinois Tollway Plaza 51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illinois 110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chicago - Kansas City Expressway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W 22nd St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL 60523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illinois Tollway Plaza 51, Chicago - Kansas City Expressway, Illinois 110, W 22nd St, Oak Brook, IL 60523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I-88 &amp; York Rd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8485625,-87.9437624</t>
+    <t xml:space="preserve">41.7330625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-88.0377624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test – Southbound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illinois Tollway Plaza 89 Southbound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veterans Memorial Tollway S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL 60517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illinois Tollway Plaza 89 Southbound, Veterans Memorial Tollway S, Woodridge, IL 60517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I-355 &amp; Boughton Rd Mainline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7330625,-88.0377624</t>
   </si>
   <si>
     <t xml:space="preserve">2023-12-27 17:11:00</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7330625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-88.0377624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test – Southbound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illinois Tollway Plaza 89 Southbound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veterans Memorial Tollway S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL 60517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illinois Tollway Plaza 89 Southbound, Veterans Memorial Tollway S, Woodridge, IL 60517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I-355 &amp; Boughton Rd Mainline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7330625,-88.0377624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-07 13:39:20</t>
-  </si>
-  <si>
     <t xml:space="preserve">41.7856916</t>
   </si>
   <si>
@@ -881,37 +845,37 @@
     <t xml:space="preserve">01/07/2024 01:39:20 PM</t>
   </si>
   <si>
+    <t xml:space="preserve">41.7394375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-87.8291374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-bound icon : Toll Tag ID:12345678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83rd St Toll Plaza 39 Northbound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tri-State Tollway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL 60458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83rd St Toll Plaza 39 Northbound, Tri-State Tollway, Justice, IL 60458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I-294 &amp; 83rd St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7394375,-87.8291374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
     <t xml:space="preserve">2024-01-19 14:15:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7394375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-87.8291374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N-bound icon : Toll Tag ID:12345678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83rd St Toll Plaza 39 Northbound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tri-State Tollway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL 60458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83rd St Toll Plaza 39 Northbound, Tri-State Tollway, Justice, IL 60458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I-294 &amp; 83rd St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7394375,-87.8291374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
   </si>
   <si>
     <t xml:space="preserve">41.8523443</t>
@@ -1233,9 +1197,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -1321,7 +1286,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1339,6 +1304,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1425,9 +1394,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>303840</xdr:colOff>
+      <xdr:colOff>303480</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1441,7 +1410,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="190440"/>
-          <a:ext cx="303840" cy="303840"/>
+          <a:ext cx="303480" cy="303480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1462,9 +1431,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>303840</xdr:colOff>
+      <xdr:colOff>303480</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1478,7 +1447,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="469800"/>
-          <a:ext cx="303840" cy="303840"/>
+          <a:ext cx="303480" cy="303480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1499,9 +1468,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>303840</xdr:colOff>
+      <xdr:colOff>303480</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1515,7 +1484,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="749160"/>
-          <a:ext cx="303840" cy="303840"/>
+          <a:ext cx="303480" cy="303480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1536,9 +1505,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>303840</xdr:colOff>
+      <xdr:colOff>303480</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1552,7 +1521,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="1041120"/>
-          <a:ext cx="303840" cy="303840"/>
+          <a:ext cx="303480" cy="303480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1573,9 +1542,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1589,7 +1558,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="1333440"/>
-          <a:ext cx="608400" cy="608400"/>
+          <a:ext cx="608040" cy="608040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1610,9 +1579,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>303840</xdr:colOff>
+      <xdr:colOff>303480</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>303840</xdr:rowOff>
+      <xdr:rowOff>303480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1626,7 +1595,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="1917360"/>
-          <a:ext cx="303840" cy="303840"/>
+          <a:ext cx="303480" cy="303480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1647,9 +1616,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>303840</xdr:colOff>
+      <xdr:colOff>303480</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1663,7 +1632,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="2222280"/>
-          <a:ext cx="303840" cy="303840"/>
+          <a:ext cx="303480" cy="303480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1684,9 +1653,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>303840</xdr:colOff>
+      <xdr:colOff>303480</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1700,7 +1669,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="2501640"/>
-          <a:ext cx="303840" cy="303840"/>
+          <a:ext cx="303480" cy="303480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1721,9 +1690,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>303840</xdr:colOff>
+      <xdr:colOff>303480</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1737,7 +1706,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="2781000"/>
-          <a:ext cx="303840" cy="303840"/>
+          <a:ext cx="303480" cy="303480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1758,9 +1727,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>303840</xdr:colOff>
+      <xdr:colOff>303480</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1774,7 +1743,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3060360"/>
-          <a:ext cx="303840" cy="303840"/>
+          <a:ext cx="303480" cy="303480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1795,9 +1764,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>303840</xdr:colOff>
+      <xdr:colOff>303480</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1811,7 +1780,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3352680"/>
-          <a:ext cx="303840" cy="303840"/>
+          <a:ext cx="303480" cy="303480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1832,9 +1801,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>303840</xdr:colOff>
+      <xdr:colOff>303480</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>303840</xdr:rowOff>
+      <xdr:rowOff>303480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1848,7 +1817,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3644640"/>
-          <a:ext cx="303840" cy="303840"/>
+          <a:ext cx="303480" cy="303480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1869,9 +1838,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>303840</xdr:colOff>
+      <xdr:colOff>303480</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>303840</xdr:rowOff>
+      <xdr:rowOff>303480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1885,7 +1854,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3962160"/>
-          <a:ext cx="303840" cy="303840"/>
+          <a:ext cx="303480" cy="303480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1906,9 +1875,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>303840</xdr:colOff>
+      <xdr:colOff>303480</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1922,7 +1891,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4279680"/>
-          <a:ext cx="303840" cy="303840"/>
+          <a:ext cx="303480" cy="303480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1943,9 +1912,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>125640</xdr:rowOff>
+      <xdr:rowOff>125280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1959,7 +1928,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4647960"/>
-          <a:ext cx="608400" cy="608400"/>
+          <a:ext cx="608040" cy="608040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1980,9 +1949,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>126000</xdr:rowOff>
+      <xdr:rowOff>125640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1996,7 +1965,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="5130720"/>
-          <a:ext cx="608400" cy="608400"/>
+          <a:ext cx="608040" cy="608040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2017,9 +1986,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>125640</xdr:rowOff>
+      <xdr:rowOff>125280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2033,7 +2002,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="5613120"/>
-          <a:ext cx="608400" cy="608400"/>
+          <a:ext cx="608040" cy="608040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2054,9 +2023,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>126000</xdr:rowOff>
+      <xdr:rowOff>125640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2070,7 +2039,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="6095880"/>
-          <a:ext cx="608400" cy="608400"/>
+          <a:ext cx="608040" cy="608040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2091,9 +2060,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>49320</xdr:rowOff>
+      <xdr:rowOff>48960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2107,7 +2076,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="6578280"/>
-          <a:ext cx="608400" cy="608400"/>
+          <a:ext cx="608040" cy="608040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2128,9 +2097,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2144,7 +2113,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7137360"/>
-          <a:ext cx="608400" cy="608400"/>
+          <a:ext cx="608040" cy="608040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2165,9 +2134,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>303840</xdr:colOff>
+      <xdr:colOff>303480</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>113040</xdr:rowOff>
+      <xdr:rowOff>112680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2181,7 +2150,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7403760"/>
-          <a:ext cx="303840" cy="303840"/>
+          <a:ext cx="303480" cy="303480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2202,9 +2171,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>37080</xdr:rowOff>
+      <xdr:rowOff>36720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2218,7 +2187,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7594560"/>
-          <a:ext cx="608400" cy="608400"/>
+          <a:ext cx="608040" cy="608040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2238,17 +2207,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BF34"/>
+  <dimension ref="A1:BF38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AS2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AS1" activeCellId="0" sqref="AS1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AY18" activeCellId="0" sqref="AY18"/>
+      <selection pane="bottomRight" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19"/>
@@ -2478,122 +2447,38 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="4" t="n">
+        <v>-346.872164351852</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="4" t="n">
+        <v>9908.33888888889</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="S2" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="T2" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="U2" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="V2" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="W2" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="X2" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y2" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z2" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF2" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG2" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>59</v>
-      </c>
-      <c r="AH2" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="AR2" s="4" t="n">
-        <v>9908.33888888889</v>
-      </c>
-      <c r="AT2" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU2" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AV2" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="BA2" s="0" t="n">
-        <v>53.4453352726708</v>
-      </c>
-      <c r="BF2" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>64</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>65</v>
@@ -2602,43 +2487,52 @@
         <v>66</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>86</v>
+        <v>68</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V3" s="0" t="s">
         <v>73</v>
       </c>
+      <c r="W3" s="0" t="s">
+        <v>74</v>
+      </c>
       <c r="X3" s="0" t="s">
         <v>75</v>
       </c>
       <c r="Y3" s="0" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AF3" s="0" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AG3" s="0" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="AH3" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="AR3" s="4" t="n">
-        <v>9937.97777777778</v>
+        <v>61</v>
+      </c>
+      <c r="AR3" s="5" t="n">
+        <v>9908.33888888889</v>
       </c>
       <c r="AT3" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AU3" s="0" t="s">
         <v>79</v>
@@ -2646,46 +2540,34 @@
       <c r="AV3" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="AW3" s="0" t="s">
+      <c r="BA3" s="0" t="n">
+        <v>53.4453352726708</v>
+      </c>
+      <c r="BF3" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="4" t="n">
+        <v>9937.97777777778</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="0" t="s">
         <v>59</v>
-      </c>
-      <c r="AX3" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="AY3" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ3" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="BF3" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>64</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>65</v>
@@ -2694,16 +2576,13 @@
         <v>66</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="S4" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U4" s="0" t="s">
         <v>71</v>
@@ -2715,25 +2594,25 @@
         <v>75</v>
       </c>
       <c r="Y4" s="0" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="Z4" s="0" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="AF4" s="0" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="AG4" s="0" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AH4" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="AR4" s="4" t="n">
-        <v>9965.55694444444</v>
+        <v>82</v>
+      </c>
+      <c r="AR4" s="5" t="n">
+        <v>9937.97777777778</v>
       </c>
       <c r="AT4" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AU4" s="0" t="s">
         <v>79</v>
@@ -2741,34 +2620,43 @@
       <c r="AV4" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="BA4" s="0" t="n">
-        <v>41.8718348601936</v>
+      <c r="AW4" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX4" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="AY4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ4" s="0" t="n">
+        <v>55</v>
       </c>
       <c r="BF4" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>103</v>
+      <c r="B5" s="4" t="n">
+        <v>9965.55694444444</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>-87.6229247</v>
+        <v>92</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>94</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>64</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>65</v>
@@ -2776,11 +2664,17 @@
       <c r="M5" s="0" t="s">
         <v>66</v>
       </c>
+      <c r="P5" s="0" t="s">
+        <v>96</v>
+      </c>
       <c r="Q5" s="0" t="s">
-        <v>106</v>
+        <v>97</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>86</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="U5" s="0" t="s">
         <v>71</v>
@@ -2788,29 +2682,29 @@
       <c r="V5" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="W5" s="0" t="s">
-        <v>108</v>
-      </c>
       <c r="X5" s="0" t="s">
         <v>75</v>
       </c>
       <c r="Y5" s="0" t="s">
-        <v>109</v>
+        <v>98</v>
+      </c>
+      <c r="Z5" s="0" t="s">
+        <v>99</v>
       </c>
       <c r="AF5" s="0" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG5" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH5" s="0" t="n">
-        <v>-87.6229247</v>
-      </c>
-      <c r="AR5" s="4" t="n">
-        <v>9995.64027777778</v>
+        <v>92</v>
+      </c>
+      <c r="AH5" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR5" s="5" t="n">
+        <v>9965.55694444444</v>
       </c>
       <c r="AT5" s="0" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="AU5" s="0" t="s">
         <v>79</v>
@@ -2818,43 +2712,31 @@
       <c r="AV5" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="AW5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="AX5" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY5" s="0" t="s">
-        <v>114</v>
+      <c r="BA5" s="0" t="n">
+        <v>41.8718348601936</v>
       </c>
       <c r="BF5" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>115</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="4" t="n">
+        <v>9995.64027777778</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>118</v>
+        <v>101</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>-87.6229247</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>65</v>
@@ -2862,44 +2744,41 @@
       <c r="M6" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="R6" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="S6" s="0" t="s">
-        <v>121</v>
+      <c r="Q6" s="0" t="s">
+        <v>103</v>
       </c>
       <c r="T6" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="U6" s="0" t="s">
         <v>71</v>
-      </c>
-      <c r="U6" s="0" t="s">
-        <v>72</v>
       </c>
       <c r="V6" s="0" t="s">
         <v>73</v>
       </c>
+      <c r="W6" s="0" t="s">
+        <v>105</v>
+      </c>
       <c r="X6" s="0" t="s">
         <v>75</v>
       </c>
       <c r="Y6" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z6" s="0" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="AF6" s="0" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="AG6" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH6" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="AR6" s="4" t="n">
-        <v>9996.64027777778</v>
+        <v>101</v>
+      </c>
+      <c r="AH6" s="0" t="n">
+        <v>-87.6229247</v>
+      </c>
+      <c r="AR6" s="5" t="n">
+        <v>9995.64027777778</v>
       </c>
       <c r="AT6" s="0" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="AU6" s="0" t="s">
         <v>79</v>
@@ -2907,34 +2786,40 @@
       <c r="AV6" s="0" t="s">
         <v>80</v>
       </c>
+      <c r="AW6" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX6" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY6" s="0" t="s">
+        <v>111</v>
+      </c>
       <c r="BF6" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>126</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="4" t="n">
+        <v>9996.64027777778</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>112</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>65</v>
@@ -2942,14 +2827,17 @@
       <c r="M7" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="Q7" s="0" t="s">
-        <v>129</v>
+      <c r="R7" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>117</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V7" s="0" t="s">
         <v>73</v>
@@ -2958,25 +2846,25 @@
         <v>75</v>
       </c>
       <c r="Y7" s="0" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="Z7" s="0" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="AF7" s="0" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="AG7" s="0" t="s">
         <v>112</v>
       </c>
       <c r="AH7" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR7" s="4" t="n">
-        <v>10028.6402777778</v>
+        <v>113</v>
+      </c>
+      <c r="AR7" s="5" t="n">
+        <v>9996.64027777778</v>
       </c>
       <c r="AT7" s="0" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="AU7" s="0" t="s">
         <v>79</v>
@@ -2985,45 +2873,45 @@
         <v>80</v>
       </c>
       <c r="BF7" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>41.8788764</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>-87.6384898</v>
+      <c r="B8" s="4" t="n">
+        <v>10028.6402777778</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>123</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>137</v>
+        <v>65</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>66</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="T8" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="U8" s="0" t="s">
         <v>71</v>
-      </c>
-      <c r="U8" s="0" t="s">
-        <v>72</v>
       </c>
       <c r="V8" s="0" t="s">
         <v>73</v>
@@ -3032,16 +2920,25 @@
         <v>75</v>
       </c>
       <c r="Y8" s="0" t="s">
-        <v>139</v>
+        <v>126</v>
+      </c>
+      <c r="Z8" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF8" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="AG8" s="0" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="AH8" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="AR8" s="0" t="s">
-        <v>142</v>
+        <v>122</v>
+      </c>
+      <c r="AR8" s="5" t="n">
+        <v>10028.6402777778</v>
+      </c>
+      <c r="AT8" s="0" t="s">
+        <v>64</v>
       </c>
       <c r="AU8" s="0" t="s">
         <v>79</v>
@@ -3049,64 +2946,43 @@
       <c r="AV8" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="BA8" s="0" t="n">
-        <v>43.4453352726708</v>
-      </c>
-      <c r="BB8" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC8" s="0" t="s">
-        <v>143</v>
-      </c>
       <c r="BF8" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>147</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="4" t="n">
+        <v>10095.4630439815</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>41.8788764</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>-87.6384898</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>66</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="R9" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="S9" s="0" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V9" s="0" t="s">
         <v>73</v>
@@ -3115,548 +2991,395 @@
         <v>75</v>
       </c>
       <c r="Y9" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="Z9" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="AF9" s="0" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="AG9" s="0" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="AH9" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR9" s="4" t="n">
-        <v>10638.4375</v>
-      </c>
-      <c r="AT9" s="0" t="s">
-        <v>63</v>
+        <v>135</v>
+      </c>
+      <c r="AR9" s="0" t="s">
+        <v>136</v>
       </c>
       <c r="AU9" s="0" t="s">
         <v>79</v>
       </c>
       <c r="AV9" s="0" t="s">
-        <v>156</v>
+        <v>80</v>
+      </c>
+      <c r="BA9" s="0" t="n">
+        <v>43.4453352726708</v>
+      </c>
+      <c r="BB9" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC9" s="0" t="s">
+        <v>137</v>
       </c>
       <c r="BF9" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>157</v>
+      <c r="B10" s="4" t="n">
+        <v>10638.4375</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>159</v>
+        <v>139</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>140</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>65</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="0" t="s">
-        <v>162</v>
-      </c>
       <c r="Q10" s="0" t="s">
-        <v>163</v>
+        <v>142</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="U10" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="V10" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="X10" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y10" s="0" t="s">
+        <v>146</v>
       </c>
       <c r="Z10" s="0" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="AF10" s="0" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="AG10" s="0" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="AH10" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="AR10" s="0" t="s">
-        <v>166</v>
+        <v>139</v>
+      </c>
+      <c r="AR10" s="5" t="n">
+        <v>10638.4375</v>
       </c>
       <c r="AT10" s="0" t="s">
-        <v>161</v>
+        <v>64</v>
       </c>
       <c r="AU10" s="0" t="s">
         <v>79</v>
       </c>
+      <c r="AV10" s="0" t="s">
+        <v>149</v>
+      </c>
       <c r="BF10" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="T11" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="U11" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="V11" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="W11" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="X11" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y11" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z11" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB11" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="AE11" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="AF11" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="AG11" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="AH11" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK11" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="AM11" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="AR11" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="AT11" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="AU11" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="BF11" s="0" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="L12" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="M12" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="P12" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q12" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="T12" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="U12" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="V12" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="W12" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="X12" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y12" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z12" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB12" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC12" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="AD12" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="AE12" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="AF12" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="AG12" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="AH12" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="AK12" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="AR12" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT12" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="AU12" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="BF12" s="0" t="n">
-        <v>12</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="4" t="n">
+        <v>11395.1702083333</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="4" t="n">
+        <v>11479.5515625</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>200</v>
+      <c r="B13" s="4" t="n">
+        <v>17192.1702083333</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>152</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="M13" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="P13" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="Z13" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="AF13" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="AG13" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="AH13" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="AR13" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="AT13" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU13" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="BF13" s="0" t="n">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>198</v>
+      <c r="B14" s="4" t="n">
+        <v>44392.7235069444</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>205</v>
+        <v>154</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>155</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M14" s="0" t="s">
         <v>66</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>207</v>
+        <v>157</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>158</v>
       </c>
       <c r="Z14" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="AB14" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE14" s="0" t="s">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="AF14" s="0" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="AG14" s="0" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="AH14" s="0" t="s">
-        <v>205</v>
+        <v>154</v>
       </c>
       <c r="AR14" s="0" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="AT14" s="0" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="AU14" s="0" t="s">
         <v>79</v>
       </c>
       <c r="BF14" s="0" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>211</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="4" t="n">
+        <v>44461.5435763889</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>214</v>
+        <v>66</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q15" s="0" t="s">
-        <v>216</v>
+        <v>165</v>
+      </c>
+      <c r="T15" s="0" t="s">
+        <v>86</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>217</v>
+        <v>71</v>
       </c>
       <c r="V15" s="0" t="s">
-        <v>218</v>
+        <v>73</v>
+      </c>
+      <c r="W15" s="0" t="s">
+        <v>166</v>
       </c>
       <c r="X15" s="0" t="s">
-        <v>219</v>
+        <v>75</v>
       </c>
       <c r="Y15" s="0" t="s">
-        <v>220</v>
+        <v>167</v>
+      </c>
+      <c r="Z15" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB15" s="0" t="s">
+        <v>169</v>
       </c>
       <c r="AE15" s="0" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="AF15" s="0" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="AG15" s="0" t="s">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="AH15" s="0" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="AK15" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ15" s="0" t="n">
-        <v>230</v>
+        <v>172</v>
+      </c>
+      <c r="AM15" s="0" t="s">
+        <v>173</v>
       </c>
       <c r="AR15" s="0" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="AT15" s="0" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="AU15" s="0" t="s">
         <v>79</v>
       </c>
       <c r="BF15" s="0" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>223</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="4" t="n">
+        <v>44725.9035069444</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>225</v>
+        <v>176</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>65</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="T16" s="0" t="s">
-        <v>227</v>
+        <v>180</v>
       </c>
       <c r="U16" s="0" t="s">
-        <v>228</v>
+        <v>72</v>
       </c>
       <c r="V16" s="0" t="s">
-        <v>218</v>
+        <v>73</v>
+      </c>
+      <c r="W16" s="0" t="s">
+        <v>181</v>
       </c>
       <c r="X16" s="0" t="s">
-        <v>229</v>
+        <v>75</v>
       </c>
       <c r="Y16" s="0" t="s">
-        <v>230</v>
+        <v>182</v>
+      </c>
+      <c r="Z16" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB16" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC16" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD16" s="0" t="s">
+        <v>186</v>
       </c>
       <c r="AE16" s="0" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="AF16" s="0" t="s">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="AG16" s="0" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="AH16" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="AQ16" s="0" t="n">
-        <v>257</v>
+        <v>176</v>
+      </c>
+      <c r="AK16" s="0" t="s">
+        <v>189</v>
       </c>
       <c r="AR16" s="0" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="AT16" s="0" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="AU16" s="0" t="s">
         <v>79</v>
       </c>
       <c r="BF16" s="0" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>233</v>
+      <c r="B17" s="4" t="n">
+        <v>44768.6063888889</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>64</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M17" s="0" t="s">
         <v>66</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="Z17" s="0" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="AF17" s="0" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="AG17" s="0" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="AH17" s="0" t="s">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="AR17" s="0" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="AT17" s="0" t="s">
         <v>64</v>
@@ -3665,1099 +3388,1284 @@
         <v>79</v>
       </c>
       <c r="BF17" s="0" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>242</v>
+      <c r="B18" s="4" t="n">
+        <v>44768.6063888889</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>197</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M18" s="0" t="s">
         <v>66</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="T18" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="U18" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="V18" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="W18" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="X18" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y18" s="0" t="s">
-        <v>247</v>
+        <v>199</v>
+      </c>
+      <c r="Z18" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB18" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE18" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF18" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG18" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH18" s="0" t="s">
+        <v>197</v>
       </c>
       <c r="AR18" s="0" t="s">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c r="AT18" s="0" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="AU18" s="0" t="s">
         <v>79</v>
       </c>
       <c r="BF18" s="0" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>249</v>
+      <c r="B19" s="4" t="n">
+        <v>44928.7375</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>64</v>
+        <v>198</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="L19" s="0" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>66</v>
+        <v>205</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="T19" s="0" t="s">
-        <v>87</v>
+        <v>206</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>207</v>
       </c>
       <c r="U19" s="0" t="s">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c r="V19" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z19" s="0" t="s">
-        <v>251</v>
+        <v>209</v>
+      </c>
+      <c r="X19" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y19" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE19" s="0" t="s">
+        <v>212</v>
       </c>
       <c r="AF19" s="0" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="AG19" s="0" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="AH19" s="0" t="s">
-        <v>169</v>
+        <v>204</v>
+      </c>
+      <c r="AK19" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="AQ19" s="0" t="n">
+        <v>230</v>
       </c>
       <c r="AR19" s="0" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="AT19" s="0" t="s">
-        <v>64</v>
+        <v>207</v>
       </c>
       <c r="AU19" s="0" t="s">
         <v>79</v>
       </c>
       <c r="BF19" s="0" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>254</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="4" t="n">
+        <v>44946.8034722222</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="P20" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q20" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="T20" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="U20" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="V20" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="X20" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y20" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="AE20" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF20" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="AG20" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH20" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ20" s="0" t="n">
         <v>257</v>
       </c>
-      <c r="Q20" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="S20" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="T20" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="U20" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="V20" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="X20" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="Y20" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="AE20" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="AF20" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="AG20" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="AH20" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="AK20" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="AQ20" s="0" t="n">
-        <v>17</v>
-      </c>
       <c r="AR20" s="0" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="AT20" s="0" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="AU20" s="0" t="s">
         <v>79</v>
       </c>
       <c r="BF20" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>266</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="4" t="n">
+        <v>45189.6434953704</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>206</v>
+        <v>59</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>214</v>
+        <v>66</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q21" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="U21" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="V21" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="X21" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y21" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="AE21" s="0" t="s">
-        <v>274</v>
+        <v>227</v>
+      </c>
+      <c r="Z21" s="0" t="s">
+        <v>228</v>
       </c>
       <c r="AF21" s="0" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="AG21" s="0" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
       <c r="AH21" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="AK21" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="AQ21" s="0" t="n">
-        <v>18</v>
+        <v>226</v>
       </c>
       <c r="AR21" s="0" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="AT21" s="0" t="s">
-        <v>196</v>
+        <v>59</v>
       </c>
       <c r="AU21" s="0" t="s">
         <v>79</v>
       </c>
       <c r="BF21" s="0" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>278</v>
+      <c r="B22" s="4" t="n">
+        <v>45284.4335648148</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>231</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>279</v>
+        <v>232</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M22" s="0" t="s">
         <v>66</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q22" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="AC22" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="AF22" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="AG22" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="AH22" s="0" t="s">
-        <v>278</v>
+        <v>234</v>
+      </c>
+      <c r="T22" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="U22" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="V22" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="W22" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="X22" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y22" s="0" t="s">
+        <v>237</v>
       </c>
       <c r="AR22" s="0" t="s">
-        <v>285</v>
+        <v>238</v>
       </c>
       <c r="AT22" s="0" t="s">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="AU22" s="0" t="s">
         <v>79</v>
       </c>
       <c r="BF22" s="0" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>286</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="4" t="n">
+        <v>45286.4593865741</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>288</v>
+        <v>163</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>206</v>
+        <v>59</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>65</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>214</v>
+        <v>66</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>289</v>
+        <v>227</v>
+      </c>
+      <c r="T23" s="0" t="s">
+        <v>86</v>
       </c>
       <c r="U23" s="0" t="s">
-        <v>290</v>
+        <v>71</v>
       </c>
       <c r="V23" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="X23" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="Y23" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="AE23" s="0" t="s">
-        <v>294</v>
+        <v>73</v>
+      </c>
+      <c r="Z23" s="0" t="s">
+        <v>240</v>
       </c>
       <c r="AF23" s="0" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
       <c r="AG23" s="0" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="AH23" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="AK23" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="AQ23" s="0" t="n">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="AR23" s="0" t="s">
-        <v>286</v>
+        <v>242</v>
       </c>
       <c r="AT23" s="0" t="s">
-        <v>296</v>
+        <v>59</v>
       </c>
       <c r="AU23" s="0" t="s">
         <v>79</v>
       </c>
       <c r="BF23" s="0" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <v>24</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="4" t="n">
+        <v>45287.7076388889</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>297</v>
+        <v>243</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>299</v>
+        <v>244</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>64</v>
+        <v>198</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>205</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>300</v>
+        <v>245</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="S24" s="0" t="s">
+        <v>247</v>
       </c>
       <c r="T24" s="0" t="s">
-        <v>107</v>
+        <v>246</v>
       </c>
       <c r="U24" s="0" t="s">
-        <v>71</v>
+        <v>248</v>
       </c>
       <c r="V24" s="0" t="s">
-        <v>73</v>
+        <v>249</v>
+      </c>
+      <c r="X24" s="0" t="s">
+        <v>250</v>
       </c>
       <c r="Y24" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="Z24" s="0" t="s">
-        <v>302</v>
+        <v>251</v>
+      </c>
+      <c r="AE24" s="0" t="s">
+        <v>252</v>
       </c>
       <c r="AF24" s="0" t="s">
-        <v>303</v>
+        <v>253</v>
       </c>
       <c r="AG24" s="0" t="s">
-        <v>297</v>
+        <v>243</v>
       </c>
       <c r="AH24" s="0" t="s">
-        <v>298</v>
+        <v>244</v>
+      </c>
+      <c r="AK24" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ24" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR24" s="0" t="s">
+        <v>254</v>
       </c>
       <c r="AT24" s="0" t="s">
-        <v>304</v>
+        <v>172</v>
       </c>
       <c r="AU24" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="AZ24" s="0" t="n">
-        <v>175</v>
-      </c>
-      <c r="BA24" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="BB24" s="0" t="n">
-        <v>30</v>
-      </c>
       <c r="BF24" s="0" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
-        <v>25</v>
+      <c r="B25" s="4" t="n">
+        <v>45287.7159722222</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>305</v>
+        <v>255</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>308</v>
+        <v>256</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>66</v>
+        <v>205</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>309</v>
+        <v>257</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z25" s="0" t="s">
-        <v>311</v>
+        <v>189</v>
+      </c>
+      <c r="U25" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="V25" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="X25" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y25" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="AE25" s="0" t="s">
+        <v>262</v>
       </c>
       <c r="AF25" s="0" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
       <c r="AG25" s="0" t="s">
-        <v>305</v>
+        <v>255</v>
       </c>
       <c r="AH25" s="0" t="s">
-        <v>306</v>
+        <v>256</v>
+      </c>
+      <c r="AK25" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="AQ25" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR25" s="0" t="s">
+        <v>264</v>
       </c>
       <c r="AT25" s="0" t="s">
-        <v>243</v>
+        <v>189</v>
       </c>
       <c r="AU25" s="0" t="s">
         <v>79</v>
       </c>
       <c r="BF25" s="0" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
-        <v>26</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="4" t="n">
+        <v>45298.5689814815</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>267</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>64</v>
+        <v>268</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M26" s="0" t="s">
         <v>66</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>313</v>
-      </c>
-      <c r="U26" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="X26" s="0" t="s">
-        <v>75</v>
+        <v>269</v>
+      </c>
+      <c r="Q26" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC26" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="AF26" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="AG26" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="AH26" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="AR26" s="0" t="s">
+        <v>273</v>
       </c>
       <c r="AT26" s="0" t="s">
-        <v>64</v>
+        <v>268</v>
       </c>
       <c r="AU26" s="0" t="s">
         <v>79</v>
       </c>
       <c r="BF26" s="0" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>314</v>
+      <c r="B27" s="4" t="n">
+        <v>45310.59375</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>275</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>63</v>
+        <v>198</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="L27" s="0" t="s">
-        <v>315</v>
+        <v>59</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>66</v>
+        <v>205</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="U27" s="0" t="s">
-        <v>71</v>
+        <v>277</v>
       </c>
       <c r="V27" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="W27" s="0" t="s">
-        <v>172</v>
+        <v>278</v>
       </c>
       <c r="X27" s="0" t="s">
-        <v>75</v>
+        <v>279</v>
+      </c>
+      <c r="Y27" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="AE27" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="AF27" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="AG27" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="AH27" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="AK27" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="AQ27" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="AR27" s="0" t="s">
+        <v>284</v>
       </c>
       <c r="AT27" s="0" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="AU27" s="0" t="s">
         <v>79</v>
       </c>
       <c r="BF27" s="0" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
-        <v>28</v>
-      </c>
       <c r="C28" s="0" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="M28" s="0" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q28" s="0" t="s">
-        <v>322</v>
+        <v>288</v>
+      </c>
+      <c r="T28" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="U28" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="V28" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y28" s="0" t="s">
+        <v>289</v>
       </c>
       <c r="Z28" s="0" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="AF28" s="0" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="AG28" s="0" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="AH28" s="0" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="AT28" s="0" t="s">
-        <v>64</v>
+        <v>292</v>
       </c>
       <c r="AU28" s="0" t="s">
         <v>79</v>
       </c>
+      <c r="AZ28" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="BA28" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="BB28" s="0" t="n">
+        <v>30</v>
+      </c>
       <c r="BF28" s="0" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
-        <v>29</v>
-      </c>
       <c r="C29" s="0" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>326</v>
+        <v>294</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>296</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="L29" s="0" t="s">
-        <v>327</v>
+        <v>59</v>
       </c>
       <c r="M29" s="0" t="s">
         <v>66</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="Q29" s="0" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="Z29" s="0" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="AF29" s="0" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="AG29" s="0" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="AH29" s="0" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="AT29" s="0" t="s">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c r="AU29" s="0" t="s">
         <v>79</v>
       </c>
       <c r="BF29" s="0" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>334</v>
-      </c>
       <c r="I30" s="0" t="s">
-        <v>335</v>
+        <v>59</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="L30" s="0" t="s">
-        <v>315</v>
+        <v>59</v>
       </c>
       <c r="M30" s="0" t="s">
         <v>66</v>
       </c>
       <c r="P30" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q30" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="Z30" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="AF30" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="AG30" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="AH30" s="0" t="s">
-        <v>332</v>
+        <v>301</v>
+      </c>
+      <c r="U30" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="X30" s="0" t="s">
+        <v>75</v>
       </c>
       <c r="AT30" s="0" t="s">
-        <v>339</v>
+        <v>59</v>
       </c>
       <c r="AU30" s="0" t="s">
         <v>79</v>
       </c>
       <c r="BF30" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>340</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>341</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E31" s="0" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="I31" s="0" t="s">
         <v>64</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>65</v>
+        <v>303</v>
       </c>
       <c r="M31" s="0" t="s">
         <v>66</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q31" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="T31" s="0" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
       <c r="U31" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V31" s="0" t="s">
         <v>73</v>
       </c>
       <c r="W31" s="0" t="s">
-        <v>346</v>
+        <v>166</v>
       </c>
       <c r="X31" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="Y31" s="0" t="s">
-        <v>347</v>
-      </c>
-      <c r="Z31" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="AF31" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="AG31" s="0" t="s">
-        <v>340</v>
-      </c>
-      <c r="AH31" s="0" t="s">
-        <v>341</v>
-      </c>
       <c r="AT31" s="0" t="s">
-        <v>63</v>
+        <v>305</v>
       </c>
       <c r="AU31" s="0" t="s">
         <v>79</v>
       </c>
       <c r="BF31" s="0" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>349</v>
+        <v>306</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>350</v>
+        <v>307</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>308</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M32" s="0" t="s">
         <v>66</v>
       </c>
       <c r="P32" s="0" t="s">
-        <v>351</v>
-      </c>
-      <c r="S32" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="T32" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="U32" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="V32" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="W32" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="X32" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y32" s="0" t="s">
-        <v>354</v>
+        <v>309</v>
+      </c>
+      <c r="Q32" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z32" s="0" t="s">
+        <v>311</v>
       </c>
       <c r="AF32" s="0" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="AG32" s="0" t="s">
-        <v>349</v>
+        <v>306</v>
       </c>
       <c r="AH32" s="0" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="AT32" s="0" t="s">
-        <v>356</v>
+        <v>59</v>
       </c>
       <c r="AU32" s="0" t="s">
         <v>79</v>
       </c>
       <c r="BF32" s="0" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
-        <v>33</v>
-      </c>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>357</v>
+        <v>313</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>358</v>
+        <v>314</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>315</v>
       </c>
       <c r="M33" s="0" t="s">
         <v>66</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="R33" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="S33" s="0" t="s">
-        <v>361</v>
-      </c>
-      <c r="T33" s="0" t="s">
-        <v>361</v>
-      </c>
-      <c r="U33" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="V33" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="W33" s="0" t="s">
-        <v>363</v>
-      </c>
-      <c r="X33" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y33" s="0" t="s">
-        <v>364</v>
+        <v>316</v>
+      </c>
+      <c r="Q33" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z33" s="0" t="s">
+        <v>317</v>
       </c>
       <c r="AF33" s="0" t="s">
-        <v>365</v>
+        <v>318</v>
       </c>
       <c r="AG33" s="0" t="s">
-        <v>357</v>
+        <v>313</v>
       </c>
       <c r="AH33" s="0" t="s">
-        <v>358</v>
+        <v>314</v>
       </c>
       <c r="AT33" s="0" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="AU33" s="0" t="s">
         <v>79</v>
       </c>
       <c r="BF33" s="0" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>367</v>
+        <v>320</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>368</v>
+        <v>321</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>368</v>
+        <v>322</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>368</v>
+        <v>323</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="K34" s="0" t="s">
-        <v>368</v>
+        <v>59</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>368</v>
+        <v>303</v>
       </c>
       <c r="M34" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="N34" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="O34" s="0" t="s">
-        <v>368</v>
-      </c>
       <c r="P34" s="0" t="s">
-        <v>368</v>
+        <v>324</v>
       </c>
       <c r="Q34" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="S34" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="T34" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="U34" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="V34" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="W34" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="X34" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="Y34" s="0" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="Z34" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="AA34" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="AB34" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="AC34" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="AD34" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="AE34" s="0" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="AF34" s="0" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="AG34" s="0" t="s">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="AH34" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="AI34" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="AJ34" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="AK34" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="AL34" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="AM34" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="AN34" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="AO34" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="AP34" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="AQ34" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="AR34" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="AS34" s="0" t="s">
-        <v>368</v>
+        <v>320</v>
       </c>
       <c r="AT34" s="0" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
       <c r="AU34" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="AV34" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="AW34" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="AX34" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="BB34" s="0" t="n">
+      <c r="BF34" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="M35" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="P35" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q35" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="T35" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="U35" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="V35" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="W35" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="X35" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y35" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z35" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="AF35" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG35" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="AH35" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="AT35" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU35" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF35" s="0" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="M36" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="P36" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="S36" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="T36" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="U36" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="V36" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="W36" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="X36" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y36" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="AF36" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="AG36" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="AH36" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="AT36" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="AU36" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF36" s="0" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="M37" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="P37" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="R37" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="S37" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="T37" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="U37" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="V37" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="W37" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="X37" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y37" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="AF37" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="AG37" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="AH37" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="AT37" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU37" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF37" s="0" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="N38" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="O38" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="P38" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q38" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="S38" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="T38" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="U38" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="V38" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="W38" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="X38" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y38" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z38" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="AA38" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="AB38" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="AC38" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="AD38" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="AE38" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="AF38" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="AG38" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="AH38" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="AI38" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="AJ38" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="AK38" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="AL38" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="AM38" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="AN38" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="AO38" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="AP38" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="AQ38" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="AR38" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="AS38" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="AT38" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="AU38" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV38" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="AW38" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="AX38" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="BB38" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="BC34" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="BF34" s="0" t="n">
+      <c r="BC38" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="BF38" s="0" t="n">
         <v>34</v>
       </c>
     </row>
@@ -4787,7 +4695,7 @@
       <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9"/>
@@ -4796,201 +4704,201 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>

--- a/GPS2Address/locations_test.xlsx
+++ b/GPS2Address/locations_test.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="509">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -272,6 +272,414 @@
     <t xml:space="preserve">Intel</t>
   </si>
   <si>
+    <t xml:space="preserve">smuggling stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacksonville, FL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capone’s smuggling stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3322,-81.6557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1921-12-08 12:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maxwell Street Market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">719 W Maxwell St, Chicago, IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maxwell Street Market (Capone’s racketeering)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8916,-87.6475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1922-12-09 12:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Truck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New York, NY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capone’s early life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7128,-74.006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1922-12-14 12:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Burwood Tap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1436 N Wells St, Chicago, IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Burwood Tap (gangster haunt)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9066,-87.6347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1923-07-24 12:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liquor warehouses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000 W O’Hare Ave, Chicago, IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illegal liquor warehouses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9755,-87.9099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1924-02-29 12:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S.M.C. Cartage Co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2128 N Clark St, Chicago, IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S.M.C. Cartage Co. (massacre garage)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9286,-87.6318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1924-08-07 12:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Four Deuces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1340 S Michigan Ave, Chicago, IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Four Deuces (Capone’s first job under Torrio)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8806,-87.6305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1924-12-28 12:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hawthorne Inn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2222 S Deering Ave, Chicago, IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hawthorne Inn (Capone's Cicero HQ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8917,-87.6552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1925-01-28 12:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riviera Theatre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4707 N Broadway, Chicago, IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riviera Theatre (Capone’s speakeasy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9616,-87.6571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1926-04-28 12:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago River, Chicago, IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bootlegging smuggling route</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8881,-87.625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1926-07-28 12:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9692095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-87.6624785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4802 N. BROADWAY AVE. CHICAGO, IL 60640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al Capone Hang out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">locations_test.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://greenmilljazz.com/location/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Green Mill Cocktail Lounge </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Lawrence Avenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cook County</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illinois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1315, West Lawrence Avenue, Ravenswood, Uptown, Chicago, Lake View Township, Cook County, Illinois, 60640, United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9692095, -87.6624785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9692095,-87.6624785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locations_test.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1927-03-333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8787485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-87.6291376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">226 S Wabash Ave, Chicago, IL 60604 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.exchequerpub.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXCHEQUER RESTAURANT &amp; PUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dirksen Federal Building and US Courthouse, 219, South Dearborn Street, Printer's Row, Loop, Chicago, Cook County, Illinois, 60604, United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8787485, -87.6291376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8787485,-87.6291376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-87.6824585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1927-03-16 22:18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.873364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-87.6270749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">636 South Michigan Avenue, Chicago, Illinois 60605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al Capone’s Barber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.theblackstonehotel.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Holden Court</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Holden Court, Printer's Row, Loop, Chicago, Cook County, Illinois, 60605, United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.873364, -87.6270749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.873364,-87.6270749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calendar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8529443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al Capone Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lexington Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Near South Side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Cermak Road, Near South Side, Chicago, Cook County, Illinois, 60616, United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8529443,-87.6229247A5:AMJ5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8911897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-87.6162866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1927-05-13 14:22:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capone’s Home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7625038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-87.6213478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7244 S Prairie Ave, Chicago, IL 60619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al Capone’s Home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Michigan Avenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7243, South Michigan Avenue, Park Manor, Greater Grand Crossing, Chicago, Hyde Park Township, Cook County, Illinois, 60621, United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7625038, -87.6213478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7625038,-87.6213478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago Coliseum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3500 S Giles Ave, Chicago, IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago Coliseum (gangster meetings)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8529,-87.6326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burnham’s dump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago, IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burnham’s dump (Capone’s body disposal site)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8056,-87.5972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.821174151816635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-87.76324840980894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO_Plate2 - FLOCK Report.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test – LPR red car</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lpr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stickney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Central Avenue, Stickney, Stickney Township, Cook County, Illinois, 60459, United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.821174151816635, -87.76324840980894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No_Plate2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 13, 2022, 9:41:33 PM CDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cicero IL PD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09  Central/Pershing (SB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.821174151816635,-87.76324840980894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capone’s hideout</t>
   </si>
   <si>
@@ -281,360 +689,6 @@
     <t xml:space="preserve">41.9742,-87.8651</t>
   </si>
   <si>
-    <t xml:space="preserve">1921-04-27 12:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smuggling stop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacksonville, FL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capone’s smuggling stop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3322,-81.6557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1921-12-08 12:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maxwell Street Market</t>
-  </si>
-  <si>
-    <t xml:space="preserve">719 W Maxwell St, Chicago, IL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maxwell Street Market (Capone’s racketeering)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8916,-87.6475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1922-12-09 12:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Truck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New York, NY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capone’s early life</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7128,-74.006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1922-12-14 12:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Burwood Tap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1436 N Wells St, Chicago, IL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Burwood Tap (gangster haunt)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9066,-87.6347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1923-07-24 12:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liquor warehouses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10000 W O’Hare Ave, Chicago, IL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illegal liquor warehouses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9755,-87.9099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1924-02-29 12:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chicago Coliseum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3500 S Giles Ave, Chicago, IL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chicago Coliseum (gangster meetings)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8529,-87.6326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1924-03-01 12:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S.M.C. Cartage Co</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2128 N Clark St, Chicago, IL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S.M.C. Cartage Co. (massacre garage)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9286,-87.6318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1924-08-07 12:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Four Deuces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1340 S Michigan Ave, Chicago, IL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Four Deuces (Capone’s first job under Torrio)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8806,-87.6305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1924-12-28 12:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hawthorne Inn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2222 S Deering Ave, Chicago, IL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hawthorne Inn (Capone's Cicero HQ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8917,-87.6552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1925-01-28 12:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riviera Theatre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4707 N Broadway, Chicago, IL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riviera Theatre (Capone’s speakeasy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9616,-87.6571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1926-04-28 12:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chicago River, Chicago, IL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bootlegging smuggling route</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8881,-87.625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1926-07-28 12:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9692095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-87.6624785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4802 N. BROADWAY AVE. CHICAGO, IL 60640</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Al Capone Hang out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">locations_test.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://greenmilljazz.com/location/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Green Mill Cocktail Lounge </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Lawrence Avenue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chicago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cook County</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illinois</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60640</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1315, West Lawrence Avenue, Ravenswood, Uptown, Chicago, Lake View Township, Cook County, Illinois, 60640, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9692095, -87.6624785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9692095,-87.6624785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locations_test.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1927-03-333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8787485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-87.6291376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">226 S Wabash Ave, Chicago, IL 60604 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.exchequerpub.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXCHEQUER RESTAURANT &amp; PUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dirksen Federal Building and US Courthouse, 219, South Dearborn Street, Printer's Row, Loop, Chicago, Cook County, Illinois, 60604, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8787485, -87.6291376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8787485,-87.6291376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-87.6824585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1927-03-16 22:18:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.873364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-87.6270749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">636 South Michigan Avenue, Chicago, Illinois 60605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Al Capone’s Barber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.theblackstonehotel.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Holden Court</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Holden Court, Printer's Row, Loop, Chicago, Cook County, Illinois, 60605, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.873364, -87.6270749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.873364,-87.6270749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calendar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8529443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Al Capone Hotel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lexington Hotel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Near South Side</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">East Cermak Road, Near South Side, Chicago, Cook County, Illinois, 60616, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8529443,-87.6229247A5:AMJ5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8911897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-87.6162866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1927-05-13 14:22:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Al Capone’s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7625038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-87.6213478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7244 S Prairie Ave, Chicago, IL 60619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Al Capone’s Home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Michigan Avenue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7243, South Michigan Avenue, Park Manor, Greater Grand Crossing, Chicago, Hyde Park Township, Cook County, Illinois, 60621, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7625038, -87.6213478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7625038,-87.6213478</t>
-  </si>
-  <si>
     <t xml:space="preserve">-87.6262266</t>
   </si>
   <si>
@@ -686,21 +740,6 @@
     <t xml:space="preserve">Table: ZRTLEARNEDLOCATIONOFINTERESTVISITMO(Z_PK: 50653)</t>
   </si>
   <si>
-    <t xml:space="preserve">Burnham’s dump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chicago, IL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burnham’s dump (Capone’s body disposal site)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8056,-87.5972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1927-10-07 12:00:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">City Hall</t>
   </si>
   <si>
@@ -779,9 +818,6 @@
     <t xml:space="preserve">1928-12-03 12:00:00</t>
   </si>
   <si>
-    <t xml:space="preserve">Lpr</t>
-  </si>
-  <si>
     <t xml:space="preserve">41.9208803</t>
   </si>
   <si>
@@ -902,9 +938,6 @@
     <t xml:space="preserve">-87.6369670043945</t>
   </si>
   <si>
-    <t xml:space="preserve">LPR</t>
-  </si>
-  <si>
     <t xml:space="preserve">Test – Truck icon</t>
   </si>
   <si>
@@ -929,49 +962,259 @@
     <t xml:space="preserve">9/22/2021 1:02:45 PM(UTC-5)</t>
   </si>
   <si>
-    <t xml:space="preserve">41.821174151816635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-87.76324840980894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO_Plate2 - FLOCK Report.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test – LPR red car</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stickney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Central Avenue, Stickney, Stickney Township, Cook County, Illinois, 60459, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.821174151816635, -87.76324840980894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No_Plate2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 13, 2022, 9:41:33 PM CDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cicero IL PD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09  Central/Pershing (SB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.821174151816635,-87.76324840980894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/13/2022 09:41:33 PM</t>
+    <t xml:space="preserve">41.9836875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-87.9707624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documents Responsive to Subpoena #2024-212.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test – Eastbound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illinois Tollway Plaza 320 - Westbound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL 390</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL 60191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illinois Tollway Plaza 320 - Westbound, IL 390, Wood Dale, IL 60191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I-390 &amp; Lively Blvd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9836875,-87.9707624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-02 17:42:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9843125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-88.0100124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test – Toll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itasca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illinois Tollway Plaza 324 - Westbound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL 60143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illinois Tollway Plaza 324 - Westbound, IL 390, Itasca, IL 60143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I-390 &amp; Hamilton Lakes Blvd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9843125,-88.0100124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-20 19:17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8637869888889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-87.8169277777778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test – gps only Locations Yelow paddle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8637869888889, -87.8169277777778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8637869888889,-87.8169277777778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/20/2023 3:26:38 PM(UTC-5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roosevelt Road, Forest Park, Proviso Township, Cook County, Illinois, 60154, United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_0069.MOV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Videos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test – Fulladdress,gps and address videos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forest Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roosevelt Road, Forest Park, Proviso Township, Cook County, Illinois, 60141, United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/24/2023 10:24:20 AM(UTC-6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8832054138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8832054138184, -87.6369670043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8832054138184,-87.6369670043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/26/2023 11:01:31 AM(UTC-6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8485625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-87.9437624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test – Westbound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illinois Tollway Plaza 51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illinois 110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago - Kansas City Expressway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W 22nd St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL 60523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illinois Tollway Plaza 51, Chicago - Kansas City Expressway, Illinois 110, W 22nd St, Oak Brook, IL 60523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I-88 &amp; York Rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8485625,-87.9437624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-27 16:59:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7330625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-88.0377624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test – Southbound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illinois Tollway Plaza 89 Southbound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veterans Memorial Tollway S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL 60517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illinois Tollway Plaza 89 Southbound, Veterans Memorial Tollway S, Woodridge, IL 60517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I-355 &amp; Boughton Rd Mainline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7330625,-88.0377624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-27 17:11:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7856916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-87.7508994935715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flight: EY 242 from LHE to AUH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test – gps only Calendar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago Midway International Airport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 7, 2024 at 1:39:20 PM CST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7856916,-87.7508994935715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/07/2024 01:39:20 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.920103, -87.673827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.954183, -87.731145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.951087, -87.747327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9497736,-87.7534868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7394375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-87.8291374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-bound icon : Toll Tag ID:12345678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83rd St Toll Plaza 39 Northbound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tri-State Tollway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL 60458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83rd St Toll Plaza 39 Northbound, Tri-State Tollway, Justice, IL 60458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I-294 &amp; 83rd St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7394375,-87.8291374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-19 14:15:00</t>
   </si>
   <si>
     <t xml:space="preserve">41.7431510003286</t>
@@ -989,15 +1232,9 @@
     <t xml:space="preserve">41.7431510003286,-87.8328635429077</t>
   </si>
   <si>
-    <t xml:space="preserve">7/26/2022 2:33:12 PM(UTC-5)</t>
-  </si>
-  <si>
     <t xml:space="preserve">-87.8369635429077</t>
   </si>
   <si>
-    <t xml:space="preserve">Toll</t>
-  </si>
-  <si>
     <t xml:space="preserve">Test – gps only Toll w/ no direction arrow (blue square)</t>
   </si>
   <si>
@@ -1010,244 +1247,55 @@
     <t xml:space="preserve">41.7431510003286,-87.8369635429077</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9836875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-87.9707624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documents Responsive to Subpoena #2024-212.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test – Eastbound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illinois Tollway Plaza 320 - Westbound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL 390</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL 60191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illinois Tollway Plaza 320 - Westbound, IL 390, Wood Dale, IL 60191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I-390 &amp; Lively Blvd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9836875,-87.9707624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-02 17:42:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9843125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-88.0100124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test – Toll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Itasca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illinois Tollway Plaza 324 - Westbound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL 60143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illinois Tollway Plaza 324 - Westbound, IL 390, Itasca, IL 60143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I-390 &amp; Hamilton Lakes Blvd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9843125,-88.0100124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-20 19:17:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8637869888889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-87.8169277777778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test – gps only Locations Yelow paddle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8637869888889, -87.8169277777778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8637869888889,-87.8169277777778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/20/2023 3:26:38 PM(UTC-5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roosevelt Road, Forest Park, Proviso Township, Cook County, Illinois, 60154, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMG_0069.MOV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Videos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test – Fulladdress,gps and address videos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forest Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roosevelt Road, Forest Park, Proviso Township, Cook County, Illinois, 60141, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/24/2023 10:24:20 AM(UTC-6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8832054138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8832054138184, -87.6369670043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8832054138184,-87.6369670043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/26/2023 11:01:31 AM(UTC-6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8485625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-87.9437624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test – Westbound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illinois Tollway Plaza 51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illinois 110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chicago - Kansas City Expressway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W 22nd St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL 60523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illinois Tollway Plaza 51, Chicago - Kansas City Expressway, Illinois 110, W 22nd St, Oak Brook, IL 60523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I-88 &amp; York Rd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8485625,-87.9437624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-27 16:59:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7330625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-88.0377624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test – Southbound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illinois Tollway Plaza 89 Southbound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veterans Memorial Tollway S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL 60517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illinois Tollway Plaza 89 Southbound, Veterans Memorial Tollway S, Woodridge, IL 60517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I-355 &amp; Boughton Rd Mainline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7330625,-88.0377624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-27 17:11:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7856916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-87.7508994935715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flight: EY 242 from LHE to AUH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test – gps only Calendar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chicago Midway International Airport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January 7, 2024 at 1:39:20 PM CST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7856916,-87.7508994935715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/07/2024 01:39:20 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7394375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-87.8291374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N-bound icon : Toll Tag ID:12345678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83rd St Toll Plaza 39 Northbound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tri-State Tollway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL 60458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83rd St Toll Plaza 39 Northbound, Tri-State Tollway, Justice, IL 60458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I-294 &amp; 83rd St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7394375,-87.8291374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-19 14:15:00</t>
+    <t xml:space="preserve">41.8285843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-87.7510767237512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3501 S Laramie Ave, Cicero, IL 60804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG_1969.MOV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test – gps only (yellow pin) with business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hawthorne Racecourse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8285843, -87.7510767237512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8285843,-87.7510767237512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.78543165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-87.7508486935769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test – gps only Images w/ yellow font</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.78543165, -87.7508486935769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.78543165,-87.7508486935769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willis Tower, 233, South Wacker Drive, Chicago, Illinois, 60606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test – address only office w/ yellow font</t>
   </si>
   <si>
     <t xml:space="preserve">41.8523443</t>
@@ -1274,42 +1322,9 @@
     <t xml:space="preserve">Tower</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8285843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-87.7510767237512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3501 S Laramie Ave, Cicero, IL 60804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMG_1969.MOV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test – gps only (yellow pin) with business</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hawthorne Racecourse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8285843, -87.7510767237512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8285843,-87.7510767237512</t>
-  </si>
-  <si>
     <t xml:space="preserve">Test - (nothing)</t>
   </si>
   <si>
-    <t xml:space="preserve">Willis Tower, 233, South Wacker Drive, Chicago, Illinois, 60606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Review</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test – address only office w/ yellow font</t>
-  </si>
-  <si>
     <t xml:space="preserve">41.8458074</t>
   </si>
   <si>
@@ -1331,22 +1346,79 @@
     <t xml:space="preserve">41.8458074,-87.80702</t>
   </si>
   <si>
-    <t xml:space="preserve">41.78543165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-87.7508486935769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test – gps only Images w/ yellow font</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.78543165, -87.7508486935769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.78543165,-87.7508486935769</t>
+    <t xml:space="preserve">41.82621495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-87.8192555677286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riverside Public Library, 1 Burling Rd, Riverside, IL 60546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test – full address/gps and address Intel Important</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riverside Public Library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riverside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riverside Public Library, 1, Burling Road, Riverside, Riverside Township, Cook County, Illinois, 60546, United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.82621495,-87.8192555677286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9629122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-87.8814396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test – Car2 coordinate only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O'Hare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montrose Avenue, O'Hare, Chicago, Jefferson Township, Cook County, Illinois, 60176, United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9629122,-87.8814396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8923463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-87.8031364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test – Home coordinate only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samuel A Rothermel Houses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oak Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">313, North Marion Street, Samuel A Rothermel Houses, Oak Park, Cook County, Illinois, 60302, United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8923463,-87.8031364</t>
   </si>
   <si>
     <t xml:space="preserve">41.7090584</t>
@@ -1371,81 +1443,6 @@
   </si>
   <si>
     <t xml:space="preserve">41.7090584,-87.877258885395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.82621495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-87.8192555677286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riverside Public Library, 1 Burling Rd, Riverside, IL 60546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test – full address/gps and address Intel Important</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riverside Public Library</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riverside</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riverside Public Library, 1, Burling Road, Riverside, Riverside Township, Cook County, Illinois, 60546, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.82621495,-87.8192555677286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9629122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-87.8814396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test – Car2 coordinate only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O'Hare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montrose Avenue, O'Hare, Chicago, Jefferson Township, Cook County, Illinois, 60176, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9629122,-87.8814396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8923463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-87.8031364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test – Home coordinate only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samuel A Rothermel Houses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oak Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">313, North Marion Street, Samuel A Rothermel Houses, Oak Park, Cook County, Illinois, 60302, United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8923463,-87.8031364</t>
   </si>
   <si>
     <t xml:space="preserve">34.0304049</t>
@@ -1646,7 +1643,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1675,6 +1672,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1684,6 +1685,47 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFA500"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1753,14 +1795,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>175320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>302400</xdr:colOff>
+      <xdr:colOff>301680</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>23040</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1773,8 +1815,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="190440"/>
-          <a:ext cx="302400" cy="302400"/>
+          <a:off x="0" y="175320"/>
+          <a:ext cx="301680" cy="301680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>264240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>301680</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>7200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Image 2" descr="Picture"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="454680"/>
+          <a:ext cx="301680" cy="301680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1792,27 +1872,27 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>264240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>302400</xdr:colOff>
+      <xdr:colOff>301680</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>23040</xdr:rowOff>
+      <xdr:rowOff>286920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Image 2" descr="Picture"/>
+        <xdr:cNvPr id="2" name="Image 3" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="469800"/>
-          <a:ext cx="302400" cy="302400"/>
+          <a:off x="0" y="734040"/>
+          <a:ext cx="301680" cy="302040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1830,27 +1910,27 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>276840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>302400</xdr:colOff>
+      <xdr:colOff>301680</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
+      <xdr:rowOff>285840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 3" descr="Picture"/>
+        <xdr:cNvPr id="3" name="Image 4" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="749160"/>
-          <a:ext cx="302400" cy="302760"/>
+          <a:off x="0" y="1026000"/>
+          <a:ext cx="301680" cy="301320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1868,27 +1948,27 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>276840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>302400</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>10080</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>41760</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 4" descr="Picture"/>
+        <xdr:cNvPr id="4" name="Image 5" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1041480"/>
-          <a:ext cx="302400" cy="302040"/>
+          <a:off x="0" y="1318320"/>
+          <a:ext cx="605520" cy="606600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1905,28 +1985,28 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>42480</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>301680</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>23040</xdr:rowOff>
+      <xdr:rowOff>286560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Image 5" descr="Picture"/>
+        <xdr:cNvPr id="5" name="Image 6" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1333440"/>
-          <a:ext cx="606240" cy="607320"/>
+          <a:off x="0" y="1902600"/>
+          <a:ext cx="301680" cy="301680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1944,27 +2024,27 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>289440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>302400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>302400</xdr:rowOff>
+      <xdr:colOff>301680</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Image 6" descr="Picture"/>
+        <xdr:cNvPr id="6" name="Image 7" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1917720"/>
-          <a:ext cx="302400" cy="302400"/>
+          <a:off x="0" y="2207160"/>
+          <a:ext cx="301680" cy="301680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1982,27 +2062,27 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>263880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>302400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>23040</xdr:rowOff>
+      <xdr:colOff>301680</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Image 7" descr="Picture"/>
+        <xdr:cNvPr id="7" name="Image 8" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2222640"/>
-          <a:ext cx="302400" cy="302400"/>
+          <a:off x="0" y="2486520"/>
+          <a:ext cx="301680" cy="301680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2020,27 +2100,27 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>264240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>302400</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>23040</xdr:rowOff>
+      <xdr:colOff>301680</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Image 8" descr="Picture"/>
+        <xdr:cNvPr id="8" name="Image 9" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip r:embed="rId9"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2502000"/>
-          <a:ext cx="302400" cy="302400"/>
+          <a:off x="0" y="2766240"/>
+          <a:ext cx="301680" cy="301680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2058,27 +2138,27 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>264240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>302400</xdr:colOff>
+      <xdr:colOff>301680</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>23040</xdr:rowOff>
+      <xdr:rowOff>286200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Image 9" descr="Picture"/>
+        <xdr:cNvPr id="9" name="Image 10" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip r:embed="rId10"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2781360"/>
-          <a:ext cx="302400" cy="302400"/>
+          <a:off x="0" y="3045600"/>
+          <a:ext cx="301680" cy="301320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2096,27 +2176,27 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>276840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>302400</xdr:colOff>
+      <xdr:colOff>301680</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>10080</xdr:rowOff>
+      <xdr:rowOff>286920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Image 10" descr="Picture"/>
+        <xdr:cNvPr id="10" name="Image 11" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip r:embed="rId11"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3060720"/>
-          <a:ext cx="302400" cy="302040"/>
+          <a:off x="0" y="3337560"/>
+          <a:ext cx="301680" cy="302040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2134,27 +2214,27 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>276840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>302400</xdr:colOff>
+      <xdr:colOff>301680</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
+      <xdr:rowOff>286200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Image 11" descr="Picture"/>
+        <xdr:cNvPr id="11" name="Image 12" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip r:embed="rId12"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3352680"/>
-          <a:ext cx="302400" cy="302760"/>
+          <a:off x="0" y="3629520"/>
+          <a:ext cx="301680" cy="301680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2172,27 +2252,27 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>302040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>302400</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>302400</xdr:rowOff>
+      <xdr:colOff>301680</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>286200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Image 12" descr="Picture"/>
+        <xdr:cNvPr id="12" name="Image 13" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
+        <a:blip r:embed="rId13"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3645000"/>
-          <a:ext cx="302400" cy="302400"/>
+          <a:off x="0" y="3947040"/>
+          <a:ext cx="301680" cy="301680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2210,27 +2290,27 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>302040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>302400</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>302400</xdr:rowOff>
+      <xdr:colOff>301680</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>285840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Image 13" descr="Picture"/>
+        <xdr:cNvPr id="13" name="Image 14" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <a:blip r:embed="rId14"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3962520"/>
-          <a:ext cx="302400" cy="302400"/>
+          <a:off x="0" y="4264560"/>
+          <a:ext cx="301680" cy="301320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2247,28 +2327,28 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>60840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>302400</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>10080</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>41760</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>108000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Image 14" descr="Picture"/>
+        <xdr:cNvPr id="14" name="Image 15" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
+        <a:blip r:embed="rId15"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4280040"/>
-          <a:ext cx="302400" cy="302040"/>
+          <a:off x="0" y="4632840"/>
+          <a:ext cx="605520" cy="605880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2286,27 +2366,27 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>467280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>42480</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>124200</xdr:rowOff>
+      <xdr:colOff>41760</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>108720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Image 15" descr="Picture"/>
+        <xdr:cNvPr id="15" name="Image 16" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId15"/>
+        <a:blip r:embed="rId16"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4648320"/>
-          <a:ext cx="606240" cy="606600"/>
+          <a:off x="0" y="5115600"/>
+          <a:ext cx="605520" cy="606600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2324,27 +2404,27 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>467280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>42480</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:colOff>41760</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>108000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Image 16" descr="Picture"/>
+        <xdr:cNvPr id="16" name="Image 17" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId16"/>
+        <a:blip r:embed="rId17"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5130720"/>
-          <a:ext cx="606240" cy="607320"/>
+          <a:off x="0" y="5598000"/>
+          <a:ext cx="605520" cy="605880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2362,27 +2442,27 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>467280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>42480</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>124200</xdr:rowOff>
+      <xdr:colOff>41760</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>108720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Image 17" descr="Picture"/>
+        <xdr:cNvPr id="17" name="Image 18" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId17"/>
+        <a:blip r:embed="rId18"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5613480"/>
-          <a:ext cx="606240" cy="606600"/>
+          <a:off x="0" y="6080760"/>
+          <a:ext cx="605520" cy="606600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2400,27 +2480,27 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>467640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>42480</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:colOff>41760</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>32040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Image 18" descr="Picture"/>
+        <xdr:cNvPr id="18" name="Image 19" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId18"/>
+        <a:blip r:embed="rId19"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="6095880"/>
-          <a:ext cx="606240" cy="607320"/>
+          <a:off x="0" y="6563520"/>
+          <a:ext cx="605520" cy="605880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2437,28 +2517,28 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>42480</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>47880</xdr:rowOff>
+      <xdr:colOff>41760</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Image 19" descr="Picture"/>
+        <xdr:cNvPr id="19" name="Image 20" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId19"/>
+        <a:blip r:embed="rId20"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="6578640"/>
-          <a:ext cx="606240" cy="606600"/>
+          <a:off x="0" y="7122240"/>
+          <a:ext cx="605520" cy="606240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2475,28 +2555,28 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>42480</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>301680</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>149760</xdr:rowOff>
+      <xdr:rowOff>95760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Image 20" descr="Picture"/>
+        <xdr:cNvPr id="20" name="Image 21" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId20"/>
+        <a:blip r:embed="rId21"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="7137360"/>
-          <a:ext cx="606240" cy="606960"/>
+          <a:off x="0" y="7389000"/>
+          <a:ext cx="301680" cy="301320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2514,51 +2594,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>302400</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>111600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Image 21" descr="Picture"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId21"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="7404120"/>
-          <a:ext cx="302400" cy="302040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>175320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>42480</xdr:colOff>
+      <xdr:colOff>41760</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>35640</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2571,8 +2613,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="7594560"/>
-          <a:ext cx="606240" cy="607320"/>
+          <a:off x="0" y="7579440"/>
+          <a:ext cx="605520" cy="606600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2699,14 +2741,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BF62"/>
+  <dimension ref="A1:BF71"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2952,6 +2994,9 @@
       <c r="AT2" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="BF2" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="5" t="n">
@@ -3002,6 +3047,9 @@
       <c r="AV3" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="BF3" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -3058,6 +3106,9 @@
       <c r="AV4" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="BF4" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -3114,25 +3165,28 @@
       <c r="AV5" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="BF5" s="1" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>7788.5</v>
+        <v>8013.5</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>41.9742</v>
+        <v>30.3322</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>-87.8651</v>
+        <v>-81.6557</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>84</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>63</v>
@@ -3143,32 +3197,32 @@
       <c r="L6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="X6" s="1" t="s">
         <v>65</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG6" s="1" t="n">
-        <v>41.9742</v>
+        <v>30.3322</v>
       </c>
       <c r="AH6" s="1" t="n">
-        <v>-87.8651</v>
+        <v>-81.6557</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="AU6" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AV6" s="1" t="s">
         <v>70</v>
+      </c>
+      <c r="BF6" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3176,13 +3230,13 @@
         <v>88</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>8013.5</v>
+        <v>8379.5</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>30.3322</v>
+        <v>41.8916</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>-81.6557</v>
+        <v>-87.6475</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>89</v>
@@ -3199,6 +3253,9 @@
       <c r="L7" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="V7" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="X7" s="1" t="s">
         <v>65</v>
       </c>
@@ -3206,16 +3263,16 @@
         <v>91</v>
       </c>
       <c r="AG7" s="1" t="n">
-        <v>30.3322</v>
+        <v>41.8916</v>
       </c>
       <c r="AH7" s="1" t="n">
-        <v>-81.6557</v>
+        <v>-87.6475</v>
       </c>
       <c r="AR7" s="1" t="s">
         <v>92</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="AU7" s="1" t="s">
         <v>69</v>
@@ -3223,19 +3280,19 @@
       <c r="AV7" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="BF7" s="1" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="B8" s="5" t="n">
-        <v>8379.5</v>
+        <v>8384.5</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>41.8916</v>
+        <v>40.7128</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>-87.6475</v>
+        <v>-74.006</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>94</v>
@@ -3249,12 +3306,6 @@
       <c r="J8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="X8" s="1" t="s">
         <v>65</v>
       </c>
@@ -3262,16 +3313,16 @@
         <v>96</v>
       </c>
       <c r="AG8" s="1" t="n">
-        <v>41.8916</v>
+        <v>40.7128</v>
       </c>
       <c r="AH8" s="1" t="n">
-        <v>-87.6475</v>
+        <v>-74.006</v>
       </c>
       <c r="AR8" s="1" t="s">
         <v>97</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AU8" s="1" t="s">
         <v>69</v>
@@ -3279,16 +3330,22 @@
       <c r="AV8" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="BF8" s="1" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="B9" s="5" t="n">
-        <v>8384.5</v>
+        <v>8606.5</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>40.7128</v>
+        <v>41.9066</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>-74.006</v>
+        <v>-87.6347</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>99</v>
@@ -3302,6 +3359,12 @@
       <c r="J9" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="L9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="X9" s="1" t="s">
         <v>65</v>
       </c>
@@ -3309,22 +3372,25 @@
         <v>101</v>
       </c>
       <c r="AG9" s="1" t="n">
-        <v>40.7128</v>
+        <v>41.9066</v>
       </c>
       <c r="AH9" s="1" t="n">
-        <v>-74.006</v>
+        <v>-87.6347</v>
       </c>
       <c r="AR9" s="1" t="s">
         <v>102</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="AU9" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AV9" s="1" t="s">
         <v>70</v>
+      </c>
+      <c r="BF9" s="1" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3332,13 +3398,13 @@
         <v>103</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>8606.5</v>
+        <v>8826.5</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>41.9066</v>
+        <v>41.9755</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>-87.6347</v>
+        <v>-87.9099</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>104</v>
@@ -3365,16 +3431,16 @@
         <v>106</v>
       </c>
       <c r="AG10" s="1" t="n">
-        <v>41.9066</v>
+        <v>41.9755</v>
       </c>
       <c r="AH10" s="1" t="n">
-        <v>-87.6347</v>
+        <v>-87.9099</v>
       </c>
       <c r="AR10" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="AU10" s="1" t="s">
         <v>69</v>
@@ -3382,25 +3448,28 @@
       <c r="AV10" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="BF10" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>8826.5</v>
+        <v>8986.5</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>41.9755</v>
+        <v>41.9286</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>-87.9099</v>
+        <v>-87.6318</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>63</v>
@@ -3418,25 +3487,28 @@
         <v>65</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG11" s="1" t="n">
-        <v>41.9755</v>
+        <v>41.9286</v>
       </c>
       <c r="AH11" s="1" t="n">
-        <v>-87.9099</v>
+        <v>-87.6318</v>
       </c>
       <c r="AR11" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="AU11" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AV11" s="1" t="s">
         <v>70</v>
+      </c>
+      <c r="BF11" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3444,13 +3516,13 @@
         <v>114</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>8827.5</v>
+        <v>9129.5</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>41.8529</v>
+        <v>41.8806</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>-87.6326</v>
+        <v>-87.6305</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>115</v>
@@ -3477,16 +3549,16 @@
         <v>117</v>
       </c>
       <c r="AG12" s="1" t="n">
-        <v>41.8529</v>
+        <v>41.8806</v>
       </c>
       <c r="AH12" s="1" t="n">
-        <v>-87.6326</v>
+        <v>-87.6305</v>
       </c>
       <c r="AR12" s="1" t="s">
         <v>118</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="AU12" s="1" t="s">
         <v>69</v>
@@ -3494,25 +3566,28 @@
       <c r="AV12" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="BF12" s="1" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>8986.5</v>
+        <v>9160.5</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>41.9286</v>
+        <v>41.8917</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>-87.6318</v>
+        <v>-87.6552</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>63</v>
@@ -3530,16 +3605,16 @@
         <v>65</v>
       </c>
       <c r="AF13" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG13" s="1" t="n">
-        <v>41.9286</v>
+        <v>41.8917</v>
       </c>
       <c r="AH13" s="1" t="n">
-        <v>-87.6318</v>
+        <v>-87.6552</v>
       </c>
       <c r="AR13" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AT13" s="1" t="s">
         <v>60</v>
@@ -3550,25 +3625,28 @@
       <c r="AV13" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="BF13" s="1" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>9129.5</v>
+        <v>9615.5</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>41.8806</v>
+        <v>41.9616</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>-87.6305</v>
+        <v>-87.6571</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>63</v>
@@ -3586,19 +3664,19 @@
         <v>65</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG14" s="1" t="n">
-        <v>41.8806</v>
+        <v>41.9616</v>
       </c>
       <c r="AH14" s="1" t="n">
-        <v>-87.6305</v>
+        <v>-87.6571</v>
       </c>
       <c r="AR14" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="AU14" s="1" t="s">
         <v>69</v>
@@ -3606,25 +3684,25 @@
       <c r="AV14" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="BF14" s="1" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="5" t="n">
+        <v>9706.5</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>41.8881</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>-87.625</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="5" t="n">
-        <v>9160.5</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>41.8917</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>-87.6552</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>63</v>
@@ -3632,9 +3710,6 @@
       <c r="J15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="V15" s="1" t="s">
         <v>64</v>
       </c>
@@ -3642,19 +3717,19 @@
         <v>65</v>
       </c>
       <c r="AF15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG15" s="1" t="n">
+        <v>41.8881</v>
+      </c>
+      <c r="AH15" s="1" t="n">
+        <v>-87.625</v>
+      </c>
+      <c r="AR15" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AG15" s="1" t="n">
-        <v>41.8917</v>
-      </c>
-      <c r="AH15" s="1" t="n">
-        <v>-87.6552</v>
-      </c>
-      <c r="AR15" s="1" t="s">
+      <c r="AT15" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="AT15" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="AU15" s="1" t="s">
         <v>69</v>
@@ -3662,128 +3737,203 @@
       <c r="AV15" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="BF15" s="1" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="5" t="n">
+        <v>9908.33888888889</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B16" s="5" t="n">
-        <v>9615.5</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>41.9616</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <v>-87.6571</v>
+      <c r="D16" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="M16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="V16" s="1" t="s">
-        <v>64</v>
+        <v>146</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="X16" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="Y16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="AF16" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG16" s="1" t="n">
-        <v>41.9616</v>
-      </c>
-      <c r="AH16" s="1" t="n">
-        <v>-87.6571</v>
-      </c>
-      <c r="AR16" s="1" t="s">
-        <v>139</v>
+        <v>150</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AR16" s="6" t="n">
+        <v>9908.33888888889</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="AU16" s="1" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="AV16" s="1" t="s">
-        <v>70</v>
+        <v>152</v>
+      </c>
+      <c r="BA16" s="1" t="n">
+        <v>53.4453352726708</v>
+      </c>
+      <c r="BF16" s="1" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="5" t="n">
-        <v>9706.5</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>41.8881</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>-87.625</v>
+        <v>9937.97777777778</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="X17" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="Y17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="AF17" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG17" s="1" t="n">
-        <v>41.8881</v>
-      </c>
-      <c r="AH17" s="1" t="n">
-        <v>-87.625</v>
-      </c>
-      <c r="AR17" s="1" t="s">
-        <v>143</v>
+        <v>161</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AR17" s="6" t="n">
+        <v>9937.97777777778</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AU17" s="1" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="AV17" s="1" t="s">
-        <v>70</v>
+        <v>152</v>
+      </c>
+      <c r="AW17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AY17" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AZ17" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="BF17" s="1" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="5" t="n">
-        <v>9908.33888888889</v>
+        <v>9965.55694444445</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>82</v>
@@ -3795,87 +3945,78 @@
         <v>74</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="X18" s="1" t="s">
         <v>65</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="AH18" s="1" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="AR18" s="6" t="n">
-        <v>9908.33888888889</v>
+        <v>9965.55694444445</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="AU18" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="AV18" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="BA18" s="1" t="n">
-        <v>53.4453352726708</v>
+        <v>41.8718348601936</v>
       </c>
       <c r="BF18" s="1" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="5" t="n">
-        <v>9937.97777777778</v>
+        <v>9995.64027777778</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>165</v>
+        <v>174</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>-87.6229247</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>59</v>
@@ -3884,84 +4025,81 @@
         <v>74</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="X19" s="1" t="s">
         <v>65</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z19" s="1" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="AF19" s="1" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AH19" s="1" t="s">
-        <v>164</v>
+        <v>174</v>
+      </c>
+      <c r="AH19" s="1" t="n">
+        <v>-87.6229247</v>
       </c>
       <c r="AR19" s="6" t="n">
-        <v>9937.97777777778</v>
+        <v>9995.64027777778</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>82</v>
+        <v>181</v>
       </c>
       <c r="AU19" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="AV19" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="AW19" s="1" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="AX19" s="1" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="AY19" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AZ19" s="1" t="n">
-        <v>55</v>
+        <v>184</v>
       </c>
       <c r="BF19" s="1" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="B20" s="5" t="n">
-        <v>9965.55694444444</v>
+        <v>9996.64027777778</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>82</v>
@@ -3973,241 +4111,181 @@
         <v>74</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>179</v>
+        <v>139</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="X20" s="1" t="s">
         <v>65</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="AF20" s="1" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="AH20" s="1" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="AR20" s="6" t="n">
-        <v>9965.55694444444</v>
+        <v>9996.64027777778</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>183</v>
+        <v>68</v>
       </c>
       <c r="AU20" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="AV20" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BA20" s="1" t="n">
-        <v>41.8718348601936</v>
+        <v>152</v>
       </c>
       <c r="BF20" s="1" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="B21" s="5" t="n">
-        <v>9995.64027777778</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>184</v>
+        <v>9996.66111111111</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>41.8529</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>-87.6229247</v>
+        <v>-87.6326</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M21" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="V21" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>188</v>
+        <v>64</v>
       </c>
       <c r="X21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Y21" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="AF21" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AG21" s="1" t="s">
-        <v>184</v>
+        <v>198</v>
+      </c>
+      <c r="AG21" s="1" t="n">
+        <v>41.8529</v>
       </c>
       <c r="AH21" s="1" t="n">
-        <v>-87.6229247</v>
-      </c>
-      <c r="AR21" s="6" t="n">
-        <v>9995.64027777778</v>
+        <v>-87.6326</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="AU21" s="1" t="s">
-        <v>161</v>
+        <v>69</v>
       </c>
       <c r="AV21" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AW21" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AX21" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AY21" s="1" t="s">
-        <v>193</v>
+        <v>70</v>
       </c>
       <c r="BF21" s="1" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>9996.64027777778</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>196</v>
+        <v>9996.68194444445</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>41.8056</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>-87.5972</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="V22" s="1" t="s">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c r="X22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Y22" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="Z22" s="1" t="s">
+      <c r="AF22" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AF22" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="AG22" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH22" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AR22" s="6" t="n">
-        <v>9996.64027777778</v>
+      <c r="AG22" s="1" t="n">
+        <v>41.8056</v>
+      </c>
+      <c r="AH22" s="1" t="n">
+        <v>-87.5972</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="AU22" s="1" t="s">
-        <v>161</v>
+        <v>69</v>
       </c>
       <c r="AV22" s="1" t="s">
-        <v>162</v>
+        <v>70</v>
       </c>
       <c r="BF22" s="1" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="5" t="n">
-        <v>10028.6402777778</v>
+        <v>9996.76597222222</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>59</v>
@@ -4216,314 +4294,366 @@
         <v>74</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>149</v>
+        <v>206</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="X23" s="1" t="s">
         <v>65</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD23" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="AF23" s="1" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AG23" s="1" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AH23" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AR23" s="6" t="n">
-        <v>10028.6402777778</v>
+      <c r="AK23" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AU23" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AV23" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="BF23" s="1" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>219</v>
+      </c>
       <c r="B24" s="5" t="n">
-        <v>10095.4630439815</v>
+        <v>9996.81458333333</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>41.8788764</v>
+        <v>41.9742</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>-87.6384898</v>
+        <v>-87.8651</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>213</v>
+        <v>63</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c r="X24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Y24" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="AG24" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="AH24" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="AR24" s="1" t="s">
-        <v>219</v>
+      <c r="AF24" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG24" s="1" t="n">
+        <v>41.9742</v>
+      </c>
+      <c r="AH24" s="1" t="n">
+        <v>-87.8651</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c r="AU24" s="1" t="s">
-        <v>161</v>
+        <v>69</v>
       </c>
       <c r="AV24" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BA24" s="1" t="n">
-        <v>43.4453352726708</v>
-      </c>
-      <c r="BB24" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC24" s="1" t="s">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="BF24" s="1" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="B25" s="5" t="n">
-        <v>10142.5</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>41.8056</v>
-      </c>
-      <c r="D25" s="1" t="n">
-        <v>-87.5972</v>
+        <v>9996.81458333333</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="M25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="V25" s="1" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="X25" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="Y25" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="AF25" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG25" s="1" t="n">
-        <v>41.8056</v>
-      </c>
-      <c r="AH25" s="1" t="n">
-        <v>-87.5972</v>
-      </c>
-      <c r="AR25" s="1" t="s">
-        <v>225</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="AG25" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH25" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AR25" s="6"/>
       <c r="AT25" s="1" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="AU25" s="1" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="AV25" s="1" t="s">
-        <v>70</v>
+        <v>152</v>
+      </c>
+      <c r="BF25" s="1" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="B26" s="5" t="n">
-        <v>10365.5</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>41.8758</v>
-      </c>
-      <c r="D26" s="1" t="n">
-        <v>-87.6395</v>
+        <v>10028.6402777778</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>228</v>
+        <v>138</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="M26" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="V26" s="1" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="X26" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="Y26" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="AF26" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG26" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH26" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AR26" s="6" t="n">
+        <v>10028.6402777778</v>
+      </c>
+      <c r="AT26" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="AG26" s="1" t="n">
-        <v>41.8758</v>
-      </c>
-      <c r="AH26" s="1" t="n">
-        <v>-87.6395</v>
-      </c>
-      <c r="AR26" s="1" t="s">
+      <c r="AU26" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV26" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BF26" s="1" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="5" t="n">
+        <v>10095.4630439815</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>41.8788764</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>-87.6384898</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="AT26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AV26" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B27" s="5" t="n">
-        <v>10393.5</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>41.8789</v>
-      </c>
-      <c r="D27" s="1" t="n">
-        <v>-87.6359</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="J27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="M27" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q27" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>74</v>
+      <c r="T27" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="X27" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AF27" s="1" t="s">
+      <c r="Y27" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AG27" s="1" t="n">
-        <v>41.8789</v>
-      </c>
-      <c r="AH27" s="1" t="n">
-        <v>-87.6359</v>
+      <c r="AG27" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH27" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="AR27" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AT27" s="1" t="s">
-        <v>236</v>
+        <v>60</v>
       </c>
       <c r="AU27" s="1" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="AV27" s="1" t="s">
-        <v>70</v>
+        <v>152</v>
+      </c>
+      <c r="BA27" s="1" t="n">
+        <v>43.4453352726708</v>
+      </c>
+      <c r="BB27" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC27" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="BF27" s="1" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>10426.5</v>
+        <v>10365.5</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>41.8827</v>
+        <v>41.8758</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>-87.629</v>
+        <v>-87.6395</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>63</v>
@@ -4541,19 +4671,19 @@
         <v>65</v>
       </c>
       <c r="AF28" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AG28" s="1" t="n">
-        <v>41.8827</v>
+        <v>41.8758</v>
       </c>
       <c r="AH28" s="1" t="n">
-        <v>-87.629</v>
+        <v>-87.6395</v>
       </c>
       <c r="AR28" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AT28" s="1" t="s">
-        <v>183</v>
+        <v>60</v>
       </c>
       <c r="AU28" s="1" t="s">
         <v>69</v>
@@ -4561,25 +4691,28 @@
       <c r="AV28" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="BF28" s="1" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>10513.5</v>
+        <v>10393.5</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>41.8858</v>
+        <v>41.8789</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>-87.6278</v>
+        <v>-87.6359</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>63</v>
@@ -4597,19 +4730,19 @@
         <v>65</v>
       </c>
       <c r="AF29" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AG29" s="1" t="n">
-        <v>41.8858</v>
+        <v>41.8789</v>
       </c>
       <c r="AH29" s="1" t="n">
-        <v>-87.6278</v>
+        <v>-87.6359</v>
       </c>
       <c r="AR29" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AT29" s="1" t="s">
-        <v>60</v>
+        <v>249</v>
       </c>
       <c r="AU29" s="1" t="s">
         <v>69</v>
@@ -4617,25 +4750,28 @@
       <c r="AV29" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="BF29" s="1" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>10565.5</v>
+        <v>10426.5</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>41.9469</v>
+        <v>41.8827</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>-87.6553</v>
+        <v>-87.629</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>63</v>
@@ -4653,19 +4789,19 @@
         <v>65</v>
       </c>
       <c r="AF30" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AG30" s="1" t="n">
-        <v>41.9469</v>
+        <v>41.8827</v>
       </c>
       <c r="AH30" s="1" t="n">
-        <v>-87.6553</v>
+        <v>-87.629</v>
       </c>
       <c r="AR30" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AT30" s="1" t="s">
-        <v>252</v>
+        <v>173</v>
       </c>
       <c r="AU30" s="1" t="s">
         <v>69</v>
@@ -4673,105 +4809,87 @@
       <c r="AV30" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="BF30" s="1" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="B31" s="5" t="n">
-        <v>10638.4375</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>254</v>
+        <v>10513.5</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>41.8858</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>-87.6278</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M31" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="U31" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="V31" s="1" t="s">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c r="X31" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Y31" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z31" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="AF31" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="AG31" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AH31" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AR31" s="6" t="n">
-        <v>10638.4375</v>
+        <v>258</v>
+      </c>
+      <c r="AG31" s="1" t="n">
+        <v>41.8858</v>
+      </c>
+      <c r="AH31" s="1" t="n">
+        <v>-87.6278</v>
+      </c>
+      <c r="AR31" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="AT31" s="1" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="AU31" s="1" t="s">
-        <v>161</v>
+        <v>69</v>
       </c>
       <c r="AV31" s="1" t="s">
-        <v>264</v>
+        <v>70</v>
       </c>
       <c r="BF31" s="1" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>10954.5</v>
+        <v>10565.5</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>41.8906</v>
+        <v>41.9469</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>-87.6233</v>
+        <v>-87.6553</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>63</v>
@@ -4789,19 +4907,19 @@
         <v>65</v>
       </c>
       <c r="AF32" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="AG32" s="1" t="n">
-        <v>41.8906</v>
+        <v>41.9469</v>
       </c>
       <c r="AH32" s="1" t="n">
-        <v>-87.6233</v>
+        <v>-87.6553</v>
       </c>
       <c r="AR32" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AT32" s="1" t="s">
-        <v>270</v>
+        <v>208</v>
       </c>
       <c r="AU32" s="1" t="s">
         <v>69</v>
@@ -4809,72 +4927,108 @@
       <c r="AV32" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="BF32" s="1" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="5" t="n">
-        <v>11103.5</v>
-      </c>
-      <c r="C33" s="1" t="n">
-        <v>41.4925</v>
-      </c>
-      <c r="D33" s="1" t="n">
-        <v>-99.9018</v>
+        <v>10638.4375</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="S33" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="T33" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>63</v>
+      <c r="U33" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="X33" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="Y33" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>274</v>
+      </c>
       <c r="AF33" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AG33" s="1" t="n">
-        <v>41.4925</v>
-      </c>
-      <c r="AH33" s="1" t="n">
-        <v>-99.9018</v>
-      </c>
-      <c r="AR33" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
+      </c>
+      <c r="AG33" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AH33" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AR33" s="6" t="n">
+        <v>10638.4375</v>
       </c>
       <c r="AT33" s="1" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="AU33" s="1" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="AV33" s="1" t="s">
-        <v>70</v>
+        <v>276</v>
+      </c>
+      <c r="BF33" s="1" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>11228.5</v>
+        <v>10954.5</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>25.7617</v>
+        <v>41.8906</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>-80.1918</v>
+        <v>-87.6233</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>63</v>
@@ -4885,23 +5039,26 @@
       <c r="L34" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="V34" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="X34" s="1" t="s">
         <v>65</v>
       </c>
       <c r="AF34" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AG34" s="1" t="n">
-        <v>25.7617</v>
+        <v>41.8906</v>
       </c>
       <c r="AH34" s="1" t="n">
-        <v>-80.1918</v>
+        <v>-87.6233</v>
       </c>
       <c r="AR34" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AT34" s="1" t="s">
-        <v>68</v>
+        <v>282</v>
       </c>
       <c r="AU34" s="1" t="s">
         <v>69</v>
@@ -4909,1058 +5066,962 @@
       <c r="AV34" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="BF34" s="1" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="5" t="n">
-        <v>11395.1702083333</v>
+        <v>11103.5</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>41.4925</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>-99.9018</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF35" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AG35" s="1" t="n">
+        <v>41.4925</v>
+      </c>
+      <c r="AH35" s="1" t="n">
+        <v>-99.9018</v>
+      </c>
+      <c r="AR35" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="AT35" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="AU35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF35" s="1" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>287</v>
+      </c>
       <c r="B36" s="5" t="n">
-        <v>11479.5515625</v>
+        <v>11228.5</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>25.7617</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>-80.1918</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>281</v>
+        <v>289</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF36" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG36" s="1" t="n">
+        <v>25.7617</v>
+      </c>
+      <c r="AH36" s="1" t="n">
+        <v>-80.1918</v>
+      </c>
+      <c r="AR36" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="AT36" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
+      </c>
+      <c r="AU36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF36" s="1" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="5" t="n">
-        <v>17192.1702083333</v>
+        <v>11395.1702083333</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>59</v>
+        <v>292</v>
       </c>
       <c r="AT37" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="BF37" s="1" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="5" t="n">
-        <v>44392.7235069444</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>284</v>
+        <v>11479.5515625</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="Z38" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="AF38" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="AG38" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="AH38" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="AR38" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AT38" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AU38" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="BF38" s="1" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="5" t="n">
-        <v>44461.5435763889</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>292</v>
+        <v>17192.1702083333</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>294</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="J39" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M39" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="T39" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="U39" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="V39" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="W39" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="X39" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y39" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="Z39" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="AB39" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="AE39" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="AF39" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="AG39" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="AH39" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="AK39" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM39" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="AR39" s="1" t="s">
-        <v>301</v>
-      </c>
       <c r="AT39" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AU39" s="1" t="s">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="BF39" s="1" t="n">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="5" t="n">
-        <v>44725.9035069444</v>
+        <v>44392.7235069444</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>293</v>
+        <v>60</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L40" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="M40" s="1" t="s">
-        <v>304</v>
+        <v>139</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="T40" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="U40" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="V40" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="W40" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="X40" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y40" s="1" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="AB40" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="AC40" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD40" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="AE40" s="1" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="AF40" s="1" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="AG40" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AH40" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AR40" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AH40" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="AK40" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="AR40" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="AT40" s="1" t="s">
-        <v>252</v>
+        <v>60</v>
       </c>
       <c r="AU40" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="BF40" s="1" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="5" t="n">
-        <v>44768.6063888889</v>
+        <v>44461.5435763889</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>59</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>319</v>
+        <v>305</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="X41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y41" s="1" t="s">
+        <v>307</v>
       </c>
       <c r="Z41" s="1" t="s">
-        <v>320</v>
+        <v>308</v>
+      </c>
+      <c r="AB41" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE41" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="AF41" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="AG41" s="1" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="AH41" s="1" t="s">
-        <v>318</v>
+        <v>304</v>
+      </c>
+      <c r="AK41" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM41" s="1" t="s">
+        <v>312</v>
       </c>
       <c r="AR41" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="AT41" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AU41" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="BF41" s="1" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="5" t="n">
-        <v>44768.6063888889</v>
+        <v>44928.7375</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>59</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>149</v>
+        <v>316</v>
       </c>
       <c r="P42" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y42" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AE42" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="AF42" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AG42" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AH42" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AK42" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="AQ42" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="AR42" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="Z42" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="AB42" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="AE42" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="AF42" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="AG42" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="AH42" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="AR42" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="AT42" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="AU42" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="BF42" s="1" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="5" t="n">
-        <v>44928.7375</v>
+        <v>44946.8034722222</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>59</v>
       </c>
       <c r="M43" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="X43" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="P43" s="1" t="s">
+      <c r="Y43" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="Q43" s="1" t="s">
+      <c r="AE43" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="U43" s="1" t="s">
+      <c r="AF43" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="V43" s="1" t="s">
+      <c r="AG43" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="AH43" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AQ43" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="AR43" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="X43" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="Y43" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="AE43" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="AF43" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="AG43" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="AH43" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="AK43" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="AQ43" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="AR43" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="AT43" s="1" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="AU43" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="BF43" s="1" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="5" t="n">
-        <v>44946.8034722222</v>
+        <v>45189.6434953704</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>324</v>
+        <v>59</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>59</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>331</v>
+        <v>139</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="T44" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="U44" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="V44" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="X44" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y44" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="AE44" s="1" t="s">
-        <v>348</v>
+        <v>338</v>
+      </c>
+      <c r="Z44" s="1" t="s">
+        <v>339</v>
       </c>
       <c r="AF44" s="1" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="AG44" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AH44" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AR44" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="AH44" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="AQ44" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="AR44" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="AT44" s="1" t="s">
-        <v>324</v>
+        <v>59</v>
       </c>
       <c r="AU44" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="BF44" s="1" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="5" t="n">
-        <v>45189.6434953704</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>352</v>
+        <v>45284.4335648148</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>343</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>59</v>
+        <v>344</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>59</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="Z45" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="AF45" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="AG45" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="AH45" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y45" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="AR45" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="AT45" s="1" t="s">
-        <v>59</v>
+        <v>344</v>
       </c>
       <c r="AU45" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="BF45" s="1" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="5" t="n">
-        <v>45284.4335648148</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>358</v>
+        <v>45286.4593865741</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>359</v>
+        <v>59</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="L46" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="M46" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>361</v>
+        <v>158</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="W46" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="X46" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y46" s="1" t="s">
-        <v>363</v>
+        <v>146</v>
+      </c>
+      <c r="Z46" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="AF46" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="AG46" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="AH46" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="AR46" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="AT46" s="1" t="s">
-        <v>359</v>
+        <v>59</v>
       </c>
       <c r="AU46" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="BF46" s="1" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="5" t="n">
-        <v>45286.4593865741</v>
+        <v>45287.7076388889</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>292</v>
+        <v>355</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>59</v>
+        <v>315</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L47" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="M47" s="1" t="s">
-        <v>149</v>
+        <v>316</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>168</v>
+        <v>357</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>154</v>
+        <v>359</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z47" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
+      </c>
+      <c r="X47" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y47" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AE47" s="1" t="s">
+        <v>363</v>
       </c>
       <c r="AF47" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AG47" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="AH47" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="AK47" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ47" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR47" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="AH47" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="AR47" s="1" t="s">
-        <v>368</v>
-      </c>
       <c r="AT47" s="1" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="AU47" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="BF47" s="1" t="n">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="5" t="n">
-        <v>45287.7076388889</v>
+        <v>45287.7159722222</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>59</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="P48" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="X48" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="Q48" s="1" t="s">
+      <c r="Y48" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="S48" s="1" t="s">
+      <c r="AE48" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="T48" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="U48" s="1" t="s">
+      <c r="AF48" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="V48" s="1" t="s">
+      <c r="AG48" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AH48" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AK48" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AQ48" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR48" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="X48" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="Y48" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="AE48" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="AF48" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="AG48" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="AH48" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="AK48" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AQ48" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR48" s="1" t="s">
-        <v>380</v>
-      </c>
       <c r="AT48" s="1" t="s">
-        <v>113</v>
+        <v>218</v>
       </c>
       <c r="AU48" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="BF48" s="1" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="5" t="n">
-        <v>45287.7159722222</v>
+        <v>45298.5689814815</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>324</v>
+        <v>173</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>59</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>331</v>
+        <v>139</v>
       </c>
       <c r="P49" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AC49" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AF49" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="AG49" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AH49" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AR49" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="Q49" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="U49" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="V49" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="X49" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="Y49" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="AE49" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="AF49" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="AG49" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="AH49" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="AK49" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="AQ49" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="AR49" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="AT49" s="1" t="s">
-        <v>315</v>
+        <v>173</v>
       </c>
       <c r="AU49" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="BF49" s="1" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="5" t="n">
-        <v>45298.5689814815</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>393</v>
+        <v>45300.5689814815</v>
+      </c>
+      <c r="C50" s="7" t="n">
+        <v>41.920103</v>
+      </c>
+      <c r="D50" s="7" t="n">
+        <v>-87.673827</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q50" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC50" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="AF50" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="AG50" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="AH50" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="AR50" s="1" t="s">
-        <v>398</v>
+        <v>205</v>
+      </c>
+      <c r="AF50" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="AK50" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="AT50" s="1" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="AU50" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="BF50" s="1" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="5" t="n">
+        <v>45300.5710648148</v>
+      </c>
+      <c r="C51" s="7" t="n">
+        <v>41.954183</v>
+      </c>
+      <c r="D51" s="7" t="n">
+        <v>-87.731145</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF51" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK51" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT51" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BF51" s="1" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="5" t="n">
+        <v>45300.5780092593</v>
+      </c>
+      <c r="C52" s="7" t="n">
+        <v>41.951087</v>
+      </c>
+      <c r="D52" s="7" t="n">
+        <v>-87.74732</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF52" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="AK52" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AT52" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BF52" s="1" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="5" t="n">
+        <v>45300.5918981482</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>41.9497736</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>-87.7534868</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF53" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="AK53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BF53" s="1" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="5" t="n">
         <v>45310.59375</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="U51" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="V51" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="X51" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="Y51" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="AE51" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="AF51" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="AG51" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AH51" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="AK51" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AQ51" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="AR51" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="AT51" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU51" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="BF51" s="1" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="T52" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="U52" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="V52" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y52" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="Z52" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="AF52" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="AG52" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="AH52" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="AT52" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="AU52" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AZ52" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="BA52" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="BB52" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="BF52" s="1" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q53" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="Z53" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="AF53" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="AG53" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="AH53" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="AT53" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="AU53" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="BF53" s="1" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>389</v>
+      </c>
       <c r="I54" s="1" t="s">
-        <v>59</v>
+        <v>315</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>59</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>149</v>
+        <v>316</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>425</v>
+        <v>390</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>155</v>
+        <v>391</v>
+      </c>
+      <c r="V54" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="X54" s="1" t="s">
-        <v>65</v>
+        <v>393</v>
+      </c>
+      <c r="Y54" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AE54" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AF54" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="AG54" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="AH54" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AK54" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ54" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="AR54" s="1" t="s">
+        <v>397</v>
       </c>
       <c r="AT54" s="1" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="AU54" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="BF54" s="1" t="n">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E55" s="1" t="s">
-        <v>426</v>
+      <c r="B55" s="5" t="n">
+        <v>45310.6076388889</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>82</v>
@@ -5968,258 +6029,234 @@
       <c r="J55" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L55" s="1" t="s">
-        <v>427</v>
-      </c>
       <c r="M55" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="U55" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="V55" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="W55" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="X55" s="1" t="s">
-        <v>65</v>
+        <v>400</v>
+      </c>
+      <c r="Z55" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="AF55" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="AG55" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="AH55" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="AT55" s="1" t="s">
-        <v>270</v>
+        <v>82</v>
       </c>
       <c r="AU55" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="BF55" s="1" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="5" t="n">
+        <v>45310.6472222222</v>
+      </c>
       <c r="C56" s="1" t="s">
-        <v>429</v>
+        <v>398</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>59</v>
+        <v>315</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>59</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q56" s="1" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="Z56" s="1" t="s">
-        <v>434</v>
+        <v>405</v>
+      </c>
+      <c r="AB56" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE56" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="AF56" s="1" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
       <c r="AG56" s="1" t="s">
-        <v>429</v>
+        <v>398</v>
       </c>
       <c r="AH56" s="1" t="s">
-        <v>430</v>
+        <v>403</v>
       </c>
       <c r="AT56" s="1" t="s">
-        <v>59</v>
+        <v>315</v>
       </c>
       <c r="AU56" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="BF56" s="1" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="5" t="n">
+        <v>45316.9041666667</v>
+      </c>
       <c r="C57" s="1" t="s">
-        <v>436</v>
+        <v>408</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>437</v>
+        <v>409</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>411</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L57" s="1" t="s">
-        <v>438</v>
-      </c>
       <c r="M57" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>439</v>
+        <v>412</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="Z57" s="1" t="s">
-        <v>440</v>
+        <v>414</v>
       </c>
       <c r="AF57" s="1" t="s">
-        <v>441</v>
+        <v>415</v>
       </c>
       <c r="AG57" s="1" t="s">
-        <v>436</v>
+        <v>408</v>
       </c>
       <c r="AH57" s="1" t="s">
-        <v>437</v>
+        <v>409</v>
       </c>
       <c r="AT57" s="1" t="s">
-        <v>60</v>
+        <v>344</v>
       </c>
       <c r="AU57" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="BF57" s="1" t="n">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="1" t="s">
-        <v>442</v>
+        <v>416</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>445</v>
+        <v>417</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>446</v>
+        <v>60</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>59</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>445</v>
+        <v>380</v>
       </c>
       <c r="Z58" s="1" t="s">
-        <v>448</v>
+        <v>420</v>
       </c>
       <c r="AF58" s="1" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
       <c r="AG58" s="1" t="s">
-        <v>442</v>
+        <v>416</v>
       </c>
       <c r="AH58" s="1" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="AT58" s="1" t="s">
-        <v>236</v>
+        <v>60</v>
       </c>
       <c r="AU58" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="BF58" s="1" t="n">
-        <v>30</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>451</v>
-      </c>
       <c r="E59" s="1" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>59</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>74</v>
+        <v>423</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="Q59" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="T59" s="1" t="s">
-        <v>455</v>
+        <v>424</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>456</v>
+        <v>306</v>
       </c>
       <c r="X59" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Y59" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="Z59" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="AF59" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="AG59" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="AH59" s="1" t="s">
-        <v>451</v>
-      </c>
       <c r="AT59" s="1" t="s">
-        <v>82</v>
+        <v>282</v>
       </c>
       <c r="AU59" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="BF59" s="1" t="n">
-        <v>31</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="1" t="s">
-        <v>459</v>
+        <v>425</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>460</v>
+        <v>426</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>427</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>59</v>
@@ -6227,59 +6264,53 @@
       <c r="J60" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M60" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="P60" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="S60" s="1" t="s">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="T60" s="1" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="V60" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="W60" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="X60" s="1" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="Y60" s="1" t="s">
-        <v>464</v>
+        <v>429</v>
+      </c>
+      <c r="Z60" s="1" t="s">
+        <v>430</v>
       </c>
       <c r="AF60" s="1" t="s">
-        <v>465</v>
+        <v>431</v>
       </c>
       <c r="AG60" s="1" t="s">
-        <v>459</v>
+        <v>425</v>
       </c>
       <c r="AH60" s="1" t="s">
-        <v>460</v>
+        <v>426</v>
       </c>
       <c r="AT60" s="1" t="s">
-        <v>211</v>
+        <v>432</v>
       </c>
       <c r="AU60" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
+      </c>
+      <c r="AZ60" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="BA60" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="BB60" s="1" t="n">
+        <v>30</v>
       </c>
       <c r="BF60" s="1" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>467</v>
-      </c>
       <c r="I61" s="1" t="s">
         <v>59</v>
       </c>
@@ -6287,204 +6318,486 @@
         <v>59</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="R61" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="S61" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="T61" s="1" t="s">
-        <v>470</v>
+        <v>433</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="V61" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="W61" s="1" t="s">
-        <v>472</v>
+        <v>145</v>
       </c>
       <c r="X61" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Y61" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="AF61" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="AG61" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="AH61" s="1" t="s">
-        <v>467</v>
-      </c>
       <c r="AT61" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="AU61" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="BF61" s="1" t="n">
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Z62" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AF62" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AG62" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="AH62" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="AT62" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU62" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BF62" s="1" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C63" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="T63" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="U63" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V63" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="W63" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="X63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y63" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="Z63" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF63" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="AG63" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AH63" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AT63" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU63" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BF63" s="1" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="T64" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U64" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V64" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="W64" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="X64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y64" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="AF64" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="AG64" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="AH64" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="AT64" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AU64" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BF64" s="1" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C65" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="T65" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="U65" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="V65" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="W65" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="X65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y65" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="AF65" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="AG65" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="AH65" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="AT65" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU65" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BF65" s="1" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C66" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="Z66" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="AF66" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="AG66" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="AH66" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="AT66" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AU66" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BF66" s="1" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="F67" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="T67" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="U67" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="N62" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="O62" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="P62" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="Q62" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="S62" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="T62" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="U62" s="1" t="s">
+      <c r="V67" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="W67" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="V62" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="W62" s="1" t="s">
+      <c r="X67" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="X62" s="1" t="s">
+      <c r="Y67" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="Y62" s="1" t="s">
+      <c r="Z67" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="AA67" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="AB67" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="AC67" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD67" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="AE67" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="AF67" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="Z62" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="AA62" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="AB62" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="AC62" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD62" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="AE62" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="AF62" s="1" t="s">
+      <c r="AG67" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AH67" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="AI67" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="AJ67" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="AK67" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="AL67" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="AM67" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="AN67" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="AO67" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="AP67" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="AQ67" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="AR67" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="AS67" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="AT67" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="AG62" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="AH62" s="1" t="s">
+      <c r="AU67" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV67" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="AI62" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="AJ62" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="AK62" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="AL62" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="AM62" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="AN62" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="AO62" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="AP62" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="AQ62" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="AR62" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="AS62" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="AT62" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="AU62" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AV62" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="AW62" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="AX62" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="BB62" s="1" t="n">
+      <c r="AW67" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="AX67" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="BB67" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="BC62" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="BF62" s="1" t="n">
-        <v>34</v>
+      <c r="BC67" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="BF67" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BF68" s="1" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BF69" s="1" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BF70" s="1" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BF71" s="1" t="n">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -6522,62 +6835,62 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>181</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>489</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6593,7 +6906,7 @@
         <v>60</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6601,7 +6914,7 @@
         <v>82</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6609,114 +6922,114 @@
         <v>59</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
-        <v>315</v>
+        <v>218</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>509</v>
       </c>
     </row>
   </sheetData>

--- a/GPS2Address/locations_test.xlsx
+++ b/GPS2Address/locations_test.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="557">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -482,6 +482,45 @@
     <t xml:space="preserve">1927-03-333</t>
   </si>
   <si>
+    <t xml:space="preserve">41.8915,-87.6341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8898,-87.6330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8882,-87.6325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8865,-87.6335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8850,-87.6355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8865,-87.6370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8885,-87.6380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8900,-87.6370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8910,-87.6350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8912,-87.6300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8905,-87.6280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8890,-87.6270</t>
+  </si>
+  <si>
     <t xml:space="preserve">41.8787485</t>
   </si>
   <si>
@@ -710,9 +749,6 @@
     <t xml:space="preserve">41.8911897,-87.6262266</t>
   </si>
   <si>
-    <t xml:space="preserve">Car2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Radius / Altitude test</t>
   </si>
   <si>
@@ -1269,6 +1305,114 @@
   </si>
   <si>
     <t xml:space="preserve">41.8285843,-87.7510767237512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8870,-87.6265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8850,-87.6270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8840,-87.6285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8835,-87.6305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8845,-87.6320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTXu83TUI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-02-16 23:07:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[WPA2-PSK-CCMP][RSN-PSK-CCMP][ESS][WPS][MFPC]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WigleWifi_sample3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f0:af:85:fc:5d:69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.901489,-87.791145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wifi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WigleWifi_sample3.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[TV] Samsung 6 Series (65)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-02-16 23:13:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display/Speaker;10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28:39:5e:2b:7e:69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.881554,-87.811916  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verizon Wireless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-02-17 17:33:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTE;311480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">311480_53002_53046869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.883280,-87.784794  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MyQ-286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-02-17 17:34:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uncategorized;10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cc:6a:10:bd:1f:69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.903661,-87.813204  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-02-17 17:46:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTE;us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">311480_53002_53045269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.903405, -87.788828  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gsm</t>
   </si>
   <si>
     <t xml:space="preserve">41.78543165</t>
@@ -1643,7 +1787,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1674,6 +1818,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1800,9 +1948,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>301680</xdr:colOff>
+      <xdr:colOff>300240</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:rowOff>5760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1816,7 +1964,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="175320"/>
-          <a:ext cx="301680" cy="301680"/>
+          <a:ext cx="300240" cy="300240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1838,9 +1986,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>301680</xdr:colOff>
+      <xdr:colOff>300240</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:rowOff>5760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1854,7 +2002,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="454680"/>
-          <a:ext cx="301680" cy="301680"/>
+          <a:ext cx="300240" cy="300240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1876,9 +2024,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>301680</xdr:colOff>
+      <xdr:colOff>300240</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>286920</xdr:rowOff>
+      <xdr:rowOff>285480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1892,7 +2040,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="734040"/>
-          <a:ext cx="301680" cy="302040"/>
+          <a:ext cx="300240" cy="300600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1914,9 +2062,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>301680</xdr:colOff>
+      <xdr:colOff>300240</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>285840</xdr:rowOff>
+      <xdr:rowOff>284400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1930,7 +2078,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="1026000"/>
-          <a:ext cx="301680" cy="301320"/>
+          <a:ext cx="300240" cy="299880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1952,9 +2100,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>41760</xdr:colOff>
+      <xdr:colOff>40320</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:rowOff>5760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1968,7 +2116,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="1318320"/>
-          <a:ext cx="605520" cy="606600"/>
+          <a:ext cx="604080" cy="605160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1990,9 +2138,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>301680</xdr:colOff>
+      <xdr:colOff>300240</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>286560</xdr:rowOff>
+      <xdr:rowOff>285120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2006,7 +2154,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="1902600"/>
-          <a:ext cx="301680" cy="301680"/>
+          <a:ext cx="300240" cy="300240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2028,9 +2176,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>301680</xdr:colOff>
+      <xdr:colOff>300240</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:rowOff>5400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2044,7 +2192,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="2207160"/>
-          <a:ext cx="301680" cy="301680"/>
+          <a:ext cx="300240" cy="300240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2066,9 +2214,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>301680</xdr:colOff>
+      <xdr:colOff>300240</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:rowOff>5400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2082,7 +2230,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="2486520"/>
-          <a:ext cx="301680" cy="301680"/>
+          <a:ext cx="300240" cy="300240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2104,9 +2252,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>301680</xdr:colOff>
+      <xdr:colOff>300240</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:rowOff>5760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2120,7 +2268,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="2766240"/>
-          <a:ext cx="301680" cy="301680"/>
+          <a:ext cx="300240" cy="300240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2142,9 +2290,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>301680</xdr:colOff>
+      <xdr:colOff>300240</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>286200</xdr:rowOff>
+      <xdr:rowOff>284760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2158,7 +2306,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3045600"/>
-          <a:ext cx="301680" cy="301320"/>
+          <a:ext cx="300240" cy="299880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2180,9 +2328,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>301680</xdr:colOff>
+      <xdr:colOff>300240</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>286920</xdr:rowOff>
+      <xdr:rowOff>285480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2196,7 +2344,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3337560"/>
-          <a:ext cx="301680" cy="302040"/>
+          <a:ext cx="300240" cy="300600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2218,9 +2366,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>301680</xdr:colOff>
+      <xdr:colOff>300240</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>286200</xdr:rowOff>
+      <xdr:rowOff>284760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2234,7 +2382,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3629520"/>
-          <a:ext cx="301680" cy="301680"/>
+          <a:ext cx="300240" cy="300240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2256,9 +2404,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>301680</xdr:colOff>
+      <xdr:colOff>300240</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>286200</xdr:rowOff>
+      <xdr:rowOff>284760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2272,7 +2420,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3947040"/>
-          <a:ext cx="301680" cy="301680"/>
+          <a:ext cx="300240" cy="300240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2294,9 +2442,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>301680</xdr:colOff>
+      <xdr:colOff>300240</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>285840</xdr:rowOff>
+      <xdr:rowOff>284400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2310,7 +2458,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4264560"/>
-          <a:ext cx="301680" cy="301320"/>
+          <a:ext cx="300240" cy="299880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2332,9 +2480,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>41760</xdr:colOff>
+      <xdr:colOff>40320</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>108000</xdr:rowOff>
+      <xdr:rowOff>106560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2348,7 +2496,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="4632840"/>
-          <a:ext cx="605520" cy="605880"/>
+          <a:ext cx="604080" cy="604440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2370,9 +2518,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>41760</xdr:colOff>
+      <xdr:colOff>40320</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>108720</xdr:rowOff>
+      <xdr:rowOff>107280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2386,7 +2534,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="5115600"/>
-          <a:ext cx="605520" cy="606600"/>
+          <a:ext cx="604080" cy="605160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2408,9 +2556,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>41760</xdr:colOff>
+      <xdr:colOff>40320</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>108000</xdr:rowOff>
+      <xdr:rowOff>106560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2424,7 +2572,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="5598000"/>
-          <a:ext cx="605520" cy="605880"/>
+          <a:ext cx="604080" cy="604440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2446,9 +2594,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>41760</xdr:colOff>
+      <xdr:colOff>40320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>108720</xdr:rowOff>
+      <xdr:rowOff>107280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2462,7 +2610,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="6080760"/>
-          <a:ext cx="605520" cy="606600"/>
+          <a:ext cx="604080" cy="605160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2484,9 +2632,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>41760</xdr:colOff>
+      <xdr:colOff>40320</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>32040</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2500,7 +2648,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="6563520"/>
-          <a:ext cx="605520" cy="605880"/>
+          <a:ext cx="604080" cy="604440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2522,9 +2670,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>41760</xdr:colOff>
+      <xdr:colOff>40320</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2538,7 +2686,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7122240"/>
-          <a:ext cx="605520" cy="606240"/>
+          <a:ext cx="604080" cy="604800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2560,9 +2708,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>301680</xdr:colOff>
+      <xdr:colOff>300240</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2576,7 +2724,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7389000"/>
-          <a:ext cx="301680" cy="301320"/>
+          <a:ext cx="300240" cy="299880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2598,9 +2746,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>41760</xdr:colOff>
+      <xdr:colOff>40320</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>18360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2614,7 +2762,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="7579440"/>
-          <a:ext cx="605520" cy="606600"/>
+          <a:ext cx="604080" cy="605160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2741,14 +2889,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BF71"/>
+  <dimension ref="A1:BF93"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3832,1203 +3980,626 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="5" t="n">
-        <v>9937.97777777778</v>
-      </c>
-      <c r="C17" s="1" t="s">
+        <v>9910.74027777778</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>41.8915</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>-87.6341</v>
+      </c>
+      <c r="AE17" s="0"/>
+      <c r="AF17" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="AT17" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AF17" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG17" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AH17" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AR17" s="6" t="n">
-        <v>9937.97777777778</v>
-      </c>
-      <c r="AT17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU17" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AV17" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AW17" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AX17" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AY17" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AZ17" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="BF17" s="1" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="5" t="n">
-        <v>9965.55694444445</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y18" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>171</v>
-      </c>
+        <v>9910.76319444444</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>41.8898</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>-87.633</v>
+      </c>
+      <c r="AE18" s="0"/>
       <c r="AF18" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG18" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AH18" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AR18" s="6" t="n">
-        <v>9965.55694444445</v>
+        <v>155</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AU18" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AV18" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BA18" s="1" t="n">
-        <v>41.8718348601936</v>
-      </c>
-      <c r="BF18" s="1" t="n">
-        <v>18</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="5" t="n">
-        <v>9995.64027777778</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>174</v>
+        <v>9910.78611111111</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>41.8882</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>-87.6229247</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y19" s="1" t="s">
-        <v>179</v>
-      </c>
+        <v>-87.6325</v>
+      </c>
+      <c r="AE19" s="0"/>
       <c r="AF19" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AG19" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AH19" s="1" t="n">
-        <v>-87.6229247</v>
-      </c>
-      <c r="AR19" s="6" t="n">
-        <v>9995.64027777778</v>
+        <v>156</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AU19" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AV19" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AW19" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AX19" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AY19" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BF19" s="1" t="n">
-        <v>19</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="B20" s="5" t="n">
-        <v>9996.64027777778</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y20" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>193</v>
-      </c>
+        <v>9910.80902777778</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>41.8865</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>-87.6335</v>
+      </c>
+      <c r="AE20" s="0"/>
       <c r="AF20" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AG20" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH20" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AR20" s="6" t="n">
-        <v>9996.64027777778</v>
+        <v>157</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU20" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AV20" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BF20" s="1" t="n">
-        <v>20</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="B21" s="5" t="n">
-        <v>9996.66111111111</v>
+        <v>9910.83194444444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>41.8529</v>
+        <v>41.885</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>-87.6326</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="X21" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>-87.6355</v>
+      </c>
+      <c r="AE21" s="0"/>
       <c r="AF21" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AG21" s="1" t="n">
-        <v>41.8529</v>
-      </c>
-      <c r="AH21" s="1" t="n">
-        <v>-87.6326</v>
+        <v>158</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AV21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BF21" s="1" t="n">
-        <v>21</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="B22" s="5" t="n">
-        <v>9996.68194444445</v>
+        <v>9910.85486111111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>41.8056</v>
+        <v>41.8865</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>-87.5972</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="X22" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>-87.637</v>
+      </c>
+      <c r="AE22" s="0"/>
       <c r="AF22" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AG22" s="1" t="n">
-        <v>41.8056</v>
-      </c>
-      <c r="AH22" s="1" t="n">
-        <v>-87.5972</v>
+        <v>159</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AV22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BF22" s="1" t="n">
-        <v>22</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="5" t="n">
-        <v>9996.76597222222</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="W23" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="X23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y23" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z23" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AB23" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AC23" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="AD23" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="AE23" s="1" t="s">
-        <v>216</v>
-      </c>
+        <v>9910.87777777778</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>41.8885</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>-87.638</v>
+      </c>
+      <c r="AE23" s="0"/>
       <c r="AF23" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="AG23" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH23" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AK23" s="1" t="s">
-        <v>218</v>
+        <v>160</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AU23" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BF23" s="1" t="n">
-        <v>23</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="B24" s="5" t="n">
-        <v>9996.81458333333</v>
+        <v>9910.90069444445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>41.9742</v>
+        <v>41.89</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>-87.8651</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="X24" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>-87.637</v>
+      </c>
+      <c r="AE24" s="0"/>
       <c r="AF24" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="AG24" s="1" t="n">
-        <v>41.9742</v>
-      </c>
-      <c r="AH24" s="1" t="n">
-        <v>-87.8651</v>
+        <v>161</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AU24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AV24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BF24" s="1" t="n">
-        <v>24</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="5" t="n">
-        <v>9996.81458333333</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="X25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y25" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="Z25" s="1" t="s">
-        <v>193</v>
-      </c>
+        <v>9910.92361111111</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>41.891</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>-87.635</v>
+      </c>
+      <c r="AE25" s="0"/>
       <c r="AF25" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AG25" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH25" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AR25" s="6"/>
+        <v>162</v>
+      </c>
       <c r="AT25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU25" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AV25" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BF25" s="1" t="n">
-        <v>25</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="5" t="n">
-        <v>10028.6402777778</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="V26" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="X26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y26" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="Z26" s="1" t="s">
-        <v>227</v>
-      </c>
+        <v>9910.94652777778</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>41.8912</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>-87.63</v>
+      </c>
+      <c r="AE26" s="0"/>
       <c r="AF26" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AG26" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AH26" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AR26" s="6" t="n">
-        <v>10028.6402777778</v>
+        <v>163</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AU26" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AV26" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BF26" s="1" t="n">
-        <v>26</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="5" t="n">
-        <v>10095.4630439815</v>
+        <v>9910.96944444445</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>41.8788764</v>
+        <v>41.8905</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>-87.6384898</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="J27" s="1" t="s">
+        <v>-87.628</v>
+      </c>
+      <c r="AE27" s="0"/>
+      <c r="AF27" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT27" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="5" t="n">
+        <v>9910.99236111111</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>41.889</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>-87.627</v>
+      </c>
+      <c r="AE28" s="0"/>
+      <c r="AF28" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT28" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="5" t="n">
+        <v>9937.97777777778</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="X27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y27" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AG27" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AH27" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AR27" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AT27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU27" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AV27" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BA27" s="1" t="n">
-        <v>43.4453352726708</v>
-      </c>
-      <c r="BB27" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC27" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="BF27" s="1" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B28" s="5" t="n">
-        <v>10365.5</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>41.8758</v>
-      </c>
-      <c r="D28" s="1" t="n">
-        <v>-87.6395</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="X28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF28" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AG28" s="1" t="n">
-        <v>41.8758</v>
-      </c>
-      <c r="AH28" s="1" t="n">
-        <v>-87.6395</v>
-      </c>
-      <c r="AR28" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AT28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AV28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BF28" s="1" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B29" s="5" t="n">
-        <v>10393.5</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>41.8789</v>
-      </c>
-      <c r="D29" s="1" t="n">
-        <v>-87.6359</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="M29" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="V29" s="1" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="X29" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="Y29" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z29" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="AF29" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="AG29" s="1" t="n">
-        <v>41.8789</v>
-      </c>
-      <c r="AH29" s="1" t="n">
-        <v>-87.6359</v>
-      </c>
-      <c r="AR29" s="1" t="s">
-        <v>248</v>
+        <v>174</v>
+      </c>
+      <c r="AG29" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH29" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AR29" s="6" t="n">
+        <v>9937.97777777778</v>
       </c>
       <c r="AT29" s="1" t="s">
-        <v>249</v>
+        <v>82</v>
       </c>
       <c r="AU29" s="1" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="AV29" s="1" t="s">
-        <v>70</v>
+        <v>152</v>
+      </c>
+      <c r="AW29" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX29" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AY29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AZ29" s="1" t="n">
+        <v>55</v>
       </c>
       <c r="BF29" s="1" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="B30" s="5" t="n">
-        <v>10426.5</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>41.8827</v>
-      </c>
-      <c r="D30" s="1" t="n">
-        <v>-87.629</v>
+        <v>9965.55694444445</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>251</v>
+        <v>179</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>252</v>
+        <v>180</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="M30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="V30" s="1" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="X30" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="Y30" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z30" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="AF30" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AG30" s="1" t="n">
-        <v>41.8827</v>
-      </c>
-      <c r="AH30" s="1" t="n">
-        <v>-87.629</v>
-      </c>
-      <c r="AR30" s="1" t="s">
-        <v>254</v>
+        <v>185</v>
+      </c>
+      <c r="AG30" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH30" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AR30" s="6" t="n">
+        <v>9965.55694444445</v>
       </c>
       <c r="AT30" s="1" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="AU30" s="1" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="AV30" s="1" t="s">
-        <v>70</v>
+        <v>152</v>
+      </c>
+      <c r="BA30" s="1" t="n">
+        <v>41.8718348601936</v>
       </c>
       <c r="BF30" s="1" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="B31" s="5" t="n">
-        <v>10513.5</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>41.8858</v>
+        <v>9995.64027777778</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>-87.6278</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>256</v>
+        <v>-87.6229247</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>257</v>
+        <v>188</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="M31" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="V31" s="1" t="s">
-        <v>64</v>
+        <v>146</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="X31" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="Y31" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="AF31" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="AG31" s="1" t="n">
-        <v>41.8858</v>
+        <v>193</v>
+      </c>
+      <c r="AG31" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="AH31" s="1" t="n">
-        <v>-87.6278</v>
-      </c>
-      <c r="AR31" s="1" t="s">
-        <v>259</v>
+        <v>-87.6229247</v>
+      </c>
+      <c r="AR31" s="6" t="n">
+        <v>9995.64027777778</v>
       </c>
       <c r="AT31" s="1" t="s">
-        <v>60</v>
+        <v>194</v>
       </c>
       <c r="AU31" s="1" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="AV31" s="1" t="s">
-        <v>70</v>
+        <v>152</v>
+      </c>
+      <c r="AW31" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AX31" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AY31" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="BF31" s="1" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>10565.5</v>
-      </c>
-      <c r="C32" s="1" t="n">
-        <v>41.9469</v>
-      </c>
-      <c r="D32" s="1" t="n">
-        <v>-87.6553</v>
+        <v>9996.64027777778</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>261</v>
+        <v>201</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>262</v>
+        <v>202</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="M32" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="V32" s="1" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="X32" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="Y32" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z32" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="AF32" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="AG32" s="1" t="n">
-        <v>41.9469</v>
-      </c>
-      <c r="AH32" s="1" t="n">
-        <v>-87.6553</v>
-      </c>
-      <c r="AR32" s="1" t="s">
-        <v>264</v>
+        <v>207</v>
+      </c>
+      <c r="AG32" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH32" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AR32" s="6" t="n">
+        <v>9996.64027777778</v>
       </c>
       <c r="AT32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU32" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV32" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BF32" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="AU32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AV32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BF32" s="1" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="5" t="n">
-        <v>10638.4375</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>266</v>
+        <v>9996.66111111111</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>41.8529</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>-87.6326</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>267</v>
+        <v>209</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>268</v>
+        <v>210</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M33" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="T33" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="U33" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="V33" s="1" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="X33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Y33" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z33" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="AF33" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AG33" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="AH33" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="AR33" s="6" t="n">
-        <v>10638.4375</v>
+        <v>211</v>
+      </c>
+      <c r="AG33" s="1" t="n">
+        <v>41.8529</v>
+      </c>
+      <c r="AH33" s="1" t="n">
+        <v>-87.6326</v>
       </c>
       <c r="AT33" s="1" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="AU33" s="1" t="s">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="AV33" s="1" t="s">
-        <v>276</v>
+        <v>70</v>
       </c>
       <c r="BF33" s="1" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>277</v>
+        <v>212</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>10954.5</v>
+        <v>9996.68194444445</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>41.8906</v>
+        <v>41.8056</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>-87.6233</v>
+        <v>-87.5972</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>278</v>
+        <v>213</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>279</v>
+        <v>214</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>63</v>
@@ -5046,19 +4617,16 @@
         <v>65</v>
       </c>
       <c r="AF34" s="1" t="s">
-        <v>280</v>
+        <v>215</v>
       </c>
       <c r="AG34" s="1" t="n">
-        <v>41.8906</v>
+        <v>41.8056</v>
       </c>
       <c r="AH34" s="1" t="n">
-        <v>-87.6233</v>
-      </c>
-      <c r="AR34" s="1" t="s">
-        <v>281</v>
+        <v>-87.5972</v>
       </c>
       <c r="AT34" s="1" t="s">
-        <v>282</v>
+        <v>93</v>
       </c>
       <c r="AU34" s="1" t="s">
         <v>69</v>
@@ -5067,77 +4635,110 @@
         <v>70</v>
       </c>
       <c r="BF34" s="1" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="5" t="n">
-        <v>11103.5</v>
-      </c>
-      <c r="C35" s="1" t="n">
-        <v>41.4925</v>
-      </c>
-      <c r="D35" s="1" t="n">
-        <v>-99.9018</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>284</v>
+        <v>9996.76597222222</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>63</v>
+        <v>218</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="X35" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="Y35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB35" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC35" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD35" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AE35" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="AF35" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="AG35" s="1" t="n">
-        <v>41.4925</v>
-      </c>
-      <c r="AH35" s="1" t="n">
-        <v>-99.9018</v>
-      </c>
-      <c r="AR35" s="1" t="s">
-        <v>286</v>
+        <v>230</v>
+      </c>
+      <c r="AG35" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH35" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AK35" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="AT35" s="1" t="s">
-        <v>60</v>
+        <v>221</v>
       </c>
       <c r="AU35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AV35" s="1" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="BF35" s="1" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>287</v>
+        <v>232</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>11228.5</v>
+        <v>9996.81458333333</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>25.7617</v>
+        <v>41.9742</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>-80.1918</v>
+        <v>-87.8651</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>288</v>
+        <v>233</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>289</v>
+        <v>232</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>63</v>
@@ -5148,23 +4749,23 @@
       <c r="L36" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="V36" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="X36" s="1" t="s">
         <v>65</v>
       </c>
       <c r="AF36" s="1" t="s">
-        <v>290</v>
+        <v>234</v>
       </c>
       <c r="AG36" s="1" t="n">
-        <v>25.7617</v>
+        <v>41.9742</v>
       </c>
       <c r="AH36" s="1" t="n">
-        <v>-80.1918</v>
-      </c>
-      <c r="AR36" s="1" t="s">
-        <v>291</v>
+        <v>-87.8651</v>
       </c>
       <c r="AT36" s="1" t="s">
-        <v>68</v>
+        <v>194</v>
       </c>
       <c r="AU36" s="1" t="s">
         <v>69</v>
@@ -5173,902 +4774,1095 @@
         <v>70</v>
       </c>
       <c r="BF36" s="1" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="5" t="n">
-        <v>11395.1702083333</v>
+        <v>9996.81458333333</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>292</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y37" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z37" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AF37" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AG37" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH37" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AR37" s="6"/>
       <c r="AT37" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
+      </c>
+      <c r="AU37" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV37" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="BF37" s="1" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="5" t="n">
-        <v>11479.5515625</v>
+        <v>10028.6402777778</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>293</v>
+        <v>138</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z38" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF38" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG38" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH38" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR38" s="6" t="n">
+        <v>10028.6402777778</v>
       </c>
       <c r="AT38" s="1" t="s">
-        <v>60</v>
+        <v>154</v>
+      </c>
+      <c r="AU38" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV38" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="BF38" s="1" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="5" t="n">
-        <v>17192.1702083333</v>
+        <v>10095.4630439815</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>41.8788764</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>-87.6384898</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>294</v>
+        <v>242</v>
       </c>
       <c r="I39" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>59</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="X39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y39" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG39" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH39" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AR39" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="AT39" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="AU39" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV39" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BA39" s="1" t="n">
+        <v>43.4453352726708</v>
+      </c>
+      <c r="BB39" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC39" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="BF39" s="1" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>251</v>
+      </c>
       <c r="B40" s="5" t="n">
-        <v>44392.7235069444</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>296</v>
+        <v>10365.5</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>41.8758</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>-87.6395</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>297</v>
+        <v>253</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="Z40" s="1" t="s">
-        <v>300</v>
+        <v>63</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="AF40" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="AG40" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="AH40" s="1" t="s">
-        <v>296</v>
+        <v>254</v>
+      </c>
+      <c r="AG40" s="1" t="n">
+        <v>41.8758</v>
+      </c>
+      <c r="AH40" s="1" t="n">
+        <v>-87.6395</v>
       </c>
       <c r="AR40" s="1" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="AT40" s="1" t="s">
         <v>60</v>
       </c>
       <c r="AU40" s="1" t="s">
-        <v>151</v>
+        <v>69</v>
+      </c>
+      <c r="AV40" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="BF40" s="1" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="B41" s="5" t="n">
-        <v>44461.5435763889</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>304</v>
+        <v>10393.5</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>41.8789</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>-87.6359</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>205</v>
+        <v>63</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="T41" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="U41" s="1" t="s">
-        <v>144</v>
+        <v>63</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="W41" s="1" t="s">
-        <v>306</v>
+        <v>64</v>
       </c>
       <c r="X41" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Y41" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="Z41" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="AB41" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="AE41" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="AF41" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="AG41" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="AH41" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AK41" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AM41" s="1" t="s">
-        <v>312</v>
+        <v>259</v>
+      </c>
+      <c r="AG41" s="1" t="n">
+        <v>41.8789</v>
+      </c>
+      <c r="AH41" s="1" t="n">
+        <v>-87.6359</v>
       </c>
       <c r="AR41" s="1" t="s">
-        <v>312</v>
+        <v>260</v>
       </c>
       <c r="AT41" s="1" t="s">
-        <v>93</v>
+        <v>261</v>
       </c>
       <c r="AU41" s="1" t="s">
-        <v>151</v>
+        <v>69</v>
+      </c>
+      <c r="AV41" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="BF41" s="1" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="B42" s="5" t="n">
-        <v>44928.7375</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>314</v>
+        <v>10426.5</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>41.8827</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>-87.629</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>315</v>
+        <v>63</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q42" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="U42" s="1" t="s">
-        <v>319</v>
+        <v>63</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>320</v>
+        <v>64</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="Y42" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="AE42" s="1" t="s">
-        <v>323</v>
+        <v>65</v>
       </c>
       <c r="AF42" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="AG42" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="AH42" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="AK42" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="AQ42" s="1" t="n">
-        <v>230</v>
+        <v>265</v>
+      </c>
+      <c r="AG42" s="1" t="n">
+        <v>41.8827</v>
+      </c>
+      <c r="AH42" s="1" t="n">
+        <v>-87.629</v>
       </c>
       <c r="AR42" s="1" t="s">
-        <v>325</v>
+        <v>266</v>
       </c>
       <c r="AT42" s="1" t="s">
-        <v>318</v>
+        <v>186</v>
       </c>
       <c r="AU42" s="1" t="s">
-        <v>151</v>
+        <v>69</v>
+      </c>
+      <c r="AV42" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="BF42" s="1" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="B43" s="5" t="n">
-        <v>44946.8034722222</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>327</v>
+        <v>10513.5</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>41.8858</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>-87.6278</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>315</v>
+        <v>63</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="T43" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="U43" s="1" t="s">
-        <v>330</v>
+        <v>63</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>320</v>
+        <v>64</v>
       </c>
       <c r="X43" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="Y43" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="AE43" s="1" t="s">
-        <v>333</v>
+        <v>65</v>
       </c>
       <c r="AF43" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="AG43" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="AH43" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="AQ43" s="1" t="n">
-        <v>257</v>
+        <v>270</v>
+      </c>
+      <c r="AG43" s="1" t="n">
+        <v>41.8858</v>
+      </c>
+      <c r="AH43" s="1" t="n">
+        <v>-87.6278</v>
       </c>
       <c r="AR43" s="1" t="s">
-        <v>335</v>
+        <v>271</v>
       </c>
       <c r="AT43" s="1" t="s">
-        <v>315</v>
+        <v>60</v>
       </c>
       <c r="AU43" s="1" t="s">
-        <v>151</v>
+        <v>69</v>
+      </c>
+      <c r="AV43" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="BF43" s="1" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="B44" s="5" t="n">
-        <v>45189.6434953704</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>337</v>
+        <v>10565.5</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>41.9469</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>-87.6553</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="Z44" s="1" t="s">
-        <v>339</v>
+        <v>63</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="AF44" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="AG44" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="AH44" s="1" t="s">
-        <v>337</v>
+        <v>275</v>
+      </c>
+      <c r="AG44" s="1" t="n">
+        <v>41.9469</v>
+      </c>
+      <c r="AH44" s="1" t="n">
+        <v>-87.6553</v>
       </c>
       <c r="AR44" s="1" t="s">
-        <v>341</v>
+        <v>276</v>
       </c>
       <c r="AT44" s="1" t="s">
-        <v>59</v>
+        <v>221</v>
       </c>
       <c r="AU44" s="1" t="s">
-        <v>151</v>
+        <v>69</v>
+      </c>
+      <c r="AV44" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="BF44" s="1" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="5" t="n">
-        <v>45284.4335648148</v>
+        <v>10638.4375</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>342</v>
+        <v>279</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>343</v>
+        <v>280</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>344</v>
+        <v>59</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="L45" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="M45" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="P45" s="1" t="s">
-        <v>345</v>
+      <c r="Q45" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>346</v>
+        <v>284</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V45" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="W45" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="X45" s="1" t="s">
         <v>65</v>
       </c>
       <c r="Y45" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="AR45" s="1" t="s">
-        <v>349</v>
+        <v>285</v>
+      </c>
+      <c r="Z45" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AF45" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AG45" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AH45" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AR45" s="6" t="n">
+        <v>10638.4375</v>
       </c>
       <c r="AT45" s="1" t="s">
-        <v>344</v>
+        <v>82</v>
       </c>
       <c r="AU45" s="1" t="s">
         <v>151</v>
       </c>
+      <c r="AV45" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="BF45" s="1" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="B46" s="5" t="n">
-        <v>45286.4593865741</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>304</v>
+        <v>10954.5</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>41.8906</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>-87.6233</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M46" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="T46" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="U46" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="V46" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z46" s="1" t="s">
-        <v>351</v>
+        <v>64</v>
+      </c>
+      <c r="X46" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="AF46" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="AG46" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="AH46" s="1" t="s">
-        <v>304</v>
+        <v>292</v>
+      </c>
+      <c r="AG46" s="1" t="n">
+        <v>41.8906</v>
+      </c>
+      <c r="AH46" s="1" t="n">
+        <v>-87.6233</v>
       </c>
       <c r="AR46" s="1" t="s">
-        <v>353</v>
+        <v>293</v>
       </c>
       <c r="AT46" s="1" t="s">
-        <v>59</v>
+        <v>294</v>
       </c>
       <c r="AU46" s="1" t="s">
-        <v>151</v>
+        <v>69</v>
+      </c>
+      <c r="AV46" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="BF46" s="1" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="5" t="n">
-        <v>45287.7076388889</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>355</v>
+        <v>11103.5</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>41.4925</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>-99.9018</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>315</v>
+        <v>63</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q47" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="T47" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="U47" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="V47" s="1" t="s">
-        <v>360</v>
+        <v>63</v>
       </c>
       <c r="X47" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y47" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="AE47" s="1" t="s">
-        <v>363</v>
+        <v>65</v>
       </c>
       <c r="AF47" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="AG47" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="AH47" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="AK47" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AQ47" s="1" t="n">
-        <v>17</v>
+        <v>297</v>
+      </c>
+      <c r="AG47" s="1" t="n">
+        <v>41.4925</v>
+      </c>
+      <c r="AH47" s="1" t="n">
+        <v>-99.9018</v>
       </c>
       <c r="AR47" s="1" t="s">
-        <v>365</v>
+        <v>298</v>
       </c>
       <c r="AT47" s="1" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="AU47" s="1" t="s">
-        <v>151</v>
+        <v>69</v>
+      </c>
+      <c r="AV47" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="BF47" s="1" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>299</v>
+      </c>
       <c r="B48" s="5" t="n">
-        <v>45287.7159722222</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>367</v>
+        <v>11228.5</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>25.7617</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>-80.1918</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>315</v>
+        <v>63</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q48" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="U48" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="V48" s="1" t="s">
-        <v>370</v>
+        <v>63</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="X48" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="Y48" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="AE48" s="1" t="s">
-        <v>373</v>
+        <v>65</v>
       </c>
       <c r="AF48" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="AG48" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="AH48" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="AK48" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="AQ48" s="1" t="n">
-        <v>18</v>
+        <v>302</v>
+      </c>
+      <c r="AG48" s="1" t="n">
+        <v>25.7617</v>
+      </c>
+      <c r="AH48" s="1" t="n">
+        <v>-80.1918</v>
       </c>
       <c r="AR48" s="1" t="s">
-        <v>375</v>
+        <v>303</v>
       </c>
       <c r="AT48" s="1" t="s">
-        <v>218</v>
+        <v>68</v>
       </c>
       <c r="AU48" s="1" t="s">
-        <v>151</v>
+        <v>69</v>
+      </c>
+      <c r="AV48" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="BF48" s="1" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="5" t="n">
-        <v>45298.5689814815</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>377</v>
+        <v>11395.1702083333</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="AC49" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="AF49" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="AG49" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="AH49" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="AR49" s="1" t="s">
-        <v>383</v>
+        <v>304</v>
       </c>
       <c r="AT49" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AU49" s="1" t="s">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="BF49" s="1" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="5" t="n">
-        <v>45300.5689814815</v>
-      </c>
-      <c r="C50" s="7" t="n">
-        <v>41.920103</v>
-      </c>
-      <c r="D50" s="7" t="n">
-        <v>-87.673827</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AF50" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="AK50" s="1" t="s">
-        <v>119</v>
+        <v>11479.5515625</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="AT50" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AU50" s="1" t="s">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="BF50" s="1" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="5" t="n">
-        <v>45300.5710648148</v>
-      </c>
-      <c r="C51" s="7" t="n">
-        <v>41.954183</v>
-      </c>
-      <c r="D51" s="7" t="n">
-        <v>-87.731145</v>
+        <v>17192.1702083333</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>306</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AF51" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="AK51" s="1" t="s">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="AT51" s="1" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="BF51" s="1" t="n">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="5" t="n">
-        <v>45300.5780092593</v>
-      </c>
-      <c r="C52" s="7" t="n">
-        <v>41.951087</v>
-      </c>
-      <c r="D52" s="7" t="n">
-        <v>-87.74732</v>
+        <v>44392.7235069444</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AF52" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="AK52" s="1" t="s">
-        <v>218</v>
+        <v>60</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z52" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AF52" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AG52" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="AH52" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="AR52" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="AT52" s="1" t="s">
-        <v>218</v>
+        <v>60</v>
+      </c>
+      <c r="AU52" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="BF52" s="1" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="5" t="n">
-        <v>45300.5918981482</v>
-      </c>
-      <c r="C53" s="1" t="n">
-        <v>41.9497736</v>
-      </c>
-      <c r="D53" s="1" t="n">
-        <v>-87.7534868</v>
+        <v>44461.5435763889</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="I53" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J53" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="M53" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="T53" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="W53" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="X53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y53" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z53" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB53" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AE53" s="1" t="s">
+        <v>322</v>
+      </c>
       <c r="AF53" s="1" t="s">
-        <v>387</v>
+        <v>323</v>
+      </c>
+      <c r="AG53" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AH53" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="AK53" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="AM53" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AR53" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="AT53" s="1" t="s">
-        <v>108</v>
+        <v>93</v>
+      </c>
+      <c r="AU53" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="BF53" s="1" t="n">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="5" t="n">
-        <v>45310.59375</v>
+        <v>44928.7375</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>388</v>
+        <v>325</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>389</v>
+        <v>326</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>59</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>390</v>
+        <v>329</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>330</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>391</v>
+        <v>331</v>
       </c>
       <c r="V54" s="1" t="s">
-        <v>392</v>
+        <v>332</v>
       </c>
       <c r="X54" s="1" t="s">
-        <v>393</v>
+        <v>333</v>
       </c>
       <c r="Y54" s="1" t="s">
-        <v>394</v>
+        <v>334</v>
       </c>
       <c r="AE54" s="1" t="s">
-        <v>395</v>
+        <v>335</v>
       </c>
       <c r="AF54" s="1" t="s">
-        <v>396</v>
+        <v>336</v>
       </c>
       <c r="AG54" s="1" t="s">
-        <v>388</v>
+        <v>325</v>
       </c>
       <c r="AH54" s="1" t="s">
-        <v>389</v>
+        <v>326</v>
       </c>
       <c r="AK54" s="1" t="s">
-        <v>119</v>
+        <v>330</v>
       </c>
       <c r="AQ54" s="1" t="n">
-        <v>109</v>
+        <v>230</v>
       </c>
       <c r="AR54" s="1" t="s">
-        <v>397</v>
+        <v>337</v>
       </c>
       <c r="AT54" s="1" t="s">
-        <v>119</v>
+        <v>330</v>
       </c>
       <c r="AU54" s="1" t="s">
         <v>151</v>
       </c>
       <c r="BF54" s="1" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="5" t="n">
-        <v>45310.6076388889</v>
+        <v>44946.8034722222</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>398</v>
+        <v>338</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>399</v>
+        <v>339</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>82</v>
+        <v>327</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>59</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>139</v>
+        <v>328</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="Z55" s="1" t="s">
-        <v>401</v>
+        <v>340</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="T55" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="U55" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="V55" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="X55" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y55" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE55" s="1" t="s">
+        <v>345</v>
       </c>
       <c r="AF55" s="1" t="s">
-        <v>402</v>
+        <v>346</v>
       </c>
       <c r="AG55" s="1" t="s">
-        <v>398</v>
+        <v>338</v>
       </c>
       <c r="AH55" s="1" t="s">
-        <v>399</v>
+        <v>339</v>
+      </c>
+      <c r="AQ55" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="AR55" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="AT55" s="1" t="s">
-        <v>82</v>
+        <v>327</v>
       </c>
       <c r="AU55" s="1" t="s">
         <v>151</v>
       </c>
       <c r="BF55" s="1" t="n">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="5" t="n">
-        <v>45310.6472222222</v>
+        <v>45189.6434953704</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>403</v>
+        <v>349</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>315</v>
+        <v>59</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>59</v>
@@ -6077,54 +5871,45 @@
         <v>139</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>404</v>
+        <v>350</v>
       </c>
       <c r="Z56" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="AB56" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE56" s="1" t="s">
-        <v>406</v>
+        <v>351</v>
       </c>
       <c r="AF56" s="1" t="s">
-        <v>407</v>
+        <v>352</v>
       </c>
       <c r="AG56" s="1" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
       <c r="AH56" s="1" t="s">
-        <v>403</v>
+        <v>349</v>
+      </c>
+      <c r="AR56" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="AT56" s="1" t="s">
-        <v>315</v>
+        <v>59</v>
       </c>
       <c r="AU56" s="1" t="s">
         <v>151</v>
       </c>
       <c r="BF56" s="1" t="n">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="5" t="n">
-        <v>45316.9041666667</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>409</v>
+        <v>45284.4335648148</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>410</v>
+        <v>354</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>411</v>
+        <v>355</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>59</v>
@@ -6133,186 +5918,255 @@
         <v>139</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q57" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="Z57" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="AF57" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="AG57" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="AH57" s="1" t="s">
-        <v>409</v>
+        <v>357</v>
+      </c>
+      <c r="T57" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="U57" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V57" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="W57" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="X57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y57" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AR57" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="AT57" s="1" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="AU57" s="1" t="s">
         <v>151</v>
       </c>
       <c r="BF57" s="1" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="5" t="n">
+        <v>45286.4593865741</v>
+      </c>
       <c r="C58" s="1" t="s">
-        <v>416</v>
+        <v>362</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>417</v>
+        <v>316</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>59</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>418</v>
+        <v>74</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>139</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q58" s="1" t="s">
-        <v>380</v>
+        <v>350</v>
+      </c>
+      <c r="T58" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="U58" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V58" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="Z58" s="1" t="s">
-        <v>420</v>
+        <v>363</v>
       </c>
       <c r="AF58" s="1" t="s">
-        <v>421</v>
+        <v>364</v>
       </c>
       <c r="AG58" s="1" t="s">
-        <v>416</v>
+        <v>362</v>
       </c>
       <c r="AH58" s="1" t="s">
-        <v>417</v>
+        <v>316</v>
+      </c>
+      <c r="AR58" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="AT58" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AU58" s="1" t="s">
         <v>151</v>
       </c>
       <c r="BF58" s="1" t="n">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E59" s="1" t="s">
-        <v>422</v>
+      <c r="B59" s="5" t="n">
+        <v>45287.7076388889</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>367</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>82</v>
+        <v>327</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L59" s="1" t="s">
-        <v>423</v>
-      </c>
       <c r="M59" s="1" t="s">
-        <v>139</v>
+        <v>328</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>424</v>
+        <v>368</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="T59" s="1" t="s">
+        <v>369</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>144</v>
+        <v>371</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="W59" s="1" t="s">
-        <v>306</v>
+        <v>372</v>
       </c>
       <c r="X59" s="1" t="s">
-        <v>65</v>
+        <v>373</v>
+      </c>
+      <c r="Y59" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AE59" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AF59" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AG59" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AH59" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AK59" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ59" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR59" s="1" t="s">
+        <v>377</v>
       </c>
       <c r="AT59" s="1" t="s">
-        <v>282</v>
+        <v>108</v>
       </c>
       <c r="AU59" s="1" t="s">
         <v>151</v>
       </c>
       <c r="BF59" s="1" t="n">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="5" t="n">
+        <v>45287.7159722222</v>
+      </c>
       <c r="C60" s="1" t="s">
-        <v>425</v>
+        <v>378</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>427</v>
+        <v>379</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>59</v>
+        <v>327</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="M60" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="P60" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="T60" s="1" t="s">
-        <v>177</v>
+        <v>380</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>144</v>
+        <v>381</v>
       </c>
       <c r="V60" s="1" t="s">
-        <v>146</v>
+        <v>382</v>
+      </c>
+      <c r="X60" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="Y60" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="Z60" s="1" t="s">
-        <v>430</v>
+        <v>384</v>
+      </c>
+      <c r="AE60" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="AF60" s="1" t="s">
-        <v>431</v>
+        <v>386</v>
       </c>
       <c r="AG60" s="1" t="s">
-        <v>425</v>
+        <v>378</v>
       </c>
       <c r="AH60" s="1" t="s">
-        <v>426</v>
+        <v>379</v>
+      </c>
+      <c r="AK60" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AQ60" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR60" s="1" t="s">
+        <v>387</v>
       </c>
       <c r="AT60" s="1" t="s">
-        <v>432</v>
+        <v>231</v>
       </c>
       <c r="AU60" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AZ60" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="BA60" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="BB60" s="1" t="n">
-        <v>30</v>
-      </c>
       <c r="BF60" s="1" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="5" t="n">
+        <v>45298.5689814815</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>390</v>
+      </c>
       <c r="I61" s="1" t="s">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>59</v>
@@ -6321,484 +6175,1759 @@
         <v>139</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="U61" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="X61" s="1" t="s">
-        <v>65</v>
+        <v>391</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="AC61" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AF61" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AG61" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="AH61" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AR61" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="AT61" s="1" t="s">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c r="AU61" s="1" t="s">
         <v>151</v>
       </c>
       <c r="BF61" s="1" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>436</v>
+      <c r="B62" s="5" t="n">
+        <v>45300.5689814815</v>
+      </c>
+      <c r="C62" s="7" t="n">
+        <v>41.920103</v>
+      </c>
+      <c r="D62" s="7" t="n">
+        <v>-87.673827</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="P62" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q62" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="Z62" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="AF62" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="AG62" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="AH62" s="1" t="s">
-        <v>435</v>
+        <v>218</v>
+      </c>
+      <c r="AF62" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="AK62" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="AT62" s="1" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="AU62" s="1" t="s">
         <v>151</v>
       </c>
       <c r="BF62" s="1" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>443</v>
+      <c r="B63" s="5" t="n">
+        <v>45300.5710648148</v>
+      </c>
+      <c r="C63" s="7" t="n">
+        <v>41.954183</v>
+      </c>
+      <c r="D63" s="7" t="n">
+        <v>-87.731145</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q63" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="T63" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="U63" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="V63" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="W63" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="X63" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y63" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="Z63" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="AF63" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="AG63" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="AH63" s="1" t="s">
-        <v>442</v>
+        <v>218</v>
+      </c>
+      <c r="AF63" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="AK63" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="AT63" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU63" s="1" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="BF63" s="1" t="n">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>451</v>
+      <c r="B64" s="5" t="n">
+        <v>45300.5780092593</v>
+      </c>
+      <c r="C64" s="7" t="n">
+        <v>41.951087</v>
+      </c>
+      <c r="D64" s="7" t="n">
+        <v>-87.74732</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="P64" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="S64" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="T64" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="U64" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="V64" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="W64" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="X64" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y64" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="AF64" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="AG64" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="AH64" s="1" t="s">
-        <v>451</v>
+        <v>218</v>
+      </c>
+      <c r="AF64" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="AK64" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="AT64" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AU64" s="1" t="s">
-        <v>151</v>
+        <v>231</v>
       </c>
       <c r="BF64" s="1" t="n">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>458</v>
+      <c r="B65" s="5" t="n">
+        <v>45300.5918981482</v>
+      </c>
+      <c r="C65" s="1" t="n">
+        <v>41.9497736</v>
+      </c>
+      <c r="D65" s="1" t="n">
+        <v>-87.7534868</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J65" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="P65" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="R65" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="S65" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="T65" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="U65" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="V65" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="W65" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="X65" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y65" s="1" t="s">
-        <v>464</v>
-      </c>
       <c r="AF65" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="AG65" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="AH65" s="1" t="s">
-        <v>458</v>
+        <v>399</v>
+      </c>
+      <c r="AK65" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="AT65" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU65" s="1" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="BF65" s="1" t="n">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="5" t="n">
+        <v>45310.59375</v>
+      </c>
       <c r="C66" s="1" t="s">
-        <v>466</v>
+        <v>400</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>469</v>
+        <v>401</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>470</v>
+        <v>327</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L66" s="1" t="s">
-        <v>423</v>
-      </c>
       <c r="M66" s="1" t="s">
-        <v>139</v>
+        <v>328</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="Q66" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="Z66" s="1" t="s">
-        <v>472</v>
+        <v>402</v>
+      </c>
+      <c r="U66" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="V66" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="X66" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y66" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE66" s="1" t="s">
+        <v>407</v>
       </c>
       <c r="AF66" s="1" t="s">
-        <v>473</v>
+        <v>408</v>
       </c>
       <c r="AG66" s="1" t="s">
-        <v>466</v>
+        <v>400</v>
       </c>
       <c r="AH66" s="1" t="s">
-        <v>467</v>
+        <v>401</v>
+      </c>
+      <c r="AK66" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ66" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="AR66" s="1" t="s">
+        <v>409</v>
       </c>
       <c r="AT66" s="1" t="s">
-        <v>249</v>
+        <v>119</v>
       </c>
       <c r="AU66" s="1" t="s">
         <v>151</v>
       </c>
       <c r="BF66" s="1" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="5" t="n">
+        <v>45310.6076388889</v>
+      </c>
       <c r="C67" s="1" t="s">
-        <v>474</v>
+        <v>410</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>476</v>
+        <v>411</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>476</v>
+        <v>82</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>476</v>
+        <v>59</v>
       </c>
       <c r="M67" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="N67" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="O67" s="1" t="s">
-        <v>476</v>
-      </c>
       <c r="P67" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q67" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="S67" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="T67" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="U67" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="V67" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="W67" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="X67" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="Y67" s="1" t="s">
-        <v>480</v>
+        <v>412</v>
       </c>
       <c r="Z67" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="AA67" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="AB67" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC67" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="AD67" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="AE67" s="1" t="s">
-        <v>476</v>
+        <v>413</v>
       </c>
       <c r="AF67" s="1" t="s">
-        <v>481</v>
+        <v>414</v>
       </c>
       <c r="AG67" s="1" t="s">
-        <v>474</v>
+        <v>410</v>
       </c>
       <c r="AH67" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="AI67" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="AJ67" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="AK67" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="AL67" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="AM67" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="AN67" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="AO67" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="AP67" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="AQ67" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="AR67" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="AS67" s="1" t="s">
-        <v>476</v>
+        <v>411</v>
       </c>
       <c r="AT67" s="1" t="s">
-        <v>482</v>
+        <v>82</v>
       </c>
       <c r="AU67" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AV67" s="1" t="s">
+      <c r="BF67" s="1" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1"/>
+      <c r="B68" s="5" t="n">
+        <v>45310.6472222222</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="0"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="AA68" s="1"/>
+      <c r="AB68" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC68" s="1"/>
+      <c r="AD68" s="1"/>
+      <c r="AE68" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="AF68" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AG68" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="AH68" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="AI68" s="1"/>
+      <c r="AJ68" s="1"/>
+      <c r="AK68" s="1"/>
+      <c r="AL68" s="1"/>
+      <c r="AM68" s="1"/>
+      <c r="AN68" s="1"/>
+      <c r="AO68" s="1"/>
+      <c r="AP68" s="1"/>
+      <c r="AQ68" s="1"/>
+      <c r="AR68" s="1"/>
+      <c r="AS68" s="1"/>
+      <c r="AT68" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AU68" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV68" s="1"/>
+      <c r="AW68" s="1"/>
+      <c r="AX68" s="1"/>
+      <c r="AY68" s="1"/>
+      <c r="AZ68" s="1"/>
+      <c r="BA68" s="1"/>
+      <c r="BB68" s="1"/>
+      <c r="BC68" s="1"/>
+      <c r="BD68" s="1"/>
+      <c r="BE68" s="1"/>
+      <c r="BF68" s="1" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1"/>
+      <c r="B69" s="5" t="n">
+        <v>45316.9041666667</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="0"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="1"/>
+      <c r="AC69" s="1"/>
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="1"/>
+      <c r="AF69" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="AG69" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="AH69" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="AI69" s="1"/>
+      <c r="AJ69" s="1"/>
+      <c r="AK69" s="1"/>
+      <c r="AL69" s="1"/>
+      <c r="AM69" s="1"/>
+      <c r="AN69" s="1"/>
+      <c r="AO69" s="1"/>
+      <c r="AP69" s="1"/>
+      <c r="AQ69" s="1"/>
+      <c r="AR69" s="1"/>
+      <c r="AS69" s="1"/>
+      <c r="AT69" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="AU69" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV69" s="1"/>
+      <c r="AW69" s="1"/>
+      <c r="AX69" s="1"/>
+      <c r="AY69" s="1"/>
+      <c r="AZ69" s="1"/>
+      <c r="BA69" s="1"/>
+      <c r="BB69" s="1"/>
+      <c r="BC69" s="1"/>
+      <c r="BD69" s="1"/>
+      <c r="BE69" s="1"/>
+      <c r="BF69" s="1" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1"/>
+      <c r="B70" s="5" t="n">
+        <v>45706.0152777778</v>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>41.887</v>
+      </c>
+      <c r="D70" s="1" t="n">
+        <v>-87.6265</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="0"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1"/>
+      <c r="AA70" s="1"/>
+      <c r="AB70" s="1"/>
+      <c r="AC70" s="1"/>
+      <c r="AD70" s="1"/>
+      <c r="AE70" s="0"/>
+      <c r="AF70" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="AG70" s="1"/>
+      <c r="AH70" s="1"/>
+      <c r="AI70" s="1"/>
+      <c r="AJ70" s="1"/>
+      <c r="AK70" s="1"/>
+      <c r="AL70" s="1"/>
+      <c r="AM70" s="1"/>
+      <c r="AN70" s="1"/>
+      <c r="AO70" s="1"/>
+      <c r="AP70" s="1"/>
+      <c r="AQ70" s="1"/>
+      <c r="AR70" s="1"/>
+      <c r="AS70" s="1"/>
+      <c r="AT70" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU70" s="1"/>
+      <c r="AV70" s="1"/>
+      <c r="AW70" s="1"/>
+      <c r="AX70" s="1"/>
+      <c r="AY70" s="1"/>
+      <c r="AZ70" s="1"/>
+      <c r="BA70" s="1"/>
+      <c r="BB70" s="1"/>
+      <c r="BC70" s="1"/>
+      <c r="BD70" s="1"/>
+      <c r="BE70" s="1"/>
+      <c r="BF70" s="1"/>
+    </row>
+    <row r="71" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1"/>
+      <c r="B71" s="5" t="n">
+        <v>45706.0381944444</v>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>41.885</v>
+      </c>
+      <c r="D71" s="1" t="n">
+        <v>-87.627</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="0"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="1"/>
+      <c r="AB71" s="1"/>
+      <c r="AC71" s="1"/>
+      <c r="AD71" s="1"/>
+      <c r="AE71" s="0"/>
+      <c r="AF71" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="AG71" s="1"/>
+      <c r="AH71" s="1"/>
+      <c r="AI71" s="1"/>
+      <c r="AJ71" s="1"/>
+      <c r="AK71" s="1"/>
+      <c r="AL71" s="1"/>
+      <c r="AM71" s="1"/>
+      <c r="AN71" s="1"/>
+      <c r="AO71" s="1"/>
+      <c r="AP71" s="1"/>
+      <c r="AQ71" s="1"/>
+      <c r="AR71" s="1"/>
+      <c r="AS71" s="1"/>
+      <c r="AT71" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU71" s="1"/>
+      <c r="AV71" s="1"/>
+      <c r="AW71" s="1"/>
+      <c r="AX71" s="1"/>
+      <c r="AY71" s="1"/>
+      <c r="AZ71" s="1"/>
+      <c r="BA71" s="1"/>
+      <c r="BB71" s="1"/>
+      <c r="BC71" s="1"/>
+      <c r="BD71" s="1"/>
+      <c r="BE71" s="1"/>
+      <c r="BF71" s="1"/>
+    </row>
+    <row r="72" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1"/>
+      <c r="B72" s="5" t="n">
+        <v>45706.0611111111</v>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>41.884</v>
+      </c>
+      <c r="D72" s="1" t="n">
+        <v>-87.6285</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="0"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="1"/>
+      <c r="AA72" s="1"/>
+      <c r="AB72" s="1"/>
+      <c r="AC72" s="1"/>
+      <c r="AD72" s="1"/>
+      <c r="AE72" s="0"/>
+      <c r="AF72" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="AG72" s="1"/>
+      <c r="AH72" s="1"/>
+      <c r="AI72" s="1"/>
+      <c r="AJ72" s="1"/>
+      <c r="AK72" s="1"/>
+      <c r="AL72" s="1"/>
+      <c r="AM72" s="1"/>
+      <c r="AN72" s="1"/>
+      <c r="AO72" s="1"/>
+      <c r="AP72" s="1"/>
+      <c r="AQ72" s="1"/>
+      <c r="AR72" s="1"/>
+      <c r="AS72" s="1"/>
+      <c r="AT72" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU72" s="1"/>
+      <c r="AV72" s="1"/>
+      <c r="AW72" s="1"/>
+      <c r="AX72" s="1"/>
+      <c r="AY72" s="1"/>
+      <c r="AZ72" s="1"/>
+      <c r="BA72" s="1"/>
+      <c r="BB72" s="1"/>
+      <c r="BC72" s="1"/>
+      <c r="BD72" s="1"/>
+      <c r="BE72" s="1"/>
+      <c r="BF72" s="1"/>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="5" t="n">
+        <v>45706.0840277778</v>
+      </c>
+      <c r="C73" s="1" t="n">
+        <v>41.8835</v>
+      </c>
+      <c r="D73" s="1" t="n">
+        <v>-87.6305</v>
+      </c>
+      <c r="AE73" s="0"/>
+      <c r="AF73" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="AT73" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="5" t="n">
+        <v>45706.1069444444</v>
+      </c>
+      <c r="C74" s="1" t="n">
+        <v>41.8845</v>
+      </c>
+      <c r="D74" s="1" t="n">
+        <v>-87.632</v>
+      </c>
+      <c r="AE74" s="0"/>
+      <c r="AF74" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="AT74" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8" t="n">
+        <v>8</v>
+      </c>
+      <c r="G75" s="8" t="n">
+        <v>2447</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="J75" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="8"/>
+      <c r="P75" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q75" s="8"/>
+      <c r="R75" s="8"/>
+      <c r="S75" s="8"/>
+      <c r="T75" s="8"/>
+      <c r="U75" s="8"/>
+      <c r="V75" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W75" s="8"/>
+      <c r="X75" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y75" s="8"/>
+      <c r="Z75" s="8"/>
+      <c r="AA75" s="8" t="n">
+        <v>-95</v>
+      </c>
+      <c r="AB75" s="8"/>
+      <c r="AC75" s="8"/>
+      <c r="AD75" s="8"/>
+      <c r="AE75" s="8"/>
+      <c r="AF75" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="AG75" s="8"/>
+      <c r="AH75" s="8"/>
+      <c r="AI75" s="8"/>
+      <c r="AJ75" s="8"/>
+      <c r="AK75" s="8"/>
+      <c r="AL75" s="8"/>
+      <c r="AM75" s="8"/>
+      <c r="AN75" s="8"/>
+      <c r="AO75" s="8"/>
+      <c r="AP75" s="8"/>
+      <c r="AQ75" s="8"/>
+      <c r="AR75" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="AS75" s="8"/>
+      <c r="AT75" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="AU75" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="AV75" s="8"/>
+      <c r="AW75" s="8"/>
+      <c r="AX75" s="8"/>
+      <c r="AY75" s="8"/>
+      <c r="AZ75" s="8"/>
+      <c r="BA75" s="8"/>
+      <c r="BB75" s="8"/>
+      <c r="BC75" s="8"/>
+      <c r="BD75" s="8"/>
+      <c r="BE75" s="8"/>
+      <c r="BF75" s="8"/>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8" t="n">
+        <v>1084</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="J76" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q76" s="8"/>
+      <c r="R76" s="8"/>
+      <c r="S76" s="8"/>
+      <c r="T76" s="8"/>
+      <c r="U76" s="8"/>
+      <c r="V76" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W76" s="8"/>
+      <c r="X76" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y76" s="8"/>
+      <c r="Z76" s="8"/>
+      <c r="AA76" s="8" t="n">
+        <v>-94</v>
+      </c>
+      <c r="AB76" s="8"/>
+      <c r="AC76" s="8"/>
+      <c r="AD76" s="8"/>
+      <c r="AE76" s="8"/>
+      <c r="AF76" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="AG76" s="8"/>
+      <c r="AH76" s="8"/>
+      <c r="AI76" s="8"/>
+      <c r="AJ76" s="8"/>
+      <c r="AK76" s="8"/>
+      <c r="AL76" s="8"/>
+      <c r="AM76" s="8"/>
+      <c r="AN76" s="8"/>
+      <c r="AO76" s="8"/>
+      <c r="AP76" s="8"/>
+      <c r="AQ76" s="8"/>
+      <c r="AR76" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="AS76" s="8"/>
+      <c r="AT76" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="AU76" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="AV76" s="8"/>
+      <c r="AW76" s="8"/>
+      <c r="AX76" s="8"/>
+      <c r="AY76" s="8"/>
+      <c r="AZ76" s="8"/>
+      <c r="BA76" s="8"/>
+      <c r="BB76" s="8"/>
+      <c r="BC76" s="8"/>
+      <c r="BD76" s="8"/>
+      <c r="BE76" s="8"/>
+      <c r="BF76" s="8"/>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8" t="n">
+        <v>66536</v>
+      </c>
+      <c r="G77" s="8" t="n">
+        <v>66536</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="J77" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q77" s="8"/>
+      <c r="R77" s="8"/>
+      <c r="S77" s="8"/>
+      <c r="T77" s="8"/>
+      <c r="U77" s="8"/>
+      <c r="V77" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W77" s="8"/>
+      <c r="X77" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y77" s="8"/>
+      <c r="Z77" s="8"/>
+      <c r="AA77" s="8" t="n">
+        <v>-113</v>
+      </c>
+      <c r="AB77" s="8"/>
+      <c r="AC77" s="8"/>
+      <c r="AD77" s="8"/>
+      <c r="AE77" s="8"/>
+      <c r="AF77" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="AG77" s="8"/>
+      <c r="AH77" s="8"/>
+      <c r="AI77" s="8"/>
+      <c r="AJ77" s="8"/>
+      <c r="AK77" s="8"/>
+      <c r="AL77" s="8"/>
+      <c r="AM77" s="8"/>
+      <c r="AN77" s="8"/>
+      <c r="AO77" s="8"/>
+      <c r="AP77" s="8"/>
+      <c r="AQ77" s="8"/>
+      <c r="AR77" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="AS77" s="8"/>
+      <c r="AT77" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="AU77" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="AV77" s="8"/>
+      <c r="AW77" s="8"/>
+      <c r="AX77" s="8"/>
+      <c r="AY77" s="8"/>
+      <c r="AZ77" s="8"/>
+      <c r="BA77" s="8"/>
+      <c r="BB77" s="8"/>
+      <c r="BC77" s="8"/>
+      <c r="BD77" s="8"/>
+      <c r="BE77" s="8"/>
+      <c r="BF77" s="8"/>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8" t="n">
+        <v>7936</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="J78" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="8"/>
+      <c r="S78" s="8"/>
+      <c r="T78" s="8"/>
+      <c r="U78" s="8"/>
+      <c r="V78" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W78" s="8"/>
+      <c r="X78" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y78" s="8"/>
+      <c r="Z78" s="8"/>
+      <c r="AA78" s="8" t="n">
+        <v>-98</v>
+      </c>
+      <c r="AB78" s="8"/>
+      <c r="AC78" s="8"/>
+      <c r="AD78" s="8"/>
+      <c r="AE78" s="8"/>
+      <c r="AF78" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="AG78" s="8"/>
+      <c r="AH78" s="8"/>
+      <c r="AI78" s="8"/>
+      <c r="AJ78" s="8"/>
+      <c r="AK78" s="8"/>
+      <c r="AL78" s="8"/>
+      <c r="AM78" s="8"/>
+      <c r="AN78" s="8"/>
+      <c r="AO78" s="8"/>
+      <c r="AP78" s="8"/>
+      <c r="AQ78" s="8"/>
+      <c r="AR78" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="AS78" s="8"/>
+      <c r="AT78" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="AU78" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="AV78" s="8"/>
+      <c r="AW78" s="8"/>
+      <c r="AX78" s="8"/>
+      <c r="AY78" s="8"/>
+      <c r="AZ78" s="8"/>
+      <c r="BA78" s="8"/>
+      <c r="BB78" s="8"/>
+      <c r="BC78" s="8"/>
+      <c r="BD78" s="8"/>
+      <c r="BE78" s="8"/>
+      <c r="BF78" s="8"/>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8" t="n">
+        <v>2560</v>
+      </c>
+      <c r="G79" s="8" t="n">
+        <v>2560</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="J79" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="8"/>
+      <c r="P79" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q79" s="8"/>
+      <c r="R79" s="8"/>
+      <c r="S79" s="8"/>
+      <c r="T79" s="8"/>
+      <c r="U79" s="8"/>
+      <c r="V79" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W79" s="8"/>
+      <c r="X79" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y79" s="8"/>
+      <c r="Z79" s="8"/>
+      <c r="AA79" s="8" t="n">
+        <v>-113</v>
+      </c>
+      <c r="AB79" s="8"/>
+      <c r="AC79" s="8"/>
+      <c r="AD79" s="8"/>
+      <c r="AE79" s="8"/>
+      <c r="AF79" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="AG79" s="8"/>
+      <c r="AH79" s="8"/>
+      <c r="AI79" s="8"/>
+      <c r="AJ79" s="8"/>
+      <c r="AK79" s="8"/>
+      <c r="AL79" s="8"/>
+      <c r="AM79" s="8"/>
+      <c r="AN79" s="8"/>
+      <c r="AO79" s="8"/>
+      <c r="AP79" s="8"/>
+      <c r="AQ79" s="8"/>
+      <c r="AR79" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="AS79" s="8"/>
+      <c r="AT79" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="AU79" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="AV79" s="8"/>
+      <c r="AW79" s="8"/>
+      <c r="AX79" s="8"/>
+      <c r="AY79" s="8"/>
+      <c r="AZ79" s="8"/>
+      <c r="BA79" s="8"/>
+      <c r="BB79" s="8"/>
+      <c r="BC79" s="8"/>
+      <c r="BD79" s="8"/>
+      <c r="BE79" s="8"/>
+      <c r="BF79" s="8"/>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C80" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z80" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AF80" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AG80" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="AH80" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="AT80" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU80" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BF80" s="1" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E81" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="U81" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V81" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="W81" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="X81" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT81" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AU81" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BF81" s="1" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C82" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P82" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="AW67" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="AX67" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="BB67" s="1" t="n">
+      <c r="T82" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="U82" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V82" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y82" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z82" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="AF82" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="AG82" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="AH82" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AT82" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="AU82" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AZ82" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="BA82" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="BB82" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="BF82" s="1" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I83" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="U83" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="X83" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT83" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU83" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BF83" s="1" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C84" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="Z84" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="AF84" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="AG84" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="AH84" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="AT84" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU84" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BF84" s="1" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C85" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="T85" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="U85" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V85" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="W85" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="X85" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y85" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="Z85" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="AF85" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="AG85" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="AH85" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="AT85" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU85" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BF85" s="1" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C86" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="S86" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="T86" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U86" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V86" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="W86" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="X86" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y86" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="AF86" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="AG86" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="AH86" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="AT86" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU86" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BF86" s="1" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C87" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="R87" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="S87" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="T87" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="U87" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="V87" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="W87" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="X87" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y87" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="AF87" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="AG87" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="AH87" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="AT87" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU87" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BF87" s="1" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C88" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P88" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="U88" s="1"/>
+      <c r="Z88" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="AF88" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="AG88" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="AH88" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="AT88" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AU88" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BF88" s="1" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C89" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="S89" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="T89" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="U89" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="V89" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="W89" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="X89" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y89" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="Z89" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="AA89" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="AB89" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="AC89" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="AD89" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="AE89" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="AF89" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="AG89" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AH89" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="AI89" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="AJ89" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="AK89" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="AL89" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="AM89" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="AN89" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="AO89" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="AP89" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="AQ89" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="AR89" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="AS89" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="AT89" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="AU89" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV89" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="AW89" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="AX89" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="BB89" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="BC67" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="BF67" s="1" t="n">
+      <c r="BC89" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="BF89" s="1" t="n">
         <v>67</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BF68" s="1" t="n">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BF69" s="1" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BF70" s="1" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BF71" s="1" t="n">
-        <v>71</v>
-      </c>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="5"/>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="5"/>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6835,29 +7964,29 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>483</v>
+        <v>531</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>484</v>
+        <v>532</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>485</v>
+        <v>533</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>229</v>
+        <v>154</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>486</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6865,15 +7994,15 @@
         <v>134</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>487</v>
+        <v>535</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>488</v>
+        <v>536</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>489</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6881,16 +8010,16 @@
         <v>93</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>490</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6906,7 +8035,7 @@
         <v>60</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>491</v>
+        <v>539</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6914,7 +8043,7 @@
         <v>82</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>492</v>
+        <v>540</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6922,48 +8051,48 @@
         <v>59</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>493</v>
+        <v>541</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>494</v>
+        <v>542</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>495</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>496</v>
+        <v>544</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>497</v>
+        <v>545</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>498</v>
+        <v>546</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6971,23 +8100,23 @@
         <v>119</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>499</v>
+        <v>547</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>500</v>
+        <v>548</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>501</v>
+        <v>549</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6995,41 +8124,41 @@
         <v>108</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>502</v>
+        <v>550</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="s">
-        <v>503</v>
+        <v>551</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>504</v>
+        <v>552</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="1" t="s">
-        <v>505</v>
+        <v>553</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>505</v>
+        <v>553</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>506</v>
+        <v>554</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1" t="s">
-        <v>507</v>
+        <v>555</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>508</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>

--- a/GPS2Address/locations_test.xlsx
+++ b/GPS2Address/locations_test.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="586">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -719,6 +719,30 @@
     <t xml:space="preserve">S</t>
   </si>
   <si>
+    <t xml:space="preserve">ATTXu83TUI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7625008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-87.6213408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[WPA2-PSK-CCMP][RSN-PSK-CCMP][ESS][WPS][MFPC]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WigleWifi_sample3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f0:af:85:fc:5d:69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wifi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WigleWifi_sample3.xlsx</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capone’s hideout</t>
   </si>
   <si>
@@ -728,6 +752,59 @@
     <t xml:space="preserve">41.9742,-87.8651</t>
   </si>
   <si>
+    <t xml:space="preserve">xfinitywifi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7625018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-87.6213418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSID:xfinitywifi
+MAC:aa:98:13:cd:b9:77
+AuthMode:(ESS)
+Frequency:5220
+Channel:44
+Signal Strength:-91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIFI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wigle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WigleWifi_Neighborhood.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIFI-open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aa:98:13:cd:b9:77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ESS]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151.12782777005438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.440731525421143</t>
+  </si>
+  <si>
     <t xml:space="preserve">-87.6262266</t>
   </si>
   <si>
@@ -1322,30 +1399,6 @@
     <t xml:space="preserve">41.8845,-87.6320</t>
   </si>
   <si>
-    <t xml:space="preserve">ATTXu83TUI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-02-16 23:07:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[WPA2-PSK-CCMP][RSN-PSK-CCMP][ESS][WPS][MFPC]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WigleWifi_sample3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f0:af:85:fc:5d:69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.901489,-87.791145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wifi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WigleWifi_sample3.xlsx</t>
-  </si>
-  <si>
     <t xml:space="preserve">[TV] Samsung 6 Series (65)</t>
   </si>
   <si>
@@ -1361,7 +1414,7 @@
     <t xml:space="preserve">41.881554,-87.811916  </t>
   </si>
   <si>
-    <t xml:space="preserve">Bt</t>
+    <t xml:space="preserve">BT</t>
   </si>
   <si>
     <t xml:space="preserve">Verizon Wireless</t>
@@ -1397,9 +1450,6 @@
     <t xml:space="preserve">41.903661,-87.813204  </t>
   </si>
   <si>
-    <t xml:space="preserve">Ble</t>
-  </si>
-  <si>
     <t xml:space="preserve">2025-02-17 17:46:00</t>
   </si>
   <si>
@@ -1622,37 +1672,37 @@
     <t xml:space="preserve">Icon Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Lpr red car (License Plate Reader)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lpr yellow car</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lpr greeen car with circle</t>
+    <t xml:space="preserve">LPR red car (License Plate Reader)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPR yellow car</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPR green car with circle</t>
   </si>
   <si>
     <t xml:space="preserve">Car4</t>
   </si>
   <si>
-    <t xml:space="preserve">Lpr red car with circle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lpr truck</t>
+    <t xml:space="preserve">LPR red car with circle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPR truck</t>
   </si>
   <si>
     <t xml:space="preserve">Photo</t>
   </si>
   <si>
-    <t xml:space="preserve">I</t>
+    <t xml:space="preserve">blue I for Intel</t>
   </si>
   <si>
     <t xml:space="preserve">Reticle</t>
   </si>
   <si>
-    <t xml:space="preserve">default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yellow flag</t>
+    <t xml:space="preserve">Yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellow pin (default)</t>
   </si>
   <si>
     <t xml:space="preserve">Searched Item</t>
@@ -1682,16 +1732,58 @@
     <t xml:space="preserve">Tagged</t>
   </si>
   <si>
+    <t xml:space="preserve">Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red pin for Tagged items</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chats</t>
   </si>
   <si>
+    <t xml:space="preserve">Payment</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bullseye</t>
   </si>
   <si>
+    <t xml:space="preserve">Bluetooth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red dot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red star</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white star</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trips with a start and end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coordinates with timestamps within a short period of time (like same day)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red circles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indicate radius of the signal and/or accuracy of the point</t>
+  </si>
+  <si>
     <t xml:space="preserve">NOTE</t>
   </si>
   <si>
     <t xml:space="preserve">visit https://earth.google.com/ &lt;file&gt;&lt;Import KML&gt; select gps.kml &lt;open&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timestamps are in ISO 8601 military time (Year-Month-Day Hour:Minute:Seconds)</t>
   </si>
 </sst>
 </file>
@@ -1709,7 +1801,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1787,7 +1878,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1817,11 +1908,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1943,14 +2038,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>175320</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>300240</xdr:colOff>
+      <xdr:colOff>304560</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>5760</xdr:rowOff>
+      <xdr:rowOff>28440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1964,45 +2059,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="175320"/>
-          <a:ext cx="300240" cy="300240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>264240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>300240</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>5760</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Image 2" descr="Picture"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="454680"/>
-          <a:ext cx="300240" cy="300240"/>
+          <a:ext cx="304560" cy="304560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2020,27 +2077,27 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>264240</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>300240</xdr:colOff>
+      <xdr:colOff>304560</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>285480</xdr:rowOff>
+      <xdr:rowOff>28440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 3" descr="Picture"/>
+        <xdr:cNvPr id="1" name="Image 2" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="734040"/>
-          <a:ext cx="300240" cy="300600"/>
+          <a:off x="0" y="451440"/>
+          <a:ext cx="304560" cy="304560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2058,27 +2115,27 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>276840</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>300240</xdr:colOff>
+      <xdr:colOff>304560</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>284400</xdr:rowOff>
+      <xdr:rowOff>18720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 4" descr="Picture"/>
+        <xdr:cNvPr id="2" name="Image 3" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1026000"/>
-          <a:ext cx="300240" cy="299880"/>
+          <a:off x="0" y="727560"/>
+          <a:ext cx="304560" cy="304560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2096,27 +2153,27 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>276840</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>40320</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>5760</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304560</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>18720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Image 5" descr="Picture"/>
+        <xdr:cNvPr id="3" name="Image 4" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1318320"/>
-          <a:ext cx="604080" cy="605160"/>
+          <a:off x="0" y="1013400"/>
+          <a:ext cx="304560" cy="304560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2133,28 +2190,28 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>61200</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>300240</xdr:colOff>
+      <xdr:colOff>609120</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>285120</xdr:rowOff>
+      <xdr:rowOff>28080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Image 6" descr="Picture"/>
+        <xdr:cNvPr id="4" name="Image 5" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1902600"/>
-          <a:ext cx="300240" cy="300240"/>
+          <a:off x="0" y="1299240"/>
+          <a:ext cx="609120" cy="609120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2172,27 +2229,27 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>289440</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>300240</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
+      <xdr:colOff>304560</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>304560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Image 7" descr="Picture"/>
+        <xdr:cNvPr id="5" name="Image 6" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2207160"/>
-          <a:ext cx="300240" cy="300240"/>
+          <a:off x="0" y="1880280"/>
+          <a:ext cx="304560" cy="304560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2210,27 +2267,27 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>263880</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>300240</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
+      <xdr:colOff>304560</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Image 8" descr="Picture"/>
+        <xdr:cNvPr id="6" name="Image 7" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2486520"/>
-          <a:ext cx="300240" cy="300240"/>
+          <a:off x="0" y="2185200"/>
+          <a:ext cx="304560" cy="304560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2248,27 +2305,27 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>264240</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>300240</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>5760</xdr:rowOff>
+      <xdr:colOff>304560</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Image 9" descr="Picture"/>
+        <xdr:cNvPr id="7" name="Image 8" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2766240"/>
-          <a:ext cx="300240" cy="300240"/>
+          <a:off x="0" y="2461320"/>
+          <a:ext cx="304560" cy="304560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2286,27 +2343,27 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>264240</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>300240</xdr:colOff>
+      <xdr:colOff>304560</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>284760</xdr:rowOff>
+      <xdr:rowOff>28440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Image 10" descr="Picture"/>
+        <xdr:cNvPr id="8" name="Image 9" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip r:embed="rId9"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3045600"/>
-          <a:ext cx="300240" cy="299880"/>
+          <a:off x="0" y="2737440"/>
+          <a:ext cx="304560" cy="304560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2324,27 +2381,27 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>276840</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>300240</xdr:colOff>
+      <xdr:colOff>304560</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>285480</xdr:rowOff>
+      <xdr:rowOff>18720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Image 11" descr="Picture"/>
+        <xdr:cNvPr id="9" name="Image 10" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip r:embed="rId10"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3337560"/>
-          <a:ext cx="300240" cy="300600"/>
+          <a:off x="0" y="3013560"/>
+          <a:ext cx="304560" cy="304560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2362,27 +2419,27 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>276840</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>300240</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>284760</xdr:rowOff>
+      <xdr:colOff>609120</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>609120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Image 12" descr="Picture"/>
+        <xdr:cNvPr id="10" name="Image 11" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
+        <a:blip r:embed="rId11"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3629520"/>
-          <a:ext cx="300240" cy="300240"/>
+          <a:off x="0" y="3299400"/>
+          <a:ext cx="609120" cy="609120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2400,27 +2457,27 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>302040</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>300240</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>284760</xdr:rowOff>
+      <xdr:colOff>304560</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>304560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Image 13" descr="Picture"/>
+        <xdr:cNvPr id="11" name="Image 12" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <a:blip r:embed="rId12"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3947040"/>
-          <a:ext cx="300240" cy="300240"/>
+          <a:off x="0" y="3994920"/>
+          <a:ext cx="304560" cy="304560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2438,27 +2495,27 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>302040</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>300240</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>284400</xdr:rowOff>
+      <xdr:colOff>304560</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>304560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Image 14" descr="Picture"/>
+        <xdr:cNvPr id="12" name="Image 13" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
+        <a:blip r:embed="rId13"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4264560"/>
-          <a:ext cx="300240" cy="299880"/>
+          <a:off x="0" y="4309200"/>
+          <a:ext cx="304560" cy="304560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2475,28 +2532,28 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>60840</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>40320</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>106560</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304560</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>18720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Image 15" descr="Picture"/>
+        <xdr:cNvPr id="13" name="Image 14" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId15"/>
+        <a:blip r:embed="rId14"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4632840"/>
-          <a:ext cx="604080" cy="604440"/>
+          <a:off x="0" y="4623480"/>
+          <a:ext cx="304560" cy="304560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2514,27 +2571,27 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>467280</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>40320</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>107280</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609120</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Image 16" descr="Picture"/>
+        <xdr:cNvPr id="14" name="Image 15" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId16"/>
+        <a:blip r:embed="rId15"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5115600"/>
-          <a:ext cx="604080" cy="605160"/>
+          <a:off x="0" y="4985280"/>
+          <a:ext cx="609120" cy="609120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2552,27 +2609,27 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>467280</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>40320</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>106560</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609120</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Image 17" descr="Picture"/>
+        <xdr:cNvPr id="15" name="Image 16" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId17"/>
+        <a:blip r:embed="rId16"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5598000"/>
-          <a:ext cx="604080" cy="604440"/>
+          <a:off x="0" y="5461560"/>
+          <a:ext cx="609120" cy="609120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2590,27 +2647,27 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>467280</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>40320</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>107280</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609120</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Image 18" descr="Picture"/>
+        <xdr:cNvPr id="16" name="Image 17" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId18"/>
+        <a:blip r:embed="rId17"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="6080760"/>
-          <a:ext cx="604080" cy="605160"/>
+          <a:off x="0" y="5937840"/>
+          <a:ext cx="609120" cy="609120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2628,27 +2685,27 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>467640</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>40320</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>30600</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609120</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Image 19" descr="Picture"/>
+        <xdr:cNvPr id="17" name="Image 18" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId19"/>
+        <a:blip r:embed="rId18"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="6563520"/>
-          <a:ext cx="604080" cy="604440"/>
+          <a:off x="0" y="6414120"/>
+          <a:ext cx="609120" cy="609120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2665,28 +2722,28 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>61200</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>40320</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609120</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>56520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Image 20" descr="Picture"/>
+        <xdr:cNvPr id="18" name="Image 19" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId20"/>
+        <a:blip r:embed="rId19"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="7122240"/>
-          <a:ext cx="604080" cy="604800"/>
+          <a:off x="0" y="6890400"/>
+          <a:ext cx="609120" cy="609120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2704,27 +2761,27 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>61200</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>300240</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:colOff>609120</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>609120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Image 21" descr="Picture"/>
+        <xdr:cNvPr id="19" name="Image 20" descr="Picture"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId21"/>
+        <a:blip r:embed="rId20"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="7389000"/>
-          <a:ext cx="300240" cy="299880"/>
+          <a:off x="0" y="7633440"/>
+          <a:ext cx="609120" cy="609120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2742,13 +2799,51 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>175320</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>40320</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>18360</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609120</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>609120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Image 21" descr="Picture"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId21"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8328600"/>
+          <a:ext cx="609120" cy="609120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304560</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>304560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2761,8 +2856,160 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="7579440"/>
-          <a:ext cx="604080" cy="605160"/>
+          <a:off x="0" y="8957160"/>
+          <a:ext cx="304560" cy="304560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609120</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>609120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Image 23" descr="Picture"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId23"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9309600"/>
+          <a:ext cx="609120" cy="609120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304560</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Image 24" descr="Picture"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId24"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9938520"/>
+          <a:ext cx="304560" cy="304560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304560</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Image 25" descr="Picture"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId25"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10128960"/>
+          <a:ext cx="304560" cy="304560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304560</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Image 26" descr="Picture"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId26"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10405080"/>
+          <a:ext cx="304560" cy="304560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2889,14 +3136,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BF93"/>
+  <dimension ref="A1:BP1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="B93" activeCellId="0" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2953,7 +3200,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="1" width="6.01"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3129,7 +3376,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="n">
         <v>-346.872164351852</v>
       </c>
@@ -3146,7 +3393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="5" t="n">
         <v>7435.5</v>
       </c>
@@ -3199,7 +3446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>71</v>
       </c>
@@ -3258,7 +3505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>77</v>
       </c>
@@ -3317,7 +3564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>83</v>
       </c>
@@ -3373,7 +3620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>88</v>
       </c>
@@ -3432,7 +3679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="5" t="n">
         <v>8384.5</v>
       </c>
@@ -3482,7 +3729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>98</v>
       </c>
@@ -3541,7 +3788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>103</v>
       </c>
@@ -3600,7 +3847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>109</v>
       </c>
@@ -3659,7 +3906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>114</v>
       </c>
@@ -3718,7 +3965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>120</v>
       </c>
@@ -3777,7 +4024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>125</v>
       </c>
@@ -3836,7 +4083,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="5" t="n">
         <v>9706.5</v>
       </c>
@@ -3889,7 +4136,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="5" t="n">
         <v>9908.33888888889</v>
       </c>
@@ -3978,7 +4225,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="5" t="n">
         <v>9910.74027777778</v>
       </c>
@@ -3988,7 +4235,6 @@
       <c r="D17" s="1" t="n">
         <v>-87.6341</v>
       </c>
-      <c r="AE17" s="0"/>
       <c r="AF17" s="1" t="s">
         <v>153</v>
       </c>
@@ -3996,7 +4242,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="5" t="n">
         <v>9910.76319444444</v>
       </c>
@@ -4006,7 +4252,6 @@
       <c r="D18" s="1" t="n">
         <v>-87.633</v>
       </c>
-      <c r="AE18" s="0"/>
       <c r="AF18" s="1" t="s">
         <v>155</v>
       </c>
@@ -4014,7 +4259,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="5" t="n">
         <v>9910.78611111111</v>
       </c>
@@ -4024,7 +4269,6 @@
       <c r="D19" s="1" t="n">
         <v>-87.6325</v>
       </c>
-      <c r="AE19" s="0"/>
       <c r="AF19" s="1" t="s">
         <v>156</v>
       </c>
@@ -4032,7 +4276,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="5" t="n">
         <v>9910.80902777778</v>
       </c>
@@ -4042,7 +4286,6 @@
       <c r="D20" s="1" t="n">
         <v>-87.6335</v>
       </c>
-      <c r="AE20" s="0"/>
       <c r="AF20" s="1" t="s">
         <v>157</v>
       </c>
@@ -4050,7 +4293,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="5" t="n">
         <v>9910.83194444444</v>
       </c>
@@ -4060,7 +4303,6 @@
       <c r="D21" s="1" t="n">
         <v>-87.6355</v>
       </c>
-      <c r="AE21" s="0"/>
       <c r="AF21" s="1" t="s">
         <v>158</v>
       </c>
@@ -4068,7 +4310,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="5" t="n">
         <v>9910.85486111111</v>
       </c>
@@ -4078,7 +4320,6 @@
       <c r="D22" s="1" t="n">
         <v>-87.637</v>
       </c>
-      <c r="AE22" s="0"/>
       <c r="AF22" s="1" t="s">
         <v>159</v>
       </c>
@@ -4086,7 +4327,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="5" t="n">
         <v>9910.87777777778</v>
       </c>
@@ -4096,7 +4337,6 @@
       <c r="D23" s="1" t="n">
         <v>-87.638</v>
       </c>
-      <c r="AE23" s="0"/>
       <c r="AF23" s="1" t="s">
         <v>160</v>
       </c>
@@ -4104,7 +4344,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="5" t="n">
         <v>9910.90069444445</v>
       </c>
@@ -4114,7 +4354,6 @@
       <c r="D24" s="1" t="n">
         <v>-87.637</v>
       </c>
-      <c r="AE24" s="0"/>
       <c r="AF24" s="1" t="s">
         <v>161</v>
       </c>
@@ -4122,7 +4361,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="5" t="n">
         <v>9910.92361111111</v>
       </c>
@@ -4132,7 +4371,6 @@
       <c r="D25" s="1" t="n">
         <v>-87.635</v>
       </c>
-      <c r="AE25" s="0"/>
       <c r="AF25" s="1" t="s">
         <v>162</v>
       </c>
@@ -4140,7 +4378,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="5" t="n">
         <v>9910.94652777778</v>
       </c>
@@ -4150,7 +4388,6 @@
       <c r="D26" s="1" t="n">
         <v>-87.63</v>
       </c>
-      <c r="AE26" s="0"/>
       <c r="AF26" s="1" t="s">
         <v>163</v>
       </c>
@@ -4158,9 +4395,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="5" t="n">
-        <v>9910.96944444445</v>
+        <v>9910.96944444446</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>41.8905</v>
@@ -4168,7 +4405,6 @@
       <c r="D27" s="1" t="n">
         <v>-87.628</v>
       </c>
-      <c r="AE27" s="0"/>
       <c r="AF27" s="1" t="s">
         <v>164</v>
       </c>
@@ -4176,7 +4412,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="5" t="n">
         <v>9910.99236111111</v>
       </c>
@@ -4186,7 +4422,6 @@
       <c r="D28" s="1" t="n">
         <v>-87.627</v>
       </c>
-      <c r="AE28" s="0"/>
       <c r="AF28" s="1" t="s">
         <v>165</v>
       </c>
@@ -4194,7 +4429,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="5" t="n">
         <v>9937.97777777778</v>
       </c>
@@ -4283,7 +4518,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="5" t="n">
         <v>9965.55694444445</v>
       </c>
@@ -4366,7 +4601,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="5" t="n">
         <v>9995.64027777778</v>
       </c>
@@ -4446,7 +4681,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>198</v>
       </c>
@@ -4526,7 +4761,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>208</v>
       </c>
@@ -4582,7 +4817,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>212</v>
       </c>
@@ -4638,7 +4873,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="5" t="n">
         <v>9996.76597222222</v>
       </c>
@@ -4721,152 +4956,167 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="7" t="s">
         <v>232</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>9996.81458333333</v>
-      </c>
-      <c r="C36" s="1" t="n">
-        <v>41.9742</v>
-      </c>
-      <c r="D36" s="1" t="n">
-        <v>-87.8651</v>
-      </c>
-      <c r="E36" s="1" t="s">
+        <v>9996.77291666667</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="V36" s="1" t="s">
+      <c r="D36" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="G36" s="7" t="n">
+        <v>2447</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="X36" s="1" t="s">
+      <c r="W36" s="7"/>
+      <c r="X36" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="AF36" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AG36" s="1" t="n">
-        <v>41.9742</v>
-      </c>
-      <c r="AH36" s="1" t="n">
-        <v>-87.8651</v>
-      </c>
-      <c r="AT36" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AU36" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AV36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BF36" s="1" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7" t="n">
+        <v>-95</v>
+      </c>
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="7"/>
+      <c r="AD36" s="7"/>
+      <c r="AE36" s="7"/>
+      <c r="AF36" s="7"/>
+      <c r="AG36" s="7"/>
+      <c r="AH36" s="7"/>
+      <c r="AI36" s="7"/>
+      <c r="AJ36" s="7"/>
+      <c r="AK36" s="7"/>
+      <c r="AL36" s="7"/>
+      <c r="AM36" s="7"/>
+      <c r="AN36" s="7"/>
+      <c r="AO36" s="7"/>
+      <c r="AP36" s="7"/>
+      <c r="AQ36" s="7"/>
+      <c r="AR36" s="7"/>
+      <c r="AS36" s="7"/>
+      <c r="AT36" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="AU36" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="AV36" s="7"/>
+      <c r="AW36" s="7"/>
+      <c r="AX36" s="7"/>
+      <c r="AY36" s="7"/>
+      <c r="AZ36" s="7"/>
+      <c r="BA36" s="7"/>
+      <c r="BB36" s="7"/>
+      <c r="BC36" s="7"/>
+      <c r="BD36" s="7"/>
+      <c r="BE36" s="7"/>
+      <c r="BF36" s="7"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="B37" s="5" t="n">
         <v>9996.81458333333</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>200</v>
+      <c r="C37" s="1" t="n">
+        <v>41.9742</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>-87.8651</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M37" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="T37" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="U37" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="V37" s="1" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="X37" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Y37" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z37" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="AF37" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AG37" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG37" s="1" t="n">
+        <v>41.9742</v>
+      </c>
+      <c r="AH37" s="1" t="n">
+        <v>-87.8651</v>
+      </c>
+      <c r="AT37" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AU37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF37" s="1" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="5" t="n">
+        <v>9996.81458333333</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AH37" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AR37" s="6"/>
-      <c r="AT37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU37" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AV37" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BF37" s="1" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="5" t="n">
-        <v>10028.6402777778</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="E38" s="1" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>138</v>
+        <v>202</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>82</v>
@@ -4880,14 +5130,17 @@
       <c r="M38" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="Q38" s="1" t="s">
-        <v>237</v>
+      <c r="R38" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>238</v>
+        <v>144</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="V38" s="1" t="s">
         <v>146</v>
@@ -4896,25 +5149,23 @@
         <v>65</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="AF38" s="1" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="AG38" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AH38" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AR38" s="6" t="n">
-        <v>10028.6402777778</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="AR38" s="6"/>
       <c r="AT38" s="1" t="s">
-        <v>154</v>
+        <v>68</v>
       </c>
       <c r="AU38" s="1" t="s">
         <v>151</v>
@@ -4923,219 +5174,280 @@
         <v>152</v>
       </c>
       <c r="BF38" s="1" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="71" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>243</v>
+      </c>
       <c r="B39" s="5" t="n">
-        <v>10095.4630439815</v>
-      </c>
-      <c r="C39" s="1" t="n">
-        <v>41.8788764</v>
-      </c>
-      <c r="D39" s="1" t="n">
-        <v>-87.6384898</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="I39" s="1" t="s">
+        <v>9996.81458333333</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E39" s="0"/>
+      <c r="F39" s="0"/>
+      <c r="G39" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="K39" s="0"/>
+      <c r="L39" s="0"/>
+      <c r="M39" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="N39" s="0"/>
+      <c r="O39" s="0"/>
+      <c r="P39" s="0"/>
+      <c r="Q39" s="0"/>
+      <c r="R39" s="0"/>
+      <c r="S39" s="0"/>
+      <c r="T39" s="0"/>
+      <c r="V39" s="0"/>
+      <c r="W39" s="0"/>
+      <c r="X39" s="0"/>
+      <c r="Y39" s="0"/>
+      <c r="Z39" s="0"/>
+      <c r="AA39" s="0"/>
+      <c r="AB39" s="0"/>
+      <c r="AC39" s="0"/>
+      <c r="AD39" s="0"/>
+      <c r="AE39" s="0"/>
+      <c r="AF39" s="0"/>
+      <c r="AG39" s="0"/>
+      <c r="AH39" s="0"/>
+      <c r="AI39" s="0"/>
+      <c r="AJ39" s="0"/>
+      <c r="AK39" s="0"/>
+      <c r="AL39" s="0"/>
+      <c r="AM39" s="0"/>
+      <c r="AN39" s="0"/>
+      <c r="AO39" s="0"/>
+      <c r="AP39" s="0"/>
+      <c r="AQ39" s="0"/>
+      <c r="AR39" s="0"/>
+      <c r="AS39" s="0"/>
+      <c r="AT39" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="AU39" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="AV39" s="0"/>
+      <c r="AW39" s="0"/>
+      <c r="AX39" s="0"/>
+      <c r="AY39" s="0"/>
+      <c r="AZ39" s="0"/>
+      <c r="BA39" s="0"/>
+      <c r="BB39" s="0"/>
+      <c r="BC39" s="0"/>
+      <c r="BD39" s="0"/>
+      <c r="BE39" s="0"/>
+      <c r="BF39" s="0"/>
+      <c r="BI39" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="BJ39" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="BK39" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="BL39" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="BM39" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="BN39" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="BO39" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="BP39" s="0" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="5" t="n">
+        <v>10028.6402777778</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="T39" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="U39" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="V39" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="X39" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y39" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AG39" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="AH39" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="AR39" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="AT39" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU39" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AV39" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BA39" s="1" t="n">
-        <v>43.4453352726708</v>
-      </c>
-      <c r="BB39" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC39" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="BF39" s="1" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B40" s="5" t="n">
-        <v>10365.5</v>
-      </c>
-      <c r="C40" s="1" t="n">
-        <v>41.8758</v>
-      </c>
-      <c r="D40" s="1" t="n">
-        <v>-87.6395</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="M40" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="V40" s="1" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="X40" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="Y40" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z40" s="1" t="s">
+        <v>264</v>
+      </c>
       <c r="AF40" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AG40" s="1" t="n">
-        <v>41.8758</v>
-      </c>
-      <c r="AH40" s="1" t="n">
-        <v>-87.6395</v>
-      </c>
-      <c r="AR40" s="1" t="s">
-        <v>255</v>
+        <v>265</v>
+      </c>
+      <c r="AG40" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH40" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR40" s="6" t="n">
+        <v>10028.6402777778</v>
       </c>
       <c r="AT40" s="1" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="AU40" s="1" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="AV40" s="1" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="BF40" s="1" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>256</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="5" t="n">
-        <v>10393.5</v>
+        <v>10095.4630439815</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>41.8789</v>
+        <v>41.8788764</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>-87.6359</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>257</v>
+        <v>-87.6384898</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>63</v>
+        <v>267</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>74</v>
+        <v>268</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="X41" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AF41" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="AG41" s="1" t="n">
-        <v>41.8789</v>
-      </c>
-      <c r="AH41" s="1" t="n">
-        <v>-87.6359</v>
+      <c r="Y41" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AG41" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AH41" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="AR41" s="1" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="AT41" s="1" t="s">
-        <v>261</v>
+        <v>60</v>
       </c>
       <c r="AU41" s="1" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="AV41" s="1" t="s">
-        <v>70</v>
+        <v>152</v>
+      </c>
+      <c r="BA41" s="1" t="n">
+        <v>43.4453352726708</v>
+      </c>
+      <c r="BB41" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC41" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="BF41" s="1" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>10426.5</v>
+        <v>10365.5</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>41.8827</v>
+        <v>41.8758</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>-87.629</v>
+        <v>-87.6395</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>63</v>
@@ -5153,19 +5465,19 @@
         <v>65</v>
       </c>
       <c r="AF42" s="1" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="AG42" s="1" t="n">
-        <v>41.8827</v>
+        <v>41.8758</v>
       </c>
       <c r="AH42" s="1" t="n">
-        <v>-87.629</v>
+        <v>-87.6395</v>
       </c>
       <c r="AR42" s="1" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="AT42" s="1" t="s">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c r="AU42" s="1" t="s">
         <v>69</v>
@@ -5174,27 +5486,27 @@
         <v>70</v>
       </c>
       <c r="BF42" s="1" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>10513.5</v>
+        <v>10393.5</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>41.8858</v>
+        <v>41.8789</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>-87.6278</v>
+        <v>-87.6359</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>63</v>
@@ -5212,19 +5524,19 @@
         <v>65</v>
       </c>
       <c r="AF43" s="1" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="AG43" s="1" t="n">
-        <v>41.8858</v>
+        <v>41.8789</v>
       </c>
       <c r="AH43" s="1" t="n">
-        <v>-87.6278</v>
+        <v>-87.6359</v>
       </c>
       <c r="AR43" s="1" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="AT43" s="1" t="s">
-        <v>60</v>
+        <v>285</v>
       </c>
       <c r="AU43" s="1" t="s">
         <v>69</v>
@@ -5233,27 +5545,27 @@
         <v>70</v>
       </c>
       <c r="BF43" s="1" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>10565.5</v>
+        <v>10426.5</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>41.9469</v>
+        <v>41.8827</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>-87.6553</v>
+        <v>-87.629</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>63</v>
@@ -5271,19 +5583,19 @@
         <v>65</v>
       </c>
       <c r="AF44" s="1" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="AG44" s="1" t="n">
-        <v>41.9469</v>
+        <v>41.8827</v>
       </c>
       <c r="AH44" s="1" t="n">
-        <v>-87.6553</v>
+        <v>-87.629</v>
       </c>
       <c r="AR44" s="1" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="AT44" s="1" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="AU44" s="1" t="s">
         <v>69</v>
@@ -5292,107 +5604,86 @@
         <v>70</v>
       </c>
       <c r="BF44" s="1" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="B45" s="5" t="n">
-        <v>10638.4375</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>278</v>
+        <v>10513.5</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>41.8858</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>-87.6278</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M45" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q45" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="R45" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="S45" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="T45" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="U45" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="V45" s="1" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="X45" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Y45" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="Z45" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="AF45" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="AG45" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AH45" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AR45" s="6" t="n">
-        <v>10638.4375</v>
+        <v>294</v>
+      </c>
+      <c r="AG45" s="1" t="n">
+        <v>41.8858</v>
+      </c>
+      <c r="AH45" s="1" t="n">
+        <v>-87.6278</v>
+      </c>
+      <c r="AR45" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="AT45" s="1" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="AU45" s="1" t="s">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="AV45" s="1" t="s">
-        <v>288</v>
+        <v>70</v>
       </c>
       <c r="BF45" s="1" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>10954.5</v>
+        <v>10565.5</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>41.8906</v>
+        <v>41.9469</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>-87.6233</v>
+        <v>-87.6553</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>63</v>
@@ -5410,19 +5701,19 @@
         <v>65</v>
       </c>
       <c r="AF46" s="1" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="AG46" s="1" t="n">
-        <v>41.8906</v>
+        <v>41.9469</v>
       </c>
       <c r="AH46" s="1" t="n">
-        <v>-87.6233</v>
+        <v>-87.6553</v>
       </c>
       <c r="AR46" s="1" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="AT46" s="1" t="s">
-        <v>294</v>
+        <v>221</v>
       </c>
       <c r="AU46" s="1" t="s">
         <v>69</v>
@@ -5431,77 +5722,107 @@
         <v>70</v>
       </c>
       <c r="BF46" s="1" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="5" t="n">
-        <v>11103.5</v>
-      </c>
-      <c r="C47" s="1" t="n">
-        <v>41.4925</v>
-      </c>
-      <c r="D47" s="1" t="n">
-        <v>-99.9018</v>
+        <v>10638.4375</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="X47" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="Y47" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z47" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="AF47" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="AG47" s="1" t="n">
-        <v>41.4925</v>
-      </c>
-      <c r="AH47" s="1" t="n">
-        <v>-99.9018</v>
-      </c>
-      <c r="AR47" s="1" t="s">
-        <v>298</v>
+        <v>311</v>
+      </c>
+      <c r="AG47" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AH47" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AR47" s="6" t="n">
+        <v>10638.4375</v>
       </c>
       <c r="AT47" s="1" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="AU47" s="1" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="AV47" s="1" t="s">
-        <v>70</v>
+        <v>312</v>
       </c>
       <c r="BF47" s="1" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="B48" s="5" t="n">
-        <v>11228.5</v>
+        <v>10954.5</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>25.7617</v>
+        <v>41.8906</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>-80.1918</v>
+        <v>-87.6233</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>63</v>
@@ -5512,23 +5833,26 @@
       <c r="L48" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="V48" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="X48" s="1" t="s">
         <v>65</v>
       </c>
       <c r="AF48" s="1" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="AG48" s="1" t="n">
-        <v>25.7617</v>
+        <v>41.8906</v>
       </c>
       <c r="AH48" s="1" t="n">
-        <v>-80.1918</v>
+        <v>-87.6233</v>
       </c>
       <c r="AR48" s="1" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="AT48" s="1" t="s">
-        <v>68</v>
+        <v>318</v>
       </c>
       <c r="AU48" s="1" t="s">
         <v>69</v>
@@ -5537,429 +5861,435 @@
         <v>70</v>
       </c>
       <c r="BF48" s="1" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="5" t="n">
-        <v>11395.1702083333</v>
+        <v>11103.5</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>41.4925</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>-99.9018</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>319</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>304</v>
+        <v>320</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF49" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AG49" s="1" t="n">
+        <v>41.4925</v>
+      </c>
+      <c r="AH49" s="1" t="n">
+        <v>-99.9018</v>
+      </c>
+      <c r="AR49" s="1" t="s">
+        <v>322</v>
       </c>
       <c r="AT49" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="AU49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV49" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="BF49" s="1" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="B50" s="5" t="n">
-        <v>11479.5515625</v>
+        <v>11228.5</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>25.7617</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>-80.1918</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>305</v>
+        <v>325</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF50" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="AG50" s="1" t="n">
+        <v>25.7617</v>
+      </c>
+      <c r="AH50" s="1" t="n">
+        <v>-80.1918</v>
+      </c>
+      <c r="AR50" s="1" t="s">
+        <v>327</v>
       </c>
       <c r="AT50" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
+      </c>
+      <c r="AU50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV50" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="BF50" s="1" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="5" t="n">
-        <v>17192.1702083333</v>
+        <v>11395.1702083333</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>59</v>
+        <v>328</v>
       </c>
       <c r="AT51" s="1" t="s">
         <v>60</v>
       </c>
       <c r="BF51" s="1" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="5" t="n">
-        <v>44392.7235069444</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>308</v>
+        <v>11479.5515625</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q52" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z52" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="AF52" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="AG52" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="AH52" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="AR52" s="1" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="AT52" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AU52" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="BF52" s="1" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="5" t="n">
-        <v>44461.5435763889</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>316</v>
+        <v>17192.1702083333</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>330</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="J53" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M53" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="T53" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="U53" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="V53" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="W53" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="X53" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y53" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="Z53" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="AB53" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="AE53" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="AF53" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="AG53" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="AH53" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="AK53" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AM53" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="AR53" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="AT53" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU53" s="1" t="s">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="BF53" s="1" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="5" t="n">
-        <v>44928.7375</v>
+        <v>44392.7235069444</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>326</v>
+        <v>332</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>327</v>
+        <v>60</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>59</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>328</v>
+        <v>139</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="U54" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z54" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF54" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AG54" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="V54" s="1" t="s">
+      <c r="AH54" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="X54" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="Y54" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="AE54" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="AF54" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="AG54" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="AH54" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="AK54" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="AQ54" s="1" t="n">
-        <v>230</v>
-      </c>
       <c r="AR54" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AT54" s="1" t="s">
-        <v>330</v>
+        <v>60</v>
       </c>
       <c r="AU54" s="1" t="s">
         <v>151</v>
       </c>
       <c r="BF54" s="1" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="5" t="n">
-        <v>44946.8034722222</v>
+        <v>44461.5435763889</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>327</v>
+        <v>218</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>59</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>328</v>
+        <v>139</v>
       </c>
       <c r="P55" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="T55" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="U55" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V55" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="W55" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="X55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y55" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z55" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AB55" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AE55" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="AF55" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AG55" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AH55" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="Q55" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="T55" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="U55" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="V55" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="X55" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="Y55" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="AE55" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="AF55" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AG55" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="AH55" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="AQ55" s="1" t="n">
-        <v>257</v>
+      <c r="AK55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM55" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="AR55" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AT55" s="1" t="s">
-        <v>327</v>
+        <v>93</v>
       </c>
       <c r="AU55" s="1" t="s">
         <v>151</v>
       </c>
       <c r="BF55" s="1" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="5" t="n">
-        <v>45189.6434953704</v>
+        <v>44928.7375</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>59</v>
+        <v>351</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>59</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>139</v>
+        <v>352</v>
       </c>
       <c r="P56" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="U56" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="V56" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="X56" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y56" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AE56" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AF56" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AG56" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AH56" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="Z56" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="AF56" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="AG56" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="AH56" s="1" t="s">
-        <v>349</v>
+      <c r="AK56" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="AQ56" s="1" t="n">
+        <v>230</v>
       </c>
       <c r="AR56" s="1" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="AT56" s="1" t="s">
-        <v>59</v>
+        <v>354</v>
       </c>
       <c r="AU56" s="1" t="s">
         <v>151</v>
       </c>
       <c r="BF56" s="1" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="5" t="n">
-        <v>45284.4335648148</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>355</v>
+        <v>44946.8034722222</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>363</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>59</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>139</v>
+        <v>352</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>357</v>
+        <v>364</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>145</v>
+        <v>366</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="W57" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>65</v>
+        <v>367</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>360</v>
+        <v>368</v>
+      </c>
+      <c r="AE57" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AF57" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AG57" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AH57" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="AQ57" s="1" t="n">
+        <v>257</v>
       </c>
       <c r="AR57" s="1" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="AT57" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="AU57" s="1" t="s">
         <v>151</v>
       </c>
       <c r="BF57" s="1" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="5" t="n">
-        <v>45286.4593865741</v>
+        <v>45189.6434953704</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>316</v>
+        <v>373</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>59</v>
@@ -5967,38 +6297,26 @@
       <c r="J58" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L58" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="M58" s="1" t="s">
         <v>139</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="T58" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="U58" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="V58" s="1" t="s">
-        <v>146</v>
+        <v>374</v>
       </c>
       <c r="Z58" s="1" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="AF58" s="1" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="AG58" s="1" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AH58" s="1" t="s">
-        <v>316</v>
+        <v>373</v>
       </c>
       <c r="AR58" s="1" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="AT58" s="1" t="s">
         <v>59</v>
@@ -6007,1486 +6325,1563 @@
         <v>151</v>
       </c>
       <c r="BF58" s="1" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="5" t="n">
-        <v>45287.7076388889</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>367</v>
+        <v>45284.4335648148</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>379</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>327</v>
+        <v>380</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>59</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>328</v>
+        <v>139</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q59" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="S59" s="1" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="T59" s="1" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>371</v>
+        <v>145</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>372</v>
+        <v>146</v>
+      </c>
+      <c r="W59" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="X59" s="1" t="s">
-        <v>373</v>
+        <v>65</v>
       </c>
       <c r="Y59" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="AE59" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="AF59" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="AG59" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="AH59" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="AK59" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AQ59" s="1" t="n">
-        <v>17</v>
+        <v>384</v>
       </c>
       <c r="AR59" s="1" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="AT59" s="1" t="s">
-        <v>108</v>
+        <v>380</v>
       </c>
       <c r="AU59" s="1" t="s">
         <v>151</v>
       </c>
       <c r="BF59" s="1" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="5" t="n">
-        <v>45287.7159722222</v>
+        <v>45286.4593865741</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>327</v>
+        <v>59</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="L60" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="M60" s="1" t="s">
-        <v>328</v>
+        <v>139</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q60" s="1" t="s">
-        <v>231</v>
+        <v>374</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>381</v>
+        <v>144</v>
       </c>
       <c r="V60" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="X60" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y60" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="AE60" s="1" t="s">
-        <v>385</v>
+        <v>146</v>
+      </c>
+      <c r="Z60" s="1" t="s">
+        <v>387</v>
       </c>
       <c r="AF60" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="AG60" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="AG60" s="1" t="s">
-        <v>378</v>
-      </c>
       <c r="AH60" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="AK60" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AQ60" s="1" t="n">
-        <v>18</v>
+        <v>340</v>
       </c>
       <c r="AR60" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AT60" s="1" t="s">
-        <v>231</v>
+        <v>59</v>
       </c>
       <c r="AU60" s="1" t="s">
         <v>151</v>
       </c>
       <c r="BF60" s="1" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="5" t="n">
-        <v>45298.5689814815</v>
+        <v>45287.7076388889</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>186</v>
+        <v>351</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>59</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>139</v>
+        <v>352</v>
       </c>
       <c r="P61" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="T61" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="U61" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="V61" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="X61" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y61" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="AE61" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="AF61" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="AG61" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="AH61" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="Q61" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="AC61" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="AF61" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="AG61" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="AH61" s="1" t="s">
-        <v>389</v>
+      <c r="AK61" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ61" s="1" t="n">
+        <v>17</v>
       </c>
       <c r="AR61" s="1" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="AT61" s="1" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="AU61" s="1" t="s">
         <v>151</v>
       </c>
       <c r="BF61" s="1" t="n">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1"/>
       <c r="B62" s="5" t="n">
-        <v>45300.5689814815</v>
-      </c>
-      <c r="C62" s="7" t="n">
-        <v>41.920103</v>
-      </c>
-      <c r="D62" s="7" t="n">
-        <v>-87.673827</v>
-      </c>
+        <v>45287.7159722222</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
       <c r="I62" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="AF62" s="7" t="s">
-        <v>396</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="V62" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y62" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="Z62" s="1"/>
+      <c r="AA62" s="1"/>
+      <c r="AB62" s="1"/>
+      <c r="AC62" s="1"/>
+      <c r="AD62" s="1"/>
+      <c r="AE62" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="AF62" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="AG62" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="AH62" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="AI62" s="1"/>
+      <c r="AJ62" s="1"/>
       <c r="AK62" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="AL62" s="1"/>
+      <c r="AM62" s="1"/>
+      <c r="AN62" s="1"/>
+      <c r="AO62" s="1"/>
+      <c r="AP62" s="1"/>
+      <c r="AQ62" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR62" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="AS62" s="1"/>
       <c r="AT62" s="1" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
       <c r="AU62" s="1" t="s">
         <v>151</v>
       </c>
+      <c r="AV62" s="1"/>
+      <c r="AW62" s="1"/>
+      <c r="AX62" s="1"/>
+      <c r="AY62" s="1"/>
+      <c r="AZ62" s="1"/>
+      <c r="BA62" s="1"/>
+      <c r="BB62" s="1"/>
+      <c r="BC62" s="1"/>
+      <c r="BD62" s="1"/>
+      <c r="BE62" s="1"/>
       <c r="BF62" s="1" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>48</v>
+      </c>
+      <c r="BG62" s="0"/>
+      <c r="BH62" s="0"/>
+      <c r="BI62" s="0"/>
+      <c r="BJ62" s="0"/>
+      <c r="BK62" s="0"/>
+      <c r="BL62" s="0"/>
+      <c r="BM62" s="0"/>
+      <c r="BN62" s="0"/>
+      <c r="BO62" s="0"/>
+      <c r="BP62" s="0"/>
+    </row>
+    <row r="63" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1"/>
       <c r="B63" s="5" t="n">
-        <v>45300.5710648148</v>
-      </c>
-      <c r="C63" s="7" t="n">
-        <v>41.954183</v>
-      </c>
-      <c r="D63" s="7" t="n">
-        <v>-87.731145</v>
+        <v>45298.5689814815</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="AF63" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="AK63" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="0"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="1"/>
+      <c r="AC63" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="AD63" s="1"/>
+      <c r="AE63" s="1"/>
+      <c r="AF63" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="AG63" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="AH63" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="AI63" s="1"/>
+      <c r="AJ63" s="1"/>
+      <c r="AK63" s="1"/>
+      <c r="AL63" s="1"/>
+      <c r="AM63" s="1"/>
+      <c r="AN63" s="1"/>
+      <c r="AO63" s="1"/>
+      <c r="AP63" s="1"/>
+      <c r="AQ63" s="1"/>
+      <c r="AR63" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AS63" s="1"/>
       <c r="AT63" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="AU63" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV63" s="1"/>
+      <c r="AW63" s="1"/>
+      <c r="AX63" s="1"/>
+      <c r="AY63" s="1"/>
+      <c r="AZ63" s="1"/>
+      <c r="BA63" s="1"/>
+      <c r="BB63" s="1"/>
+      <c r="BC63" s="1"/>
+      <c r="BD63" s="1"/>
+      <c r="BE63" s="1"/>
       <c r="BF63" s="1" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+      <c r="BG63" s="0"/>
+      <c r="BH63" s="0"/>
+      <c r="BI63" s="0"/>
+      <c r="BJ63" s="0"/>
+      <c r="BK63" s="0"/>
+      <c r="BL63" s="0"/>
+      <c r="BM63" s="0"/>
+      <c r="BN63" s="0"/>
+      <c r="BO63" s="0"/>
+      <c r="BP63" s="0"/>
+    </row>
+    <row r="64" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1"/>
       <c r="B64" s="5" t="n">
-        <v>45300.5780092593</v>
-      </c>
-      <c r="C64" s="7" t="n">
-        <v>41.951087</v>
-      </c>
-      <c r="D64" s="7" t="n">
-        <v>-87.74732</v>
-      </c>
+        <v>45300.5689814815</v>
+      </c>
+      <c r="C64" s="9" t="n">
+        <v>41.920103</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>-87.673827</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
       <c r="I64" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="AF64" s="7" t="s">
-        <v>398</v>
-      </c>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="0"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="1"/>
+      <c r="AA64" s="1"/>
+      <c r="AB64" s="1"/>
+      <c r="AC64" s="1"/>
+      <c r="AD64" s="1"/>
+      <c r="AE64" s="1"/>
+      <c r="AF64" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="AG64" s="1"/>
+      <c r="AH64" s="1"/>
+      <c r="AI64" s="1"/>
+      <c r="AJ64" s="1"/>
       <c r="AK64" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL64" s="1"/>
+      <c r="AM64" s="1"/>
+      <c r="AN64" s="1"/>
+      <c r="AO64" s="1"/>
+      <c r="AP64" s="1"/>
+      <c r="AQ64" s="1"/>
+      <c r="AR64" s="1"/>
+      <c r="AS64" s="1"/>
+      <c r="AT64" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AU64" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV64" s="1"/>
+      <c r="AW64" s="1"/>
+      <c r="AX64" s="1"/>
+      <c r="AY64" s="1"/>
+      <c r="AZ64" s="1"/>
+      <c r="BA64" s="1"/>
+      <c r="BB64" s="1"/>
+      <c r="BC64" s="1"/>
+      <c r="BD64" s="1"/>
+      <c r="BE64" s="1"/>
+      <c r="BF64" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="BG64" s="0"/>
+      <c r="BH64" s="0"/>
+      <c r="BI64" s="0"/>
+      <c r="BJ64" s="0"/>
+      <c r="BK64" s="0"/>
+      <c r="BL64" s="0"/>
+      <c r="BM64" s="0"/>
+      <c r="BN64" s="0"/>
+      <c r="BO64" s="0"/>
+      <c r="BP64" s="0"/>
+    </row>
+    <row r="65" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1"/>
+      <c r="B65" s="5" t="n">
+        <v>45300.5710648148</v>
+      </c>
+      <c r="C65" s="9" t="n">
+        <v>41.954183</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>-87.731145</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="0"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
+      <c r="AB65" s="1"/>
+      <c r="AC65" s="1"/>
+      <c r="AD65" s="1"/>
+      <c r="AE65" s="1"/>
+      <c r="AF65" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="AG65" s="1"/>
+      <c r="AH65" s="1"/>
+      <c r="AI65" s="1"/>
+      <c r="AJ65" s="1"/>
+      <c r="AK65" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL65" s="1"/>
+      <c r="AM65" s="1"/>
+      <c r="AN65" s="1"/>
+      <c r="AO65" s="1"/>
+      <c r="AP65" s="1"/>
+      <c r="AQ65" s="1"/>
+      <c r="AR65" s="1"/>
+      <c r="AS65" s="1"/>
+      <c r="AT65" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AU65" s="1"/>
+      <c r="AV65" s="1"/>
+      <c r="AW65" s="1"/>
+      <c r="AX65" s="1"/>
+      <c r="AY65" s="1"/>
+      <c r="AZ65" s="1"/>
+      <c r="BA65" s="1"/>
+      <c r="BB65" s="1"/>
+      <c r="BC65" s="1"/>
+      <c r="BD65" s="1"/>
+      <c r="BE65" s="1"/>
+      <c r="BF65" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="BG65" s="0"/>
+      <c r="BH65" s="0"/>
+      <c r="BI65" s="0"/>
+      <c r="BJ65" s="0"/>
+      <c r="BK65" s="0"/>
+      <c r="BL65" s="0"/>
+      <c r="BM65" s="0"/>
+      <c r="BN65" s="0"/>
+      <c r="BO65" s="0"/>
+      <c r="BP65" s="0"/>
+    </row>
+    <row r="66" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1"/>
+      <c r="B66" s="5" t="n">
+        <v>45300.5780092593</v>
+      </c>
+      <c r="C66" s="9" t="n">
+        <v>41.951087</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>-87.74732</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="0"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="1"/>
+      <c r="AA66" s="1"/>
+      <c r="AB66" s="1"/>
+      <c r="AC66" s="1"/>
+      <c r="AD66" s="1"/>
+      <c r="AE66" s="1"/>
+      <c r="AF66" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="AG66" s="1"/>
+      <c r="AH66" s="1"/>
+      <c r="AI66" s="1"/>
+      <c r="AJ66" s="1"/>
+      <c r="AK66" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="AT64" s="1" t="s">
+      <c r="AL66" s="1"/>
+      <c r="AM66" s="1"/>
+      <c r="AN66" s="1"/>
+      <c r="AO66" s="1"/>
+      <c r="AP66" s="1"/>
+      <c r="AQ66" s="1"/>
+      <c r="AR66" s="1"/>
+      <c r="AS66" s="1"/>
+      <c r="AT66" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="BF64" s="1" t="n">
+      <c r="AU66" s="1"/>
+      <c r="AV66" s="1"/>
+      <c r="AW66" s="1"/>
+      <c r="AX66" s="1"/>
+      <c r="AY66" s="1"/>
+      <c r="AZ66" s="1"/>
+      <c r="BA66" s="1"/>
+      <c r="BB66" s="1"/>
+      <c r="BC66" s="1"/>
+      <c r="BD66" s="1"/>
+      <c r="BE66" s="1"/>
+      <c r="BF66" s="1" t="n">
         <v>52</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="5" t="n">
+      <c r="BG66" s="0"/>
+      <c r="BH66" s="0"/>
+      <c r="BI66" s="0"/>
+      <c r="BJ66" s="0"/>
+      <c r="BK66" s="0"/>
+      <c r="BL66" s="0"/>
+      <c r="BM66" s="0"/>
+      <c r="BN66" s="0"/>
+      <c r="BO66" s="0"/>
+      <c r="BP66" s="0"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="5" t="n">
         <v>45300.5918981482</v>
       </c>
-      <c r="C65" s="1" t="n">
+      <c r="C67" s="1" t="n">
         <v>41.9497736</v>
       </c>
-      <c r="D65" s="1" t="n">
+      <c r="D67" s="1" t="n">
         <v>-87.7534868</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="I67" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AF65" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AK65" s="1" t="s">
+      <c r="AF67" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AK67" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AT65" s="1" t="s">
+      <c r="AT67" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="BF65" s="1" t="n">
+      <c r="BF67" s="1" t="n">
         <v>53</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="5" t="n">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="5" t="n">
         <v>45310.59375</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="U66" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="V66" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="X66" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="Y66" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="AE66" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="AF66" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="AG66" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="AH66" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="AK66" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AQ66" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="AR66" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="AT66" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AU66" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BF66" s="1" t="n">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="5" t="n">
-        <v>45310.6076388889</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M67" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="P67" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="Z67" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="AF67" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="AG67" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="AH67" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="AT67" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU67" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BF67" s="1" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="68" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1"/>
-      <c r="B68" s="5" t="n">
-        <v>45310.6472222222</v>
-      </c>
       <c r="C68" s="1" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
+        <v>425</v>
+      </c>
       <c r="I68" s="1" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
       <c r="M68" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
+        <v>352</v>
+      </c>
       <c r="P68" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="1"/>
-      <c r="S68" s="1"/>
-      <c r="T68" s="1"/>
-      <c r="U68" s="0"/>
-      <c r="V68" s="1"/>
-      <c r="W68" s="1"/>
-      <c r="X68" s="1"/>
-      <c r="Y68" s="1"/>
-      <c r="Z68" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="AA68" s="1"/>
-      <c r="AB68" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AC68" s="1"/>
-      <c r="AD68" s="1"/>
+        <v>426</v>
+      </c>
+      <c r="U68" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="V68" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="X68" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y68" s="1" t="s">
+        <v>430</v>
+      </c>
       <c r="AE68" s="1" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="AF68" s="1" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="AG68" s="1" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="AH68" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="AI68" s="1"/>
-      <c r="AJ68" s="1"/>
-      <c r="AK68" s="1"/>
-      <c r="AL68" s="1"/>
-      <c r="AM68" s="1"/>
-      <c r="AN68" s="1"/>
-      <c r="AO68" s="1"/>
-      <c r="AP68" s="1"/>
-      <c r="AQ68" s="1"/>
-      <c r="AR68" s="1"/>
-      <c r="AS68" s="1"/>
+        <v>425</v>
+      </c>
+      <c r="AK68" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ68" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="AR68" s="1" t="s">
+        <v>433</v>
+      </c>
       <c r="AT68" s="1" t="s">
-        <v>327</v>
+        <v>119</v>
       </c>
       <c r="AU68" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AV68" s="1"/>
-      <c r="AW68" s="1"/>
-      <c r="AX68" s="1"/>
-      <c r="AY68" s="1"/>
-      <c r="AZ68" s="1"/>
-      <c r="BA68" s="1"/>
-      <c r="BB68" s="1"/>
-      <c r="BC68" s="1"/>
-      <c r="BD68" s="1"/>
-      <c r="BE68" s="1"/>
       <c r="BF68" s="1" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="69" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="5" t="n">
-        <v>45316.9041666667</v>
+        <v>45310.6076388889</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>356</v>
+        <v>82</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
       <c r="M69" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
       <c r="P69" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q69" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="R69" s="1"/>
-      <c r="S69" s="1"/>
-      <c r="T69" s="1"/>
-      <c r="U69" s="0"/>
-      <c r="V69" s="1"/>
-      <c r="W69" s="1"/>
-      <c r="X69" s="1"/>
-      <c r="Y69" s="1"/>
+        <v>436</v>
+      </c>
       <c r="Z69" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="AA69" s="1"/>
-      <c r="AB69" s="1"/>
-      <c r="AC69" s="1"/>
-      <c r="AD69" s="1"/>
-      <c r="AE69" s="1"/>
+        <v>437</v>
+      </c>
       <c r="AF69" s="1" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="AG69" s="1" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="AH69" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="AI69" s="1"/>
-      <c r="AJ69" s="1"/>
-      <c r="AK69" s="1"/>
-      <c r="AL69" s="1"/>
-      <c r="AM69" s="1"/>
-      <c r="AN69" s="1"/>
-      <c r="AO69" s="1"/>
-      <c r="AP69" s="1"/>
-      <c r="AQ69" s="1"/>
-      <c r="AR69" s="1"/>
-      <c r="AS69" s="1"/>
+        <v>435</v>
+      </c>
       <c r="AT69" s="1" t="s">
-        <v>356</v>
+        <v>82</v>
       </c>
       <c r="AU69" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AV69" s="1"/>
-      <c r="AW69" s="1"/>
-      <c r="AX69" s="1"/>
-      <c r="AY69" s="1"/>
-      <c r="AZ69" s="1"/>
-      <c r="BA69" s="1"/>
-      <c r="BB69" s="1"/>
-      <c r="BC69" s="1"/>
-      <c r="BD69" s="1"/>
-      <c r="BE69" s="1"/>
       <c r="BF69" s="1" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="5" t="n">
+        <v>45310.6472222222</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="U70" s="1"/>
+      <c r="Z70" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AB70" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE70" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AF70" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="AG70" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="AH70" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AT70" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="AU70" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BF70" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="BG70" s="7"/>
+      <c r="BH70" s="7"/>
+      <c r="BI70" s="7"/>
+      <c r="BJ70" s="7"/>
+      <c r="BK70" s="7"/>
+      <c r="BL70" s="7"/>
+      <c r="BM70" s="7"/>
+      <c r="BN70" s="7"/>
+      <c r="BO70" s="7"/>
+      <c r="BP70" s="7"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="5" t="n">
+        <v>45316.9041666667</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="U71" s="1"/>
+      <c r="Z71" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="AF71" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="AG71" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="AH71" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="AT71" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AU71" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BF71" s="1" t="n">
         <v>57</v>
       </c>
-    </row>
-    <row r="70" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1"/>
-      <c r="B70" s="5" t="n">
+      <c r="BG71" s="7"/>
+      <c r="BH71" s="7"/>
+      <c r="BI71" s="7"/>
+      <c r="BJ71" s="7"/>
+      <c r="BK71" s="7"/>
+      <c r="BL71" s="7"/>
+      <c r="BM71" s="7"/>
+      <c r="BN71" s="7"/>
+      <c r="BO71" s="7"/>
+      <c r="BP71" s="7"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="5" t="n">
         <v>45706.0152777778</v>
       </c>
-      <c r="C70" s="1" t="n">
+      <c r="C72" s="1" t="n">
         <v>41.887</v>
       </c>
-      <c r="D70" s="1" t="n">
+      <c r="D72" s="1" t="n">
         <v>-87.6265</v>
       </c>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
-      <c r="R70" s="1"/>
-      <c r="S70" s="1"/>
-      <c r="T70" s="1"/>
-      <c r="U70" s="0"/>
-      <c r="V70" s="1"/>
-      <c r="W70" s="1"/>
-      <c r="X70" s="1"/>
-      <c r="Y70" s="1"/>
-      <c r="Z70" s="1"/>
-      <c r="AA70" s="1"/>
-      <c r="AB70" s="1"/>
-      <c r="AC70" s="1"/>
-      <c r="AD70" s="1"/>
-      <c r="AE70" s="0"/>
-      <c r="AF70" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="AG70" s="1"/>
-      <c r="AH70" s="1"/>
-      <c r="AI70" s="1"/>
-      <c r="AJ70" s="1"/>
-      <c r="AK70" s="1"/>
-      <c r="AL70" s="1"/>
-      <c r="AM70" s="1"/>
-      <c r="AN70" s="1"/>
-      <c r="AO70" s="1"/>
-      <c r="AP70" s="1"/>
-      <c r="AQ70" s="1"/>
-      <c r="AR70" s="1"/>
-      <c r="AS70" s="1"/>
-      <c r="AT70" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU70" s="1"/>
-      <c r="AV70" s="1"/>
-      <c r="AW70" s="1"/>
-      <c r="AX70" s="1"/>
-      <c r="AY70" s="1"/>
-      <c r="AZ70" s="1"/>
-      <c r="BA70" s="1"/>
-      <c r="BB70" s="1"/>
-      <c r="BC70" s="1"/>
-      <c r="BD70" s="1"/>
-      <c r="BE70" s="1"/>
-      <c r="BF70" s="1"/>
-    </row>
-    <row r="71" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1"/>
-      <c r="B71" s="5" t="n">
-        <v>45706.0381944444</v>
-      </c>
-      <c r="C71" s="1" t="n">
-        <v>41.885</v>
-      </c>
-      <c r="D71" s="1" t="n">
-        <v>-87.627</v>
-      </c>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
-      <c r="S71" s="1"/>
-      <c r="T71" s="1"/>
-      <c r="U71" s="0"/>
-      <c r="V71" s="1"/>
-      <c r="W71" s="1"/>
-      <c r="X71" s="1"/>
-      <c r="Y71" s="1"/>
-      <c r="Z71" s="1"/>
-      <c r="AA71" s="1"/>
-      <c r="AB71" s="1"/>
-      <c r="AC71" s="1"/>
-      <c r="AD71" s="1"/>
-      <c r="AE71" s="0"/>
-      <c r="AF71" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="AG71" s="1"/>
-      <c r="AH71" s="1"/>
-      <c r="AI71" s="1"/>
-      <c r="AJ71" s="1"/>
-      <c r="AK71" s="1"/>
-      <c r="AL71" s="1"/>
-      <c r="AM71" s="1"/>
-      <c r="AN71" s="1"/>
-      <c r="AO71" s="1"/>
-      <c r="AP71" s="1"/>
-      <c r="AQ71" s="1"/>
-      <c r="AR71" s="1"/>
-      <c r="AS71" s="1"/>
-      <c r="AT71" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU71" s="1"/>
-      <c r="AV71" s="1"/>
-      <c r="AW71" s="1"/>
-      <c r="AX71" s="1"/>
-      <c r="AY71" s="1"/>
-      <c r="AZ71" s="1"/>
-      <c r="BA71" s="1"/>
-      <c r="BB71" s="1"/>
-      <c r="BC71" s="1"/>
-      <c r="BD71" s="1"/>
-      <c r="BE71" s="1"/>
-      <c r="BF71" s="1"/>
-    </row>
-    <row r="72" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1"/>
-      <c r="B72" s="5" t="n">
-        <v>45706.0611111111</v>
-      </c>
-      <c r="C72" s="1" t="n">
-        <v>41.884</v>
-      </c>
-      <c r="D72" s="1" t="n">
-        <v>-87.6285</v>
-      </c>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
-      <c r="R72" s="1"/>
-      <c r="S72" s="1"/>
-      <c r="T72" s="1"/>
-      <c r="U72" s="0"/>
-      <c r="V72" s="1"/>
-      <c r="W72" s="1"/>
-      <c r="X72" s="1"/>
-      <c r="Y72" s="1"/>
-      <c r="Z72" s="1"/>
-      <c r="AA72" s="1"/>
-      <c r="AB72" s="1"/>
-      <c r="AC72" s="1"/>
-      <c r="AD72" s="1"/>
-      <c r="AE72" s="0"/>
+      <c r="U72" s="1"/>
       <c r="AF72" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="AG72" s="1"/>
-      <c r="AH72" s="1"/>
-      <c r="AI72" s="1"/>
-      <c r="AJ72" s="1"/>
-      <c r="AK72" s="1"/>
-      <c r="AL72" s="1"/>
-      <c r="AM72" s="1"/>
-      <c r="AN72" s="1"/>
-      <c r="AO72" s="1"/>
-      <c r="AP72" s="1"/>
-      <c r="AQ72" s="1"/>
-      <c r="AR72" s="1"/>
-      <c r="AS72" s="1"/>
+        <v>452</v>
+      </c>
       <c r="AT72" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AU72" s="1"/>
-      <c r="AV72" s="1"/>
-      <c r="AW72" s="1"/>
-      <c r="AX72" s="1"/>
-      <c r="AY72" s="1"/>
-      <c r="AZ72" s="1"/>
-      <c r="BA72" s="1"/>
-      <c r="BB72" s="1"/>
-      <c r="BC72" s="1"/>
-      <c r="BD72" s="1"/>
-      <c r="BE72" s="1"/>
-      <c r="BF72" s="1"/>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BG72" s="7"/>
+      <c r="BH72" s="7"/>
+      <c r="BI72" s="7"/>
+      <c r="BJ72" s="7"/>
+      <c r="BK72" s="7"/>
+      <c r="BL72" s="7"/>
+      <c r="BM72" s="7"/>
+      <c r="BN72" s="7"/>
+      <c r="BO72" s="7"/>
+      <c r="BP72" s="7"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="5" t="n">
-        <v>45706.0840277778</v>
+        <v>45706.0381944444</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>41.8835</v>
+        <v>41.885</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>-87.6305</v>
-      </c>
-      <c r="AE73" s="0"/>
+        <v>-87.627</v>
+      </c>
+      <c r="U73" s="1"/>
       <c r="AF73" s="1" t="s">
-        <v>431</v>
+        <v>453</v>
       </c>
       <c r="AT73" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BG73" s="7"/>
+      <c r="BH73" s="7"/>
+      <c r="BI73" s="7"/>
+      <c r="BJ73" s="7"/>
+      <c r="BK73" s="7"/>
+      <c r="BL73" s="7"/>
+      <c r="BM73" s="7"/>
+      <c r="BN73" s="7"/>
+      <c r="BO73" s="7"/>
+      <c r="BP73" s="7"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="5" t="n">
-        <v>45706.1069444444</v>
+        <v>45706.0611111111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>41.8845</v>
+        <v>41.884</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>-87.632</v>
-      </c>
-      <c r="AE74" s="0"/>
+        <v>-87.6285</v>
+      </c>
+      <c r="U74" s="1"/>
       <c r="AF74" s="1" t="s">
-        <v>432</v>
+        <v>454</v>
       </c>
       <c r="AT74" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="G75" s="8" t="n">
-        <v>2447</v>
-      </c>
-      <c r="H75" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="I75" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="J75" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="8"/>
-      <c r="P75" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q75" s="8"/>
-      <c r="R75" s="8"/>
-      <c r="S75" s="8"/>
-      <c r="T75" s="8"/>
-      <c r="U75" s="8"/>
-      <c r="V75" s="8" t="s">
+      <c r="BG74" s="7"/>
+      <c r="BH74" s="7"/>
+      <c r="BI74" s="7"/>
+      <c r="BJ74" s="7"/>
+      <c r="BK74" s="7"/>
+      <c r="BL74" s="7"/>
+      <c r="BM74" s="7"/>
+      <c r="BN74" s="7"/>
+      <c r="BO74" s="7"/>
+      <c r="BP74" s="7"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="5" t="n">
+        <v>45706.0840277778</v>
+      </c>
+      <c r="C75" s="1" t="n">
+        <v>41.8835</v>
+      </c>
+      <c r="D75" s="1" t="n">
+        <v>-87.6305</v>
+      </c>
+      <c r="AF75" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT75" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="5" t="n">
+        <v>45706.1069444444</v>
+      </c>
+      <c r="C76" s="1" t="n">
+        <v>41.8845</v>
+      </c>
+      <c r="D76" s="1" t="n">
+        <v>-87.632</v>
+      </c>
+      <c r="AF76" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="AT76" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7" t="n">
+        <v>1084</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q77" s="7"/>
+      <c r="R77" s="7"/>
+      <c r="S77" s="7"/>
+      <c r="T77" s="7"/>
+      <c r="U77" s="7"/>
+      <c r="V77" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="W75" s="8"/>
-      <c r="X75" s="8" t="s">
+      <c r="W77" s="7"/>
+      <c r="X77" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="Y75" s="8"/>
-      <c r="Z75" s="8"/>
-      <c r="AA75" s="8" t="n">
-        <v>-95</v>
-      </c>
-      <c r="AB75" s="8"/>
-      <c r="AC75" s="8"/>
-      <c r="AD75" s="8"/>
-      <c r="AE75" s="8"/>
-      <c r="AF75" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="AG75" s="8"/>
-      <c r="AH75" s="8"/>
-      <c r="AI75" s="8"/>
-      <c r="AJ75" s="8"/>
-      <c r="AK75" s="8"/>
-      <c r="AL75" s="8"/>
-      <c r="AM75" s="8"/>
-      <c r="AN75" s="8"/>
-      <c r="AO75" s="8"/>
-      <c r="AP75" s="8"/>
-      <c r="AQ75" s="8"/>
-      <c r="AR75" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="AS75" s="8"/>
-      <c r="AT75" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="AU75" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="AV75" s="8"/>
-      <c r="AW75" s="8"/>
-      <c r="AX75" s="8"/>
-      <c r="AY75" s="8"/>
-      <c r="AZ75" s="8"/>
-      <c r="BA75" s="8"/>
-      <c r="BB75" s="8"/>
-      <c r="BC75" s="8"/>
-      <c r="BD75" s="8"/>
-      <c r="BE75" s="8"/>
-      <c r="BF75" s="8"/>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8" t="n">
-        <v>1084</v>
-      </c>
-      <c r="H76" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="I76" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="J76" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
-      <c r="P76" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q76" s="8"/>
-      <c r="R76" s="8"/>
-      <c r="S76" s="8"/>
-      <c r="T76" s="8"/>
-      <c r="U76" s="8"/>
-      <c r="V76" s="8" t="s">
+      <c r="Y77" s="7"/>
+      <c r="Z77" s="7"/>
+      <c r="AA77" s="7" t="n">
+        <v>-94</v>
+      </c>
+      <c r="AB77" s="7"/>
+      <c r="AC77" s="7"/>
+      <c r="AD77" s="7"/>
+      <c r="AE77" s="7"/>
+      <c r="AF77" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="AG77" s="7"/>
+      <c r="AH77" s="7"/>
+      <c r="AI77" s="7"/>
+      <c r="AJ77" s="7"/>
+      <c r="AK77" s="7"/>
+      <c r="AL77" s="7"/>
+      <c r="AM77" s="7"/>
+      <c r="AN77" s="7"/>
+      <c r="AO77" s="7"/>
+      <c r="AP77" s="7"/>
+      <c r="AQ77" s="7"/>
+      <c r="AR77" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="AS77" s="7"/>
+      <c r="AT77" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="AU77" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="AV77" s="7"/>
+      <c r="AW77" s="7"/>
+      <c r="AX77" s="7"/>
+      <c r="AY77" s="7"/>
+      <c r="AZ77" s="7"/>
+      <c r="BA77" s="7"/>
+      <c r="BB77" s="7"/>
+      <c r="BC77" s="7"/>
+      <c r="BD77" s="7"/>
+      <c r="BE77" s="7"/>
+      <c r="BF77" s="7"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7" t="n">
+        <v>66536</v>
+      </c>
+      <c r="G78" s="7" t="n">
+        <v>66536</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q78" s="7"/>
+      <c r="R78" s="7"/>
+      <c r="S78" s="7"/>
+      <c r="T78" s="7"/>
+      <c r="U78" s="7"/>
+      <c r="V78" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="W76" s="8"/>
-      <c r="X76" s="8" t="s">
+      <c r="W78" s="7"/>
+      <c r="X78" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="Y76" s="8"/>
-      <c r="Z76" s="8"/>
-      <c r="AA76" s="8" t="n">
-        <v>-94</v>
-      </c>
-      <c r="AB76" s="8"/>
-      <c r="AC76" s="8"/>
-      <c r="AD76" s="8"/>
-      <c r="AE76" s="8"/>
-      <c r="AF76" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="AG76" s="8"/>
-      <c r="AH76" s="8"/>
-      <c r="AI76" s="8"/>
-      <c r="AJ76" s="8"/>
-      <c r="AK76" s="8"/>
-      <c r="AL76" s="8"/>
-      <c r="AM76" s="8"/>
-      <c r="AN76" s="8"/>
-      <c r="AO76" s="8"/>
-      <c r="AP76" s="8"/>
-      <c r="AQ76" s="8"/>
-      <c r="AR76" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="AS76" s="8"/>
-      <c r="AT76" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="AU76" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="AV76" s="8"/>
-      <c r="AW76" s="8"/>
-      <c r="AX76" s="8"/>
-      <c r="AY76" s="8"/>
-      <c r="AZ76" s="8"/>
-      <c r="BA76" s="8"/>
-      <c r="BB76" s="8"/>
-      <c r="BC76" s="8"/>
-      <c r="BD76" s="8"/>
-      <c r="BE76" s="8"/>
-      <c r="BF76" s="8"/>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8" t="n">
-        <v>66536</v>
-      </c>
-      <c r="G77" s="8" t="n">
-        <v>66536</v>
-      </c>
-      <c r="H77" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="I77" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="J77" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
-      <c r="P77" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q77" s="8"/>
-      <c r="R77" s="8"/>
-      <c r="S77" s="8"/>
-      <c r="T77" s="8"/>
-      <c r="U77" s="8"/>
-      <c r="V77" s="8" t="s">
+      <c r="Y78" s="7"/>
+      <c r="Z78" s="7"/>
+      <c r="AA78" s="7" t="n">
+        <v>-113</v>
+      </c>
+      <c r="AB78" s="7"/>
+      <c r="AC78" s="7"/>
+      <c r="AD78" s="7"/>
+      <c r="AE78" s="7"/>
+      <c r="AF78" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="AG78" s="7"/>
+      <c r="AH78" s="7"/>
+      <c r="AI78" s="7"/>
+      <c r="AJ78" s="7"/>
+      <c r="AK78" s="7"/>
+      <c r="AL78" s="7"/>
+      <c r="AM78" s="7"/>
+      <c r="AN78" s="7"/>
+      <c r="AO78" s="7"/>
+      <c r="AP78" s="7"/>
+      <c r="AQ78" s="7"/>
+      <c r="AR78" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="AS78" s="7"/>
+      <c r="AT78" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="AU78" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="AV78" s="7"/>
+      <c r="AW78" s="7"/>
+      <c r="AX78" s="7"/>
+      <c r="AY78" s="7"/>
+      <c r="AZ78" s="7"/>
+      <c r="BA78" s="7"/>
+      <c r="BB78" s="7"/>
+      <c r="BC78" s="7"/>
+      <c r="BD78" s="7"/>
+      <c r="BE78" s="7"/>
+      <c r="BF78" s="7"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7" t="n">
+        <v>7936</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7"/>
+      <c r="S79" s="7"/>
+      <c r="T79" s="7"/>
+      <c r="U79" s="7"/>
+      <c r="V79" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="W77" s="8"/>
-      <c r="X77" s="8" t="s">
+      <c r="W79" s="7"/>
+      <c r="X79" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="Y77" s="8"/>
-      <c r="Z77" s="8"/>
-      <c r="AA77" s="8" t="n">
+      <c r="Y79" s="7"/>
+      <c r="Z79" s="7"/>
+      <c r="AA79" s="7" t="n">
+        <v>-98</v>
+      </c>
+      <c r="AB79" s="7"/>
+      <c r="AC79" s="7"/>
+      <c r="AD79" s="7"/>
+      <c r="AE79" s="7"/>
+      <c r="AF79" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="AG79" s="7"/>
+      <c r="AH79" s="7"/>
+      <c r="AI79" s="7"/>
+      <c r="AJ79" s="7"/>
+      <c r="AK79" s="7"/>
+      <c r="AL79" s="7"/>
+      <c r="AM79" s="7"/>
+      <c r="AN79" s="7"/>
+      <c r="AO79" s="7"/>
+      <c r="AP79" s="7"/>
+      <c r="AQ79" s="7"/>
+      <c r="AR79" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="AS79" s="7"/>
+      <c r="AT79" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="AU79" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="AV79" s="7"/>
+      <c r="AW79" s="7"/>
+      <c r="AX79" s="7"/>
+      <c r="AY79" s="7"/>
+      <c r="AZ79" s="7"/>
+      <c r="BA79" s="7"/>
+      <c r="BB79" s="7"/>
+      <c r="BC79" s="7"/>
+      <c r="BD79" s="7"/>
+      <c r="BE79" s="7"/>
+      <c r="BF79" s="7"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7" t="n">
+        <v>2560</v>
+      </c>
+      <c r="G80" s="7" t="n">
+        <v>2560</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q80" s="7"/>
+      <c r="R80" s="7"/>
+      <c r="S80" s="7"/>
+      <c r="T80" s="7"/>
+      <c r="U80" s="7"/>
+      <c r="V80" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="W80" s="7"/>
+      <c r="X80" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y80" s="7"/>
+      <c r="Z80" s="7"/>
+      <c r="AA80" s="7" t="n">
         <v>-113</v>
       </c>
-      <c r="AB77" s="8"/>
-      <c r="AC77" s="8"/>
-      <c r="AD77" s="8"/>
-      <c r="AE77" s="8"/>
-      <c r="AF77" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="AG77" s="8"/>
-      <c r="AH77" s="8"/>
-      <c r="AI77" s="8"/>
-      <c r="AJ77" s="8"/>
-      <c r="AK77" s="8"/>
-      <c r="AL77" s="8"/>
-      <c r="AM77" s="8"/>
-      <c r="AN77" s="8"/>
-      <c r="AO77" s="8"/>
-      <c r="AP77" s="8"/>
-      <c r="AQ77" s="8"/>
-      <c r="AR77" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="AS77" s="8"/>
-      <c r="AT77" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="AU77" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="AV77" s="8"/>
-      <c r="AW77" s="8"/>
-      <c r="AX77" s="8"/>
-      <c r="AY77" s="8"/>
-      <c r="AZ77" s="8"/>
-      <c r="BA77" s="8"/>
-      <c r="BB77" s="8"/>
-      <c r="BC77" s="8"/>
-      <c r="BD77" s="8"/>
-      <c r="BE77" s="8"/>
-      <c r="BF77" s="8"/>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8" t="n">
-        <v>7936</v>
-      </c>
-      <c r="H78" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="I78" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="J78" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8"/>
-      <c r="O78" s="8"/>
-      <c r="P78" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="Q78" s="8"/>
-      <c r="R78" s="8"/>
-      <c r="S78" s="8"/>
-      <c r="T78" s="8"/>
-      <c r="U78" s="8"/>
-      <c r="V78" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="W78" s="8"/>
-      <c r="X78" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y78" s="8"/>
-      <c r="Z78" s="8"/>
-      <c r="AA78" s="8" t="n">
-        <v>-98</v>
-      </c>
-      <c r="AB78" s="8"/>
-      <c r="AC78" s="8"/>
-      <c r="AD78" s="8"/>
-      <c r="AE78" s="8"/>
-      <c r="AF78" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="AG78" s="8"/>
-      <c r="AH78" s="8"/>
-      <c r="AI78" s="8"/>
-      <c r="AJ78" s="8"/>
-      <c r="AK78" s="8"/>
-      <c r="AL78" s="8"/>
-      <c r="AM78" s="8"/>
-      <c r="AN78" s="8"/>
-      <c r="AO78" s="8"/>
-      <c r="AP78" s="8"/>
-      <c r="AQ78" s="8"/>
-      <c r="AR78" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="AS78" s="8"/>
-      <c r="AT78" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="AU78" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="AV78" s="8"/>
-      <c r="AW78" s="8"/>
-      <c r="AX78" s="8"/>
-      <c r="AY78" s="8"/>
-      <c r="AZ78" s="8"/>
-      <c r="BA78" s="8"/>
-      <c r="BB78" s="8"/>
-      <c r="BC78" s="8"/>
-      <c r="BD78" s="8"/>
-      <c r="BE78" s="8"/>
-      <c r="BF78" s="8"/>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8" t="n">
-        <v>2560</v>
-      </c>
-      <c r="G79" s="8" t="n">
-        <v>2560</v>
-      </c>
-      <c r="H79" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="I79" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="J79" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
-      <c r="O79" s="8"/>
-      <c r="P79" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q79" s="8"/>
-      <c r="R79" s="8"/>
-      <c r="S79" s="8"/>
-      <c r="T79" s="8"/>
-      <c r="U79" s="8"/>
-      <c r="V79" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="W79" s="8"/>
-      <c r="X79" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y79" s="8"/>
-      <c r="Z79" s="8"/>
-      <c r="AA79" s="8" t="n">
-        <v>-113</v>
-      </c>
-      <c r="AB79" s="8"/>
-      <c r="AC79" s="8"/>
-      <c r="AD79" s="8"/>
-      <c r="AE79" s="8"/>
-      <c r="AF79" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="AG79" s="8"/>
-      <c r="AH79" s="8"/>
-      <c r="AI79" s="8"/>
-      <c r="AJ79" s="8"/>
-      <c r="AK79" s="8"/>
-      <c r="AL79" s="8"/>
-      <c r="AM79" s="8"/>
-      <c r="AN79" s="8"/>
-      <c r="AO79" s="8"/>
-      <c r="AP79" s="8"/>
-      <c r="AQ79" s="8"/>
-      <c r="AR79" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="AS79" s="8"/>
-      <c r="AT79" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="AU79" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="AV79" s="8"/>
-      <c r="AW79" s="8"/>
-      <c r="AX79" s="8"/>
-      <c r="AY79" s="8"/>
-      <c r="AZ79" s="8"/>
-      <c r="BA79" s="8"/>
-      <c r="BB79" s="8"/>
-      <c r="BC79" s="8"/>
-      <c r="BD79" s="8"/>
-      <c r="BE79" s="8"/>
-      <c r="BF79" s="8"/>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C80" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="I80" s="1" t="s">
+      <c r="AB80" s="7"/>
+      <c r="AC80" s="7"/>
+      <c r="AD80" s="7"/>
+      <c r="AE80" s="7"/>
+      <c r="AF80" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="AG80" s="7"/>
+      <c r="AH80" s="7"/>
+      <c r="AI80" s="7"/>
+      <c r="AJ80" s="7"/>
+      <c r="AK80" s="7"/>
+      <c r="AL80" s="7"/>
+      <c r="AM80" s="7"/>
+      <c r="AN80" s="7"/>
+      <c r="AO80" s="7"/>
+      <c r="AP80" s="7"/>
+      <c r="AQ80" s="7"/>
+      <c r="AR80" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="AS80" s="7"/>
+      <c r="AT80" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="AU80" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="AV80" s="7"/>
+      <c r="AW80" s="7"/>
+      <c r="AX80" s="7"/>
+      <c r="AY80" s="7"/>
+      <c r="AZ80" s="7"/>
+      <c r="BA80" s="7"/>
+      <c r="BB80" s="7"/>
+      <c r="BC80" s="7"/>
+      <c r="BD80" s="7"/>
+      <c r="BE80" s="7"/>
+      <c r="BF80" s="7"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0"/>
+      <c r="B81" s="0"/>
+      <c r="C81" s="0"/>
+      <c r="D81" s="0"/>
+      <c r="E81" s="0"/>
+      <c r="F81" s="0"/>
+      <c r="G81" s="0"/>
+      <c r="H81" s="0"/>
+      <c r="I81" s="0"/>
+      <c r="J81" s="0"/>
+      <c r="K81" s="0"/>
+      <c r="L81" s="0"/>
+      <c r="M81" s="0"/>
+      <c r="N81" s="0"/>
+      <c r="O81" s="0"/>
+      <c r="P81" s="0"/>
+      <c r="Q81" s="0"/>
+      <c r="R81" s="0"/>
+      <c r="S81" s="0"/>
+      <c r="T81" s="0"/>
+      <c r="V81" s="0"/>
+      <c r="W81" s="0"/>
+      <c r="X81" s="0"/>
+      <c r="Y81" s="0"/>
+      <c r="Z81" s="0"/>
+      <c r="AA81" s="0"/>
+      <c r="AB81" s="0"/>
+      <c r="AC81" s="0"/>
+      <c r="AD81" s="0"/>
+      <c r="AE81" s="0"/>
+      <c r="AF81" s="0"/>
+      <c r="AG81" s="0"/>
+      <c r="AH81" s="0"/>
+      <c r="AI81" s="0"/>
+      <c r="AJ81" s="0"/>
+      <c r="AK81" s="0"/>
+      <c r="AL81" s="0"/>
+      <c r="AM81" s="0"/>
+      <c r="AN81" s="0"/>
+      <c r="AO81" s="0"/>
+      <c r="AP81" s="0"/>
+      <c r="AQ81" s="0"/>
+      <c r="AR81" s="0"/>
+      <c r="AS81" s="0"/>
+      <c r="AT81" s="0"/>
+      <c r="AU81" s="0"/>
+      <c r="AV81" s="0"/>
+      <c r="AW81" s="0"/>
+      <c r="AX81" s="0"/>
+      <c r="AY81" s="0"/>
+      <c r="AZ81" s="0"/>
+      <c r="BA81" s="0"/>
+      <c r="BB81" s="0"/>
+      <c r="BC81" s="0"/>
+      <c r="BD81" s="0"/>
+      <c r="BE81" s="0"/>
+      <c r="BF81" s="0"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C82" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="I82" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="M80" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="P80" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q80" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="Z80" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AF80" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="AG80" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="AH80" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="AT80" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU80" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BF80" s="1" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E81" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="M81" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="P81" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="U81" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="V81" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="W81" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="X81" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT81" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="AU81" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BF81" s="1" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C82" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="L82" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="P82" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="T82" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="U82" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="V82" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y82" s="1" t="s">
-        <v>477</v>
+        <v>482</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>416</v>
       </c>
       <c r="Z82" s="1" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="AF82" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="AG82" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="AG82" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="AH82" s="1" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="AT82" s="1" t="s">
-        <v>480</v>
+        <v>60</v>
       </c>
       <c r="AU82" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AZ82" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="BA82" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="BB82" s="1" t="n">
-        <v>30</v>
-      </c>
       <c r="BF82" s="1" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E83" s="1" t="s">
+        <v>485</v>
+      </c>
       <c r="I83" s="1" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="L83" s="1" t="s">
+        <v>486</v>
+      </c>
       <c r="M83" s="1" t="s">
         <v>139</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="V83" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="W83" s="1" t="s">
+        <v>342</v>
       </c>
       <c r="X83" s="1" t="s">
         <v>65</v>
       </c>
       <c r="AT83" s="1" t="s">
-        <v>59</v>
+        <v>318</v>
       </c>
       <c r="AU83" s="1" t="s">
         <v>151</v>
       </c>
       <c r="BF83" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C84" s="1" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>59</v>
@@ -7494,110 +7889,89 @@
       <c r="J84" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M84" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="P84" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="Q84" s="1" t="s">
-        <v>486</v>
+        <v>491</v>
+      </c>
+      <c r="T84" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="U84" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V84" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y84" s="1" t="s">
+        <v>492</v>
       </c>
       <c r="Z84" s="1" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="AF84" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="AG84" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="AG84" s="1" t="s">
-        <v>482</v>
-      </c>
       <c r="AH84" s="1" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="AT84" s="1" t="s">
-        <v>59</v>
+        <v>495</v>
       </c>
       <c r="AU84" s="1" t="s">
         <v>151</v>
       </c>
+      <c r="AZ84" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="BA84" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="BB84" s="1" t="n">
+        <v>30</v>
+      </c>
       <c r="BF84" s="1" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C85" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>491</v>
-      </c>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I85" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L85" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="M85" s="1" t="s">
         <v>139</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q85" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="T85" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="U85" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="V85" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="W85" s="1" t="s">
-        <v>495</v>
-      </c>
       <c r="X85" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Y85" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="Z85" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="AF85" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="AG85" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="AH85" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="AT85" s="1" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="AU85" s="1" t="s">
         <v>151</v>
       </c>
       <c r="BF85" s="1" t="n">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="H86" s="1" t="s">
         <v>499</v>
       </c>
       <c r="I86" s="1" t="s">
@@ -7612,51 +7986,39 @@
       <c r="P86" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="S86" s="1" t="s">
+      <c r="Q86" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="T86" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="U86" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="V86" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="W86" s="1" t="s">
+      <c r="Z86" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="X86" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y86" s="1" t="s">
+      <c r="AF86" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="AF86" s="1" t="s">
-        <v>504</v>
-      </c>
       <c r="AG86" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="AH86" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="AH86" s="1" t="s">
-        <v>499</v>
-      </c>
       <c r="AT86" s="1" t="s">
-        <v>154</v>
+        <v>59</v>
       </c>
       <c r="AU86" s="1" t="s">
         <v>151</v>
       </c>
       <c r="BF86" s="1" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C87" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>506</v>
       </c>
       <c r="I87" s="1" t="s">
@@ -7665,154 +8027,138 @@
       <c r="J87" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="L87" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="M87" s="1" t="s">
         <v>139</v>
       </c>
       <c r="P87" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="R87" s="1" t="s">
+      <c r="Q87" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="S87" s="1" t="s">
-        <v>509</v>
       </c>
       <c r="T87" s="1" t="s">
         <v>509</v>
       </c>
       <c r="U87" s="1" t="s">
-        <v>510</v>
+        <v>145</v>
       </c>
       <c r="V87" s="1" t="s">
         <v>146</v>
       </c>
       <c r="W87" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="X87" s="1" t="s">
         <v>65</v>
       </c>
       <c r="Y87" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="Z87" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="AF87" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="AF87" s="1" t="s">
-        <v>513</v>
-      </c>
       <c r="AG87" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="AH87" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="AH87" s="1" t="s">
-        <v>506</v>
-      </c>
       <c r="AT87" s="1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="AU87" s="1" t="s">
         <v>151</v>
       </c>
       <c r="BF87" s="1" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C88" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>517</v>
-      </c>
       <c r="I88" s="1" t="s">
-        <v>518</v>
+        <v>59</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L88" s="1" t="s">
-        <v>471</v>
-      </c>
       <c r="M88" s="1" t="s">
         <v>139</v>
       </c>
       <c r="P88" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="S88" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="T88" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U88" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V88" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="W88" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="X88" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y88" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="AF88" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="Q88" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="U88" s="1"/>
-      <c r="Z88" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="AF88" s="1" t="s">
-        <v>521</v>
-      </c>
       <c r="AG88" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="AH88" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="AH88" s="1" t="s">
-        <v>515</v>
-      </c>
       <c r="AT88" s="1" t="s">
-        <v>261</v>
+        <v>154</v>
       </c>
       <c r="AU88" s="1" t="s">
         <v>151</v>
       </c>
       <c r="BF88" s="1" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C89" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>524</v>
+        <v>59</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="L89" s="1" t="s">
-        <v>524</v>
+        <v>59</v>
       </c>
       <c r="M89" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="N89" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="O89" s="1" t="s">
-        <v>524</v>
-      </c>
       <c r="P89" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="Q89" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
+      </c>
+      <c r="R89" s="1" t="s">
+        <v>523</v>
       </c>
       <c r="S89" s="1" t="s">
         <v>524</v>
@@ -7824,111 +8170,247 @@
         <v>525</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>524</v>
+        <v>146</v>
       </c>
       <c r="W89" s="1" t="s">
         <v>526</v>
       </c>
       <c r="X89" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y89" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="Y89" s="1" t="s">
+      <c r="AF89" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="Z89" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="AA89" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="AB89" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="AC89" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="AD89" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="AE89" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="AF89" s="1" t="s">
-        <v>529</v>
-      </c>
       <c r="AG89" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AH89" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="AI89" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="AJ89" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="AK89" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="AL89" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="AM89" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="AN89" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="AO89" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="AP89" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="AQ89" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="AR89" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="AS89" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="AT89" s="1" t="s">
-        <v>530</v>
+        <v>68</v>
       </c>
       <c r="AU89" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AV89" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="AW89" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="AX89" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="BB89" s="1" t="n">
+      <c r="BF89" s="1" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C90" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="U90" s="1"/>
+      <c r="Z90" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="AF90" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="AG90" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="AH90" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="AT90" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AU90" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BF90" s="1" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C91" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="S91" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="T91" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="U91" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="V91" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="W91" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="X91" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="Y91" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="Z91" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AA91" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AB91" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AC91" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AD91" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AE91" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AF91" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="AG91" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="AH91" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="AI91" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AJ91" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AK91" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AL91" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AM91" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AN91" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AO91" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AP91" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AQ91" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AR91" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AS91" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AT91" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="AU91" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV91" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AW91" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AX91" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="BB91" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="BC89" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="BF89" s="1" t="n">
+      <c r="BC91" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="BF91" s="1" t="n">
         <v>67</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="5"/>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="5"/>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="5"/>
-    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -7945,229 +8427,296 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="65"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1" t="s">
+      <c r="C1" s="0" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1" t="s">
+      <c r="C2" s="0" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1" t="s">
+      <c r="C3" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1" t="s">
+      <c r="C4" s="0" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>538</v>
+      <c r="C6" s="0" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="0" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1" t="s">
+    <row r="9" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="0" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1" t="s">
+    <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="1" t="s">
+      <c r="C10" s="0" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1" t="s">
+      <c r="C11" s="0" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>545</v>
+      <c r="C12" s="0" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="1" t="s">
+    <row r="18" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="1" t="s">
+      <c r="C19" s="0" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="1" t="s">
+      <c r="C21" s="0" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>550</v>
+      <c r="C22" s="0" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>556</v>
+      <c r="B24" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="0" t="s">
+        <v>585</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
